--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G4" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>4.9</v>
       </c>
       <c r="G5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="n">
         <v>1.92</v>
@@ -1087,7 +1087,7 @@
         <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,28 +1096,28 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
         <v>2.08</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="I6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
         <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" t="n">
         <v>2.08</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G8" t="n">
         <v>1.47</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -1792,7 +1792,7 @@
         <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AK10" t="n">
         <v>38</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="G11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="I11" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2425,19 +2425,19 @@
         <v>2.16</v>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="I15" t="n">
         <v>5.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="G16" t="n">
         <v>2.24</v>
       </c>
       <c r="H16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
         <v>4.8</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K16" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="G17" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="I17" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="J17" t="n">
-        <v>2.82</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G19" t="n">
         <v>2.6</v>
@@ -2974,7 +2974,7 @@
         <v>3.65</v>
       </c>
       <c r="J19" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K19" t="n">
         <v>3.1</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3100,10 +3100,10 @@
         <v>2.58</v>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I20" t="n">
         <v>3.2</v>
@@ -3112,7 +3112,7 @@
         <v>3.1</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q20" t="n">
         <v>1.93</v>
@@ -3274,7 +3274,7 @@
         <v>4.9</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U21" t="n">
         <v>1.94</v>
@@ -3292,13 +3292,13 @@
         <v>9.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
         <v>65</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC21" t="n">
         <v>6.6</v>
@@ -3463,7 +3463,7 @@
         <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM22" t="n">
         <v>55</v>
@@ -3559,7 +3559,7 @@
         <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z23" t="n">
         <v>27</v>
@@ -3568,7 +3568,7 @@
         <v>75</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
         <v>7.6</v>
@@ -3577,7 +3577,7 @@
         <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF23" t="n">
         <v>14.5</v>
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="H24" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="J24" t="n">
         <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3667,34 +3667,34 @@
         <v>1.31</v>
       </c>
       <c r="P24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1.94</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.89</v>
       </c>
       <c r="R24" t="n">
         <v>1.37</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U24" t="n">
         <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z24" t="n">
         <v>23</v>
@@ -3775,43 +3775,43 @@
         <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O25" t="n">
         <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R25" t="n">
         <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="T25" t="n">
         <v>1.79</v>
@@ -3820,25 +3820,25 @@
         <v>1.74</v>
       </c>
       <c r="V25" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W25" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X25" t="n">
         <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z25" t="n">
         <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB25" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>9</v>
@@ -3850,7 +3850,7 @@
         <v>70</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG25" t="n">
         <v>14</v>
@@ -3877,7 +3877,7 @@
         <v>980</v>
       </c>
       <c r="AO25" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -1087,7 +1087,7 @@
         <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1102,7 +1102,7 @@
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
         <v>2.14</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G7" t="n">
         <v>2.02</v>
@@ -1357,7 +1357,7 @@
         <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G8" t="n">
         <v>1.47</v>
@@ -1486,13 +1486,13 @@
         <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J8" t="n">
         <v>5.6</v>
       </c>
       <c r="K8" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>2.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
         <v>2.9</v>
@@ -1627,7 +1627,7 @@
         <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
         <v>1.92</v>
@@ -1888,7 +1888,7 @@
         <v>6.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I11" t="n">
         <v>2.04</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
         <v>1.01</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
         <v>1.01</v>
@@ -2425,10 +2425,10 @@
         <v>2.16</v>
       </c>
       <c r="G15" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.66</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
         <v>5.4</v>
@@ -2437,7 +2437,7 @@
         <v>2.84</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
         <v>2.36</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.16</v>
+        <v>2.76</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G17" t="n">
         <v>4.6</v>
@@ -2701,7 +2701,7 @@
         <v>1.87</v>
       </c>
       <c r="I17" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="J17" t="n">
         <v>3.95</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
         <v>1.01</v>
@@ -2965,10 +2965,10 @@
         <v>2.48</v>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
         <v>3.65</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="H20" t="n">
         <v>2.76</v>
@@ -3109,7 +3109,7 @@
         <v>3.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
         <v>3.65</v>
@@ -3130,7 +3130,7 @@
         <v>1.67</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>2.9</v>
       </c>
       <c r="G21" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H21" t="n">
         <v>3.05</v>
@@ -3262,7 +3262,7 @@
         <v>1.49</v>
       </c>
       <c r="P21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q21" t="n">
         <v>2.5</v>
@@ -3274,7 +3274,7 @@
         <v>4.9</v>
       </c>
       <c r="T21" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U21" t="n">
         <v>1.94</v>
@@ -3301,7 +3301,7 @@
         <v>9.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD21" t="n">
         <v>14</v>
@@ -3316,7 +3316,7 @@
         <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>60</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -3397,22 +3397,22 @@
         <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
         <v>1.71</v>
       </c>
       <c r="S22" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T22" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U22" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
         <v>38</v>
@@ -3451,10 +3451,10 @@
         <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
         <v>23</v>
@@ -3469,7 +3469,7 @@
         <v>55</v>
       </c>
       <c r="AN22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO22" t="n">
         <v>28</v>
@@ -3532,7 +3532,7 @@
         <v>1.42</v>
       </c>
       <c r="P23" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q23" t="n">
         <v>2.26</v>
@@ -3565,7 +3565,7 @@
         <v>27</v>
       </c>
       <c r="AA23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="n">
         <v>8.800000000000001</v>
@@ -3595,7 +3595,7 @@
         <v>38</v>
       </c>
       <c r="AK23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
         <v>50</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G24" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H24" t="n">
         <v>2.72</v>
       </c>
       <c r="I24" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="J24" t="n">
         <v>3.25</v>
@@ -3655,16 +3655,16 @@
         <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P24" t="n">
         <v>1.93</v>
@@ -3679,16 +3679,16 @@
         <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="U24" t="n">
         <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W24" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
         <v>17</v>
@@ -3721,7 +3721,7 @@
         <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI24" t="n">
         <v>50</v>
@@ -3775,7 +3775,7 @@
         <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H25" t="n">
         <v>3.55</v>
@@ -3793,7 +3793,7 @@
         <v>1.48</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
         <v>2.9</v>
@@ -3811,7 +3811,7 @@
         <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
         <v>1.79</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -676,103 +676,103 @@
         <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
         <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.54</v>
+        <v>1.22</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G4" t="n">
         <v>1.65</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G5" t="n">
         <v>5.5</v>
@@ -1081,7 +1081,7 @@
         <v>1.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="J5" t="n">
         <v>3.65</v>
@@ -1120,7 +1120,7 @@
         <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W5" t="n">
         <v>1.22</v>
@@ -1240,7 +1240,7 @@
         <v>1.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>1.43</v>
       </c>
       <c r="G8" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H8" t="n">
         <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J8" t="n">
         <v>5.6</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="Q8" t="n">
         <v>1.46</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G10" t="n">
         <v>2.72</v>
@@ -1777,7 +1777,7 @@
         <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2425,16 +2425,16 @@
         <v>2.16</v>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="H15" t="n">
         <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
         <v>3.7</v>
@@ -2455,7 +2455,7 @@
         <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.76</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>2.02</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
         <v>5.1</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q17" t="n">
         <v>1.54</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q19" t="n">
         <v>2.54</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="G20" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
         <v>2.76</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G21" t="n">
         <v>2.94</v>
@@ -3370,13 +3370,13 @@
         <v>1.94</v>
       </c>
       <c r="G22" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
         <v>4.1</v>
@@ -3403,13 +3403,13 @@
         <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S22" t="n">
         <v>2.32</v>
       </c>
       <c r="T22" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U22" t="n">
         <v>2.8</v>
@@ -3457,7 +3457,7 @@
         <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
         <v>17</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -3562,7 +3562,7 @@
         <v>11.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA23" t="n">
         <v>70</v>
@@ -3580,7 +3580,7 @@
         <v>46</v>
       </c>
       <c r="AF23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG23" t="n">
         <v>11.5</v>
@@ -3592,10 +3592,10 @@
         <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL23" t="n">
         <v>50</v>
@@ -3667,7 +3667,7 @@
         <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q24" t="n">
         <v>1.94</v>
@@ -3679,10 +3679,10 @@
         <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V24" t="n">
         <v>1.53</v>
@@ -3706,7 +3706,7 @@
         <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
         <v>15.5</v>
@@ -3775,19 +3775,19 @@
         <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.55</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.48</v>
@@ -3805,13 +3805,13 @@
         <v>1.65</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
         <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="T25" t="n">
         <v>1.79</v>
@@ -3823,13 +3823,13 @@
         <v>1.31</v>
       </c>
       <c r="W25" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="X25" t="n">
         <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z25" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G2" t="n">
         <v>1.7</v>
@@ -676,13 +676,13 @@
         <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.22</v>
+        <v>1.54</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -715,7 +715,7 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W2" t="n">
         <v>2.42</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H3" t="n">
         <v>2.54</v>
       </c>
       <c r="I3" t="n">
-        <v>3.55</v>
+        <v>2.78</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>1.41</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="G4" t="n">
         <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="I5" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,88 +1096,88 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>1.74</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.14</v>
+        <v>1.38</v>
       </c>
       <c r="R5" t="n">
         <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>1.53</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>5.9</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
         <v>2.02</v>
@@ -1351,13 +1351,13 @@
         <v>4.9</v>
       </c>
       <c r="I7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>1.43</v>
       </c>
       <c r="G8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H8" t="n">
         <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="J8" t="n">
         <v>5.6</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="I9" t="n">
         <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="K9" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
         <v>1.92</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
         <v>6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
         <v>1.78</v>
       </c>
       <c r="I11" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G14" t="n">
         <v>5.8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I14" t="n">
         <v>2.16</v>
@@ -2302,7 +2302,7 @@
         <v>2.76</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>1.98</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>2.64</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.77</v>
+        <v>1.21</v>
       </c>
       <c r="G16" t="n">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>1.21</v>
       </c>
       <c r="I16" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>2.9</v>
+        <v>1.01</v>
       </c>
       <c r="K16" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.7</v>
+        <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>2.02</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.52</v>
+        <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>2.86</v>
       </c>
       <c r="I19" t="n">
         <v>3.65</v>
       </c>
       <c r="J19" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>3.1</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3103,13 +3103,13 @@
         <v>3.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K20" t="n">
         <v>3.8</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3256,25 +3256,25 @@
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O21" t="n">
         <v>1.49</v>
       </c>
       <c r="P21" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q21" t="n">
         <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S21" t="n">
         <v>4.9</v>
       </c>
       <c r="T21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U21" t="n">
         <v>1.94</v>
@@ -3286,58 +3286,58 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
         <v>6.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AO21" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.94</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.95</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -3391,7 +3391,7 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
@@ -3403,10 +3403,10 @@
         <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S22" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T22" t="n">
         <v>1.53</v>
@@ -3427,10 +3427,10 @@
         <v>23</v>
       </c>
       <c r="Z22" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA22" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AB22" t="n">
         <v>14.5</v>
@@ -3442,7 +3442,7 @@
         <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF22" t="n">
         <v>15</v>
@@ -3463,16 +3463,16 @@
         <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -3508,7 +3508,7 @@
         <v>2.34</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
         <v>3.6</v>
@@ -3529,10 +3529,10 @@
         <v>3.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q23" t="n">
         <v>2.26</v>
@@ -3547,7 +3547,7 @@
         <v>1.96</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
         <v>24</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="n">
         <v>8.800000000000001</v>
@@ -3574,10 +3574,10 @@
         <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF23" t="n">
         <v>14</v>
@@ -3586,10 +3586,10 @@
         <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
         <v>32</v>
@@ -3598,13 +3598,13 @@
         <v>28</v>
       </c>
       <c r="AL23" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="n">
         <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO23" t="n">
         <v>55</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="G24" t="n">
         <v>3.05</v>
@@ -3649,100 +3649,100 @@
         <v>2.86</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7</v>
+        <v>1.04</v>
       </c>
       <c r="O24" t="n">
         <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.92</v>
+        <v>1.31</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>1.32</v>
       </c>
       <c r="R24" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>2.84</v>
       </c>
       <c r="T24" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
         <v>2.3</v>
       </c>
       <c r="V24" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W24" t="n">
         <v>1.5</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3775,31 +3775,31 @@
         <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="K25" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="P25" t="n">
         <v>1.65</v>
@@ -3808,22 +3808,22 @@
         <v>2.26</v>
       </c>
       <c r="R25" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="S25" t="n">
-        <v>3.85</v>
+        <v>1.44</v>
       </c>
       <c r="T25" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
         <v>1.31</v>
       </c>
       <c r="W25" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="X25" t="n">
         <v>13</v>
@@ -3877,7 +3877,7 @@
         <v>980</v>
       </c>
       <c r="AO25" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -670,82 +670,82 @@
         <v>1.46</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H2" t="n">
         <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>2.06</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
@@ -757,13 +757,13 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
         <v>2.54</v>
       </c>
       <c r="I3" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>4.6</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>1.41</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -853,40 +853,40 @@
         <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,7 +895,7 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.38</v>
@@ -961,22 +961,22 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -985,55 +985,55 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G5" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>1.74</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.38</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
         <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V5" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1159,7 +1159,7 @@
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.38</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>1.63</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>7.2</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.25</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="H7" t="n">
         <v>4.9</v>
@@ -1354,10 +1354,10 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="G8" t="n">
         <v>1.47</v>
@@ -1486,13 +1486,13 @@
         <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
         <v>5.6</v>
       </c>
       <c r="K8" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.86</v>
+        <v>1.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
         <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I9" t="n">
         <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="K9" t="n">
         <v>5.1</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
         <v>1.92</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC10" t="n">
         <v>6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>340</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="H11" t="n">
         <v>1.78</v>
@@ -1894,7 +1894,7 @@
         <v>2.12</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
         <v>5</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G14" t="n">
         <v>5.8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I14" t="n">
         <v>2.16</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G15" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="H15" t="n">
-        <v>2.64</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.21</v>
+        <v>1.87</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="H16" t="n">
-        <v>1.21</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>3.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.05</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>3.1</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="H20" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3256,13 +3256,13 @@
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O21" t="n">
         <v>1.49</v>
       </c>
       <c r="P21" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q21" t="n">
         <v>2.5</v>
@@ -3274,7 +3274,7 @@
         <v>4.9</v>
       </c>
       <c r="T21" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
         <v>1.94</v>
@@ -3286,58 +3286,58 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC21" t="n">
         <v>6.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF21" t="n">
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK21" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN21" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -3370,7 +3370,7 @@
         <v>1.93</v>
       </c>
       <c r="G22" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -3397,10 +3397,10 @@
         <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R22" t="n">
         <v>1.71</v>
@@ -3427,13 +3427,13 @@
         <v>23</v>
       </c>
       <c r="Z22" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
         <v>10.5</v>
@@ -3442,7 +3442,7 @@
         <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF22" t="n">
         <v>15</v>
@@ -3454,7 +3454,7 @@
         <v>13.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="n">
         <v>22</v>
@@ -3463,16 +3463,16 @@
         <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO22" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G23" t="n">
         <v>2.34</v>
@@ -3529,25 +3529,25 @@
         <v>3.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P23" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R23" t="n">
         <v>1.28</v>
       </c>
       <c r="S23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U23" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y23" t="n">
         <v>12</v>
@@ -3565,10 +3565,10 @@
         <v>24</v>
       </c>
       <c r="AA23" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC23" t="n">
         <v>7.6</v>
@@ -3589,10 +3589,10 @@
         <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK23" t="n">
         <v>28</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="G24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="I24" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="J24" t="n">
         <v>3.3</v>
@@ -3655,94 +3655,94 @@
         <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>1.04</v>
+        <v>3.75</v>
       </c>
       <c r="O24" t="n">
         <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.31</v>
+        <v>1.92</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.32</v>
+        <v>1.94</v>
       </c>
       <c r="R24" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>2.84</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U24" t="n">
         <v>2.3</v>
       </c>
       <c r="V24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -3775,19 +3775,19 @@
         <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J25" t="n">
-        <v>1.02</v>
+        <v>2.78</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,22 +3796,22 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="O25" t="n">
         <v>1.08</v>
       </c>
       <c r="P25" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>3.9</v>
       </c>
       <c r="T25" t="n">
         <v>1.01</v>
@@ -3820,64 +3820,64 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="W25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -670,25 +670,25 @@
         <v>1.46</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.26</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>4.7</v>
@@ -700,79 +700,79 @@
         <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R2" t="n">
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W2" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="X2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF2" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="H3" t="n">
         <v>2.54</v>
@@ -814,100 +814,100 @@
         <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.58</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
         <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G4" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.28</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>2.68</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         <v>4.7</v>
       </c>
       <c r="G5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
         <v>1.8</v>
@@ -1090,7 +1090,7 @@
         <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1102,7 +1102,7 @@
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
         <v>2.14</v>
@@ -1126,58 +1126,58 @@
         <v>1.22</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
         <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
         <v>1.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.25</v>
+        <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
         <v>4.9</v>
@@ -1354,100 +1354,100 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.09</v>
+        <v>1.41</v>
       </c>
       <c r="G8" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J8" t="n">
         <v>5.6</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>1.15</v>
+        <v>2.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="H9" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="J9" t="n">
-        <v>2.44</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1750,109 +1750,109 @@
         <v>2.68</v>
       </c>
       <c r="G10" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="M10" t="n">
         <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T10" t="n">
         <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X10" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
         <v>6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN10" t="n">
         <v>36</v>
       </c>
-      <c r="AL10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>38</v>
-      </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="G11" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="I11" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.01</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="Q13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.01</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G14" t="n">
         <v>5.8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="I14" t="n">
         <v>2.16</v>
       </c>
       <c r="J14" t="n">
-        <v>2.76</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q14" t="n">
         <v>1.6</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2428,10 +2428,10 @@
         <v>2.36</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
@@ -2440,94 +2440,94 @@
         <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="Q15" t="n">
         <v>2.36</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
         <v>4.3</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="G17" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="J17" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="Q17" t="n">
         <v>1.54</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="G19" t="n">
-        <v>2.94</v>
+        <v>2.68</v>
       </c>
       <c r="H19" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="J19" t="n">
         <v>3.05</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3103,7 +3103,7 @@
         <v>2.98</v>
       </c>
       <c r="H20" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.05</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.05</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,19 +3262,19 @@
         <v>1.49</v>
       </c>
       <c r="P21" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q21" t="n">
         <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S21" t="n">
         <v>4.9</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U21" t="n">
         <v>1.94</v>
@@ -3289,7 +3289,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z21" t="n">
         <v>19</v>
@@ -3307,16 +3307,16 @@
         <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>60</v>
@@ -3337,7 +3337,7 @@
         <v>44</v>
       </c>
       <c r="AO21" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -3397,22 +3397,22 @@
         <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S22" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T22" t="n">
         <v>1.53</v>
       </c>
       <c r="U22" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>36</v>
       </c>
       <c r="AA22" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
         <v>2.34</v>
@@ -3514,10 +3514,10 @@
         <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3526,28 +3526,28 @@
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="R23" t="n">
         <v>1.28</v>
       </c>
       <c r="S23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
         <v>12</v>
@@ -3577,7 +3577,7 @@
         <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF23" t="n">
         <v>14</v>
@@ -3592,7 +3592,7 @@
         <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK23" t="n">
         <v>28</v>
@@ -3652,16 +3652,16 @@
         <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O24" t="n">
         <v>1.32</v>
@@ -3730,7 +3730,7 @@
         <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="n">
         <v>980</v>
@@ -3775,109 +3775,109 @@
         <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="J25" t="n">
         <v>2.78</v>
       </c>
       <c r="K25" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>1.56</v>
+        <v>2.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="W25" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -676,7 +676,7 @@
         <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -715,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W2" t="n">
         <v>2.72</v>
@@ -805,19 +805,19 @@
         <v>2.62</v>
       </c>
       <c r="G3" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.29</v>
@@ -841,10 +841,10 @@
         <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U3" t="n">
         <v>2.22</v>
@@ -853,7 +853,7 @@
         <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X3" t="n">
         <v>24</v>
@@ -892,7 +892,7 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK3" t="n">
         <v>32</v>
@@ -979,10 +979,10 @@
         <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="V4" t="n">
         <v>1.16</v>
@@ -997,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="n">
         <v>240</v>
@@ -1033,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
         <v>160</v>
@@ -1213,7 +1213,7 @@
         <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
         <v>13</v>
@@ -1225,7 +1225,7 @@
         <v>5.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1246,7 +1246,7 @@
         <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
         <v>2.1</v>
@@ -1279,7 +1279,7 @@
         <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AE6" t="n">
         <v>270</v>
@@ -1345,10 +1345,10 @@
         <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
@@ -1357,13 +1357,13 @@
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
         <v>3.15</v>
@@ -1393,7 +1393,7 @@
         <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X7" t="n">
         <v>12.5</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
         <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
         <v>4.5</v>
@@ -1660,10 +1660,10 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="W9" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1765,13 +1765,13 @@
         <v>3.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M10" t="n">
         <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O10" t="n">
         <v>1.49</v>
@@ -1780,19 +1780,19 @@
         <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
         <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
         <v>1.42</v>
@@ -1804,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
@@ -1834,7 +1834,7 @@
         <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
         <v>40</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="G11" t="n">
         <v>6.6</v>
@@ -1906,10 +1906,10 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
         <v>1.68</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G12" t="n">
         <v>2.44</v>
@@ -2056,7 +2056,7 @@
         <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
@@ -2065,13 +2065,13 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
@@ -2113,7 +2113,7 @@
         <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2563,106 +2563,106 @@
         <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
         <v>5.8</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P16" t="n">
         <v>3.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2710,16 +2710,16 @@
         <v>5.1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
         <v>2.52</v>
@@ -2728,76 +2728,76 @@
         <v>1.54</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.01</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>2.46</v>
       </c>
       <c r="G19" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
@@ -2977,97 +2977,97 @@
         <v>3.05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P19" t="n">
         <v>1.56</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G20" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
         <v>2.78</v>
@@ -3109,100 +3109,100 @@
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
         <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.73</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="G21" t="n">
         <v>2.96</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I21" t="n">
         <v>3.05</v>
@@ -3250,13 +3250,13 @@
         <v>3.1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M21" t="n">
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O21" t="n">
         <v>1.49</v>
@@ -3265,7 +3265,7 @@
         <v>1.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R21" t="n">
         <v>1.24</v>
@@ -3280,40 +3280,40 @@
         <v>1.94</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X21" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
         <v>9.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE21" t="n">
         <v>40</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
@@ -3322,16 +3322,16 @@
         <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK21" t="n">
         <v>40</v>
       </c>
       <c r="AL21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM21" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="n">
         <v>44</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G22" t="n">
         <v>1.94</v>
@@ -3385,13 +3385,13 @@
         <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
@@ -3400,7 +3400,7 @@
         <v>2.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R22" t="n">
         <v>1.72</v>
@@ -3412,13 +3412,13 @@
         <v>1.53</v>
       </c>
       <c r="U22" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X22" t="n">
         <v>26</v>
@@ -3439,10 +3439,10 @@
         <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="n">
         <v>15</v>
@@ -3451,28 +3451,28 @@
         <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM22" t="n">
         <v>55</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -3508,7 +3508,7 @@
         <v>2.34</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
         <v>3.6</v>
@@ -3520,7 +3520,7 @@
         <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
@@ -3532,46 +3532,46 @@
         <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R23" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S23" t="n">
         <v>4.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
         <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
         <v>70</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
         <v>15</v>
@@ -3580,34 +3580,34 @@
         <v>46</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI23" t="n">
         <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL23" t="n">
         <v>46</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -3640,22 +3640,22 @@
         <v>2.86</v>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>2.68</v>
       </c>
       <c r="I24" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K24" t="n">
         <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3685,22 +3685,22 @@
         <v>2.3</v>
       </c>
       <c r="V24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
         <v>11.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA24" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB24" t="n">
         <v>12.5</v>
@@ -3709,16 +3709,16 @@
         <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>16.5</v>
@@ -3727,19 +3727,19 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
         <v>24</v>
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G25" t="n">
         <v>2.52</v>
       </c>
       <c r="H25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.5</v>
       </c>
-      <c r="I25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -3802,7 +3802,7 @@
         <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q25" t="n">
         <v>2.26</v>
@@ -3820,7 +3820,7 @@
         <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W25" t="n">
         <v>1.66</v>
@@ -3832,25 +3832,25 @@
         <v>14</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC25" t="n">
         <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
         <v>14</v>
@@ -3862,22 +3862,22 @@
         <v>85</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
         <v>170</v>
       </c>
       <c r="AN25" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO25" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -712,7 +712,7 @@
         <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
         <v>1.13</v>
@@ -805,40 +805,40 @@
         <v>2.62</v>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H3" t="n">
         <v>2.66</v>
       </c>
       <c r="I3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
         <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
         <v>2.66</v>
@@ -847,67 +847,67 @@
         <v>1.59</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
         <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -1096,13 +1096,13 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
         <v>2.14</v>
@@ -1111,7 +1111,7 @@
         <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
         <v>1.87</v>
@@ -1252,16 +1252,16 @@
         <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
         <v>2.88</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>30</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
         <v>42</v>
@@ -1291,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AI6" t="n">
         <v>240</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G7" t="n">
         <v>2.04</v>
@@ -1387,7 +1387,7 @@
         <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
         <v>1.25</v>
@@ -1414,7 +1414,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>70</v>
@@ -1486,7 +1486,7 @@
         <v>7.4</v>
       </c>
       <c r="I8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J8" t="n">
         <v>5.6</v>
@@ -1615,7 +1615,7 @@
         <v>2.22</v>
       </c>
       <c r="G9" t="n">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="H9" t="n">
         <v>3.05</v>
@@ -1624,7 +1624,7 @@
         <v>3.95</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>4.5</v>
@@ -1660,7 +1660,7 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
         <v>1.65</v>
@@ -1750,7 +1750,7 @@
         <v>2.68</v>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
@@ -1792,7 +1792,7 @@
         <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
         <v>1.42</v>
@@ -1906,10 +1906,10 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.69</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
         <v>1.68</v>
@@ -1918,7 +1918,7 @@
         <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
         <v>3.55</v>
@@ -2017,100 +2017,100 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="G12" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
         <v>3.05</v>
       </c>
-      <c r="K12" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.6</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V12" t="n">
         <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
         <v>60</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J13" t="n">
         <v>2.74</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2188,10 +2188,10 @@
         <v>2.06</v>
       </c>
       <c r="R13" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2200,55 +2200,55 @@
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W13" t="n">
         <v>1.52</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2428,7 +2428,7 @@
         <v>2.36</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
         <v>4.4</v>
@@ -2566,10 +2566,10 @@
         <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
         <v>5.8</v>
@@ -2590,10 +2590,10 @@
         <v>3.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
         <v>1.79</v>
@@ -2605,7 +2605,7 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
         <v>1.9</v>
@@ -2716,10 +2716,10 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.52</v>
+        <v>5.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
         <v>2.52</v>
@@ -2728,16 +2728,16 @@
         <v>1.54</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
         <v>1.96</v>
@@ -2746,58 +2746,58 @@
         <v>1.31</v>
       </c>
       <c r="X17" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Y17" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG17" t="n">
         <v>19</v>
       </c>
-      <c r="Z17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AH17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI17" t="n">
         <v>32</v>
       </c>
-      <c r="AB17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF17" t="n">
+      <c r="AJ17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK17" t="n">
         <v>46</v>
       </c>
-      <c r="AG17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>55</v>
-      </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -2857,7 +2857,7 @@
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q18" t="n">
         <v>1.99</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G19" t="n">
         <v>2.66</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G21" t="n">
         <v>2.96</v>
       </c>
       <c r="H21" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I21" t="n">
         <v>2.98</v>
       </c>
-      <c r="I21" t="n">
-        <v>3.05</v>
-      </c>
       <c r="J21" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L21" t="n">
         <v>1.53</v>
@@ -3256,10 +3256,10 @@
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
         <v>1.63</v>
@@ -3280,7 +3280,7 @@
         <v>1.94</v>
       </c>
       <c r="V21" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W21" t="n">
         <v>1.51</v>
@@ -3289,7 +3289,7 @@
         <v>9</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z21" t="n">
         <v>17.5</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G22" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -3385,22 +3385,22 @@
         <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
         <v>1.72</v>
@@ -3409,7 +3409,7 @@
         <v>2.34</v>
       </c>
       <c r="T22" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U22" t="n">
         <v>2.8</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J23" t="n">
         <v>3.45</v>
@@ -3520,7 +3520,7 @@
         <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
@@ -3541,7 +3541,7 @@
         <v>1.29</v>
       </c>
       <c r="S23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T23" t="n">
         <v>1.96</v>
@@ -3550,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W23" t="n">
         <v>1.74</v>
@@ -3592,7 +3592,7 @@
         <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK23" t="n">
         <v>27</v>
@@ -3640,10 +3640,10 @@
         <v>2.86</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H24" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="I24" t="n">
         <v>2.76</v>
@@ -3688,7 +3688,7 @@
         <v>1.56</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X24" t="n">
         <v>15</v>
@@ -3736,10 +3736,10 @@
         <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
         <v>24</v>
@@ -3790,7 +3790,7 @@
         <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -3832,7 +3832,7 @@
         <v>14</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
         <v>95</v>
@@ -3841,7 +3841,7 @@
         <v>10</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
         <v>19</v>
@@ -3868,16 +3868,16 @@
         <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
         <v>170</v>
       </c>
       <c r="AN25" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO25" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -670,7 +670,7 @@
         <v>1.46</v>
       </c>
       <c r="G2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
         <v>6.6</v>
@@ -697,19 +697,19 @@
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
         <v>2.02</v>
@@ -718,7 +718,7 @@
         <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X2" t="n">
         <v>27</v>
@@ -730,7 +730,7 @@
         <v>80</v>
       </c>
       <c r="AA2" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AB2" t="n">
         <v>12</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G3" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="H3" t="n">
         <v>2.66</v>
@@ -814,10 +814,10 @@
         <v>2.76</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
@@ -832,28 +832,28 @@
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T3" t="n">
         <v>1.59</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="V3" t="n">
         <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -979,10 +979,10 @@
         <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="U4" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
         <v>1.16</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="I5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.46</v>
@@ -1102,16 +1102,16 @@
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
         <v>2.14</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
         <v>1.87</v>
@@ -1123,7 +1123,7 @@
         <v>2.06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="X5" t="n">
         <v>14</v>
@@ -1138,7 +1138,7 @@
         <v>24</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
         <v>9.6</v>
@@ -1153,7 +1153,7 @@
         <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>26</v>
@@ -1162,10 +1162,10 @@
         <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AK5" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="n">
         <v>100</v>
@@ -1174,7 +1174,7 @@
         <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
         <v>18.5</v>
@@ -1225,7 +1225,7 @@
         <v>5.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1252,7 +1252,7 @@
         <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
         <v>1.09</v>
@@ -1264,7 +1264,7 @@
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
         <v>120</v>
@@ -1279,7 +1279,7 @@
         <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
         <v>270</v>
@@ -1291,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
         <v>240</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
         <v>4.8</v>
@@ -1354,10 +1354,10 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
         <v>1.47</v>
@@ -1369,10 +1369,10 @@
         <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q7" t="n">
         <v>2.12</v>
@@ -1387,13 +1387,13 @@
         <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
         <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="X7" t="n">
         <v>12.5</v>
@@ -1414,7 +1414,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
         <v>70</v>
@@ -1438,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>160</v>
@@ -1486,13 +1486,13 @@
         <v>7.4</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J8" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1528,10 +1528,10 @@
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="n">
         <v>42</v>
@@ -1564,7 +1564,7 @@
         <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
         <v>16.5</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="H9" t="n">
         <v>3.05</v>
@@ -1663,7 +1663,7 @@
         <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>2.68</v>
       </c>
       <c r="G10" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
@@ -1798,13 +1798,13 @@
         <v>1.42</v>
       </c>
       <c r="W10" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X10" t="n">
         <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="G11" t="n">
         <v>6.6</v>
@@ -1891,7 +1891,7 @@
         <v>1.76</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J11" t="n">
         <v>3.35</v>
@@ -1900,7 +1900,7 @@
         <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1912,7 +1912,7 @@
         <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q11" t="n">
         <v>2.18</v>
@@ -1933,61 +1933,61 @@
         <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB11" t="n">
         <v>16</v>
       </c>
-      <c r="Y11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>21</v>
-      </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2047,82 +2047,82 @@
         <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="T12" t="n">
         <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="V12" t="n">
         <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI12" t="n">
         <v>80</v>
       </c>
-      <c r="AF12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>90</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>1.59</v>
+        <v>2.96</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL13" t="n">
         <v>60</v>
       </c>
-      <c r="AF13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>70</v>
-      </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -2425,10 +2425,10 @@
         <v>2.16</v>
       </c>
       <c r="G15" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
         <v>4.4</v>
@@ -2437,7 +2437,7 @@
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.51</v>
@@ -2473,49 +2473,49 @@
         <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
         <v>110</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
         <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
         <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
         <v>55</v>
@@ -2524,7 +2524,7 @@
         <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
         <v>100</v>
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H16" t="n">
         <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
         <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>7.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P16" t="n">
         <v>3.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="R16" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -2692,79 +2692,79 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="I17" t="n">
         <v>2.04</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
         <v>5.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="S17" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="V17" t="n">
         <v>1.96</v>
       </c>
       <c r="W17" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="X17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -2773,31 +2773,31 @@
         <v>38</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
         <v>32</v>
       </c>
       <c r="AJ17" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="18">
@@ -2833,40 +2833,40 @@
         <v>2.16</v>
       </c>
       <c r="H18" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J18" t="n">
         <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>1.58</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,7 +2875,7 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
         <v>1.86</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G19" t="n">
         <v>2.66</v>
@@ -2971,16 +2971,16 @@
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
         <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M19" t="n">
         <v>1.12</v>
@@ -3001,7 +3001,7 @@
         <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T19" t="n">
         <v>2.06</v>
@@ -3010,7 +3010,7 @@
         <v>1.71</v>
       </c>
       <c r="V19" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W19" t="n">
         <v>1.6</v>
@@ -3100,109 +3100,109 @@
         <v>2.62</v>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="H20" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>1.72</v>
+        <v>2.76</v>
       </c>
       <c r="O20" t="n">
         <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
         <v>2.14</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S20" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
         <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G21" t="n">
         <v>2.94</v>
       </c>
-      <c r="G21" t="n">
-        <v>2.96</v>
-      </c>
       <c r="H21" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I21" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>3.1</v>
@@ -3262,7 +3262,7 @@
         <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q21" t="n">
         <v>2.48</v>
@@ -3316,7 +3316,7 @@
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
         <v>60</v>
@@ -3376,7 +3376,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
         <v>4.1</v>
@@ -3391,13 +3391,13 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q22" t="n">
         <v>1.53</v>
@@ -3406,7 +3406,7 @@
         <v>1.72</v>
       </c>
       <c r="S22" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T22" t="n">
         <v>1.54</v>
@@ -3418,7 +3418,7 @@
         <v>1.32</v>
       </c>
       <c r="W22" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X22" t="n">
         <v>26</v>
@@ -3430,13 +3430,13 @@
         <v>36</v>
       </c>
       <c r="AA22" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
         <v>16</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G23" t="n">
         <v>2.36</v>
@@ -3511,7 +3511,7 @@
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
         <v>3.45</v>
@@ -3520,13 +3520,13 @@
         <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O23" t="n">
         <v>1.41</v>
@@ -3535,7 +3535,7 @@
         <v>1.79</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R23" t="n">
         <v>1.29</v>
@@ -3550,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W23" t="n">
         <v>1.74</v>
@@ -3640,7 +3640,7 @@
         <v>2.86</v>
       </c>
       <c r="G24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
         <v>2.58</v>
@@ -3655,7 +3655,7 @@
         <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3667,7 +3667,7 @@
         <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q24" t="n">
         <v>1.94</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G2" t="n">
         <v>1.57</v>
@@ -676,13 +676,13 @@
         <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.26</v>
@@ -838,7 +838,7 @@
         <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
         <v>2.64</v>
@@ -847,7 +847,7 @@
         <v>1.59</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
         <v>1.59</v>
@@ -961,7 +961,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -973,16 +973,16 @@
         <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S4" t="n">
         <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V4" t="n">
         <v>1.16</v>
@@ -991,10 +991,10 @@
         <v>2.52</v>
       </c>
       <c r="X4" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
         <v>70</v>
@@ -1003,10 +1003,10 @@
         <v>240</v>
       </c>
       <c r="AB4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC4" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>32</v>
@@ -1015,7 +1015,7 @@
         <v>120</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
         <v>12.5</v>
@@ -1030,7 +1030,7 @@
         <v>18.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>46</v>
@@ -1075,13 +1075,13 @@
         <v>4.3</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
         <v>1.86</v>
       </c>
       <c r="I5" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J5" t="n">
         <v>3.65</v>
@@ -1213,7 +1213,7 @@
         <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I6" t="n">
         <v>13</v>
@@ -1225,7 +1225,7 @@
         <v>5.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1246,7 +1246,7 @@
         <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
         <v>2.1</v>
@@ -1261,7 +1261,7 @@
         <v>2.88</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
@@ -1300,7 +1300,7 @@
         <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>65</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1414,7 +1414,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
         <v>70</v>
@@ -1480,7 +1480,7 @@
         <v>1.41</v>
       </c>
       <c r="G8" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H8" t="n">
         <v>7.4</v>
@@ -1528,7 +1528,7 @@
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X8" t="n">
         <v>40</v>
@@ -1543,10 +1543,10 @@
         <v>240</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD8" t="n">
         <v>36</v>
@@ -1558,7 +1558,7 @@
         <v>13.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
         <v>28</v>
@@ -1567,10 +1567,10 @@
         <v>85</v>
       </c>
       <c r="AJ8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK8" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
@@ -1579,7 +1579,7 @@
         <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO8" t="n">
         <v>95</v>
@@ -1615,28 +1615,28 @@
         <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="H9" t="n">
         <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.98</v>
+        <v>3.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.27</v>
@@ -1648,76 +1648,76 @@
         <v>1.81</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1804,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
@@ -1885,25 +1885,25 @@
         <v>4.8</v>
       </c>
       <c r="G11" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="I11" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
         <v>3</v>
@@ -1918,19 +1918,19 @@
         <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="W11" t="n">
         <v>1.2</v>
@@ -1948,7 +1948,7 @@
         <v>22</v>
       </c>
       <c r="AB11" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>150</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2020,13 +2020,13 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.85</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
@@ -2035,7 +2035,7 @@
         <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2056,7 +2056,7 @@
         <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T12" t="n">
         <v>1.79</v>
@@ -2068,7 +2068,7 @@
         <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X12" t="n">
         <v>13.5</v>
@@ -2077,7 +2077,7 @@
         <v>15.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
         <v>110</v>
@@ -2107,10 +2107,10 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
         <v>55</v>
@@ -2119,7 +2119,7 @@
         <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AO12" t="n">
         <v>85</v>
@@ -2155,7 +2155,7 @@
         <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
@@ -2167,13 +2167,13 @@
         <v>2.84</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
         <v>2.96</v>
@@ -2182,7 +2182,7 @@
         <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q13" t="n">
         <v>2.2</v>
@@ -2194,19 +2194,19 @@
         <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="U13" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
         <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2227,7 +2227,7 @@
         <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
         <v>17.5</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="G14" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="H14" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="I14" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,16 +2311,16 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
         <v>1.38</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="W14" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2464,7 +2464,7 @@
         <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="U15" t="n">
         <v>1.86</v>
@@ -2566,7 +2566,7 @@
         <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J16" t="n">
         <v>4.3</v>
@@ -2608,7 +2608,7 @@
         <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X16" t="n">
         <v>50</v>
@@ -2629,7 +2629,7 @@
         <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>40</v>
@@ -2695,7 +2695,7 @@
         <v>3.7</v>
       </c>
       <c r="G17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
         <v>1.85</v>
@@ -2710,7 +2710,7 @@
         <v>5.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2725,13 +2725,13 @@
         <v>2.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
         <v>1.57</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="G18" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="J18" t="n">
         <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.46</v>
@@ -2854,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
         <v>1.69</v>
@@ -2869,70 +2869,70 @@
         <v>3.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W18" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -3004,10 +3004,10 @@
         <v>5.2</v>
       </c>
       <c r="T19" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="U19" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="V19" t="n">
         <v>1.4</v>
@@ -3115,34 +3115,34 @@
         <v>3.55</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P20" t="n">
         <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R20" t="n">
         <v>1.26</v>
       </c>
       <c r="S20" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="V20" t="n">
         <v>1.5</v>
@@ -3412,7 +3412,7 @@
         <v>1.54</v>
       </c>
       <c r="U22" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="V22" t="n">
         <v>1.32</v>
@@ -3430,7 +3430,7 @@
         <v>36</v>
       </c>
       <c r="AA22" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
@@ -3514,7 +3514,7 @@
         <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
         <v>3.5</v>
@@ -3526,13 +3526,13 @@
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O23" t="n">
         <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q23" t="n">
         <v>2.24</v>
@@ -3553,7 +3553,7 @@
         <v>1.38</v>
       </c>
       <c r="W23" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
@@ -3640,16 +3640,16 @@
         <v>2.86</v>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I24" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
         <v>3.55</v>
@@ -3676,7 +3676,7 @@
         <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T24" t="n">
         <v>1.72</v>
@@ -3685,10 +3685,10 @@
         <v>2.3</v>
       </c>
       <c r="V24" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
         <v>15</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G25" t="n">
         <v>2.52</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
         <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -718,7 +718,7 @@
         <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="X2" t="n">
         <v>27</v>
@@ -757,7 +757,7 @@
         <v>100</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK2" t="n">
         <v>18.5</v>
@@ -769,7 +769,7 @@
         <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
         <v>130</v>
@@ -838,7 +838,7 @@
         <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>2.64</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G4" t="n">
         <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
         <v>7.2</v>
@@ -952,7 +952,7 @@
         <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.38</v>
@@ -967,22 +967,22 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
         <v>1.16</v>
@@ -997,10 +997,10 @@
         <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA4" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AB4" t="n">
         <v>10</v>
@@ -1012,7 +1012,7 @@
         <v>32</v>
       </c>
       <c r="AE4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF4" t="n">
         <v>10.5</v>
@@ -1021,10 +1021,10 @@
         <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
         <v>18.5</v>
@@ -1033,16 +1033,16 @@
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
         <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>1.46</v>
@@ -1102,25 +1102,25 @@
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="V5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W5" t="n">
         <v>1.26</v>
@@ -1168,16 +1168,16 @@
         <v>80</v>
       </c>
       <c r="AL5" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L6" t="n">
         <v>1.42</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.36</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V6" t="n">
         <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X6" t="n">
         <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
         <v>120</v>
@@ -1273,19 +1273,19 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1297,7 +1297,7 @@
         <v>240</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
         <v>980</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1366,16 +1366,16 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
         <v>1.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R7" t="n">
         <v>1.28</v>
@@ -1384,10 +1384,10 @@
         <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
         <v>1.25</v>
@@ -1402,7 +1402,7 @@
         <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>130</v>
@@ -1411,7 +1411,7 @@
         <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
         <v>970</v>
@@ -1480,13 +1480,13 @@
         <v>1.41</v>
       </c>
       <c r="G8" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H8" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I8" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
         <v>5.7</v>
@@ -1510,22 +1510,22 @@
         <v>2.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
         <v>3.25</v>
@@ -1582,7 +1582,7 @@
         <v>5.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -1624,7 +1624,7 @@
         <v>3.55</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
         <v>4.5</v>
@@ -1636,22 +1636,22 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O9" t="n">
         <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R9" t="n">
         <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="T9" t="n">
         <v>1.68</v>
@@ -1891,7 +1891,7 @@
         <v>1.78</v>
       </c>
       <c r="I11" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
@@ -1918,7 +1918,7 @@
         <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
         <v>4.1</v>
@@ -2026,10 +2026,10 @@
         <v>3.85</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
@@ -2041,22 +2041,22 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
         <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T12" t="n">
         <v>1.79</v>
@@ -2065,10 +2065,10 @@
         <v>1.92</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X12" t="n">
         <v>13.5</v>
@@ -2095,13 +2095,13 @@
         <v>70</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
         <v>80</v>
@@ -2155,58 +2155,58 @@
         <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
         <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O13" t="n">
         <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
         <v>1.59</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H14" t="n">
         <v>1.81</v>
       </c>
       <c r="I14" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -2323,10 +2323,10 @@
         <v>1.61</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>2.44</v>
+        <v>1.61</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="W14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
         <v>4.4</v>
@@ -2443,7 +2443,7 @@
         <v>1.51</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
         <v>2.86</v>
@@ -2455,7 +2455,7 @@
         <v>1.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="R15" t="n">
         <v>1.23</v>
@@ -2470,7 +2470,7 @@
         <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
         <v>1.75</v>
@@ -2563,7 +2563,7 @@
         <v>2.08</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I16" t="n">
         <v>3.85</v>
@@ -2572,7 +2572,7 @@
         <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.18</v>
@@ -2599,7 +2599,7 @@
         <v>1.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="U16" t="n">
         <v>2.96</v>
@@ -2623,7 +2623,7 @@
         <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
         <v>15</v>
@@ -2644,7 +2644,7 @@
         <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
         <v>32</v>
@@ -2695,7 +2695,7 @@
         <v>3.7</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="n">
         <v>1.85</v>
@@ -2707,10 +2707,10 @@
         <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2836,16 +2836,16 @@
         <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
         <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2854,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q18" t="n">
         <v>2.16</v>
@@ -2875,7 +2875,7 @@
         <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
         <v>1.96</v>
@@ -2965,13 +2965,13 @@
         <v>2.52</v>
       </c>
       <c r="G19" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J19" t="n">
         <v>3.1</v>
@@ -2992,7 +2992,7 @@
         <v>1.52</v>
       </c>
       <c r="P19" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q19" t="n">
         <v>2.52</v>
@@ -3004,7 +3004,7 @@
         <v>5.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
         <v>1.82</v>
@@ -3016,7 +3016,7 @@
         <v>1.6</v>
       </c>
       <c r="X19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
@@ -3052,7 +3052,7 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="n">
         <v>36</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G20" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I20" t="n">
         <v>2.98</v>
@@ -3118,22 +3118,22 @@
         <v>1.46</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
         <v>3.55</v>
@@ -3142,7 +3142,7 @@
         <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V20" t="n">
         <v>1.5</v>
@@ -3199,7 +3199,7 @@
         <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO20" t="n">
         <v>46</v>
@@ -3244,28 +3244,28 @@
         <v>3</v>
       </c>
       <c r="J21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.1</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M21" t="n">
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P21" t="n">
         <v>1.64</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
         <v>1.24</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.94</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.95</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -3379,10 +3379,10 @@
         <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
         <v>1.28</v>
@@ -3397,10 +3397,10 @@
         <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R22" t="n">
         <v>1.72</v>
@@ -3418,7 +3418,7 @@
         <v>1.32</v>
       </c>
       <c r="W22" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X22" t="n">
         <v>26</v>
@@ -3457,7 +3457,7 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
         <v>16.5</v>
@@ -3526,28 +3526,28 @@
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O23" t="n">
         <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T23" t="n">
         <v>1.96</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V23" t="n">
         <v>1.38</v>
@@ -3556,7 +3556,7 @@
         <v>1.73</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
         <v>12</v>
@@ -3568,7 +3568,7 @@
         <v>70</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
         <v>7.4</v>
@@ -3601,7 +3601,7 @@
         <v>46</v>
       </c>
       <c r="AM23" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
         <v>23</v>
@@ -3772,46 +3772,46 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G25" t="n">
         <v>2.52</v>
       </c>
       <c r="H25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.45</v>
       </c>
-      <c r="I25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P25" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="R25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="T25" t="n">
         <v>1.78</v>
@@ -3832,7 +3832,7 @@
         <v>14</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="n">
         <v>95</v>
@@ -3841,7 +3841,7 @@
         <v>10</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
         <v>19</v>
@@ -3865,16 +3865,16 @@
         <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
         <v>170</v>
       </c>
       <c r="AN25" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO25" t="n">
         <v>80</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -847,7 +847,7 @@
         <v>1.59</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V3" t="n">
         <v>1.59</v>
@@ -940,19 +940,19 @@
         <v>1.59</v>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.38</v>
@@ -967,7 +967,7 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
         <v>1.87</v>
@@ -979,16 +979,16 @@
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
         <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="X4" t="n">
         <v>17.5</v>
@@ -1240,7 +1240,7 @@
         <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
@@ -1369,7 +1369,7 @@
         <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
         <v>1.74</v>
@@ -1486,7 +1486,7 @@
         <v>7.8</v>
       </c>
       <c r="I8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J8" t="n">
         <v>5.7</v>
@@ -1507,7 +1507,7 @@
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q8" t="n">
         <v>1.48</v>
@@ -1519,16 +1519,16 @@
         <v>2.18</v>
       </c>
       <c r="T8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
         <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X8" t="n">
         <v>40</v>
@@ -1624,7 +1624,7 @@
         <v>3.55</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>4.5</v>
@@ -1639,7 +1639,7 @@
         <v>3.85</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
         <v>1.99</v>
@@ -1651,13 +1651,13 @@
         <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>1.4</v>
@@ -1774,7 +1774,7 @@
         <v>2.98</v>
       </c>
       <c r="O10" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
         <v>1.63</v>
@@ -1888,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I11" t="n">
         <v>1.97</v>
@@ -2020,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="n">
         <v>3.85</v>
@@ -2047,7 +2047,7 @@
         <v>1.38</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
         <v>2.12</v>
@@ -2056,19 +2056,19 @@
         <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
         <v>1.92</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="X12" t="n">
         <v>13.5</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J13" t="n">
         <v>2.86</v>
@@ -2179,34 +2179,34 @@
         <v>2.94</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
         <v>1.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R13" t="n">
         <v>1.24</v>
       </c>
       <c r="S13" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2233,7 +2233,7 @@
         <v>17.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
         <v>23</v>
@@ -2293,7 +2293,7 @@
         <v>5.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I14" t="n">
         <v>2.16</v>
@@ -2320,13 +2320,13 @@
         <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
         <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2425,13 +2425,13 @@
         <v>2.18</v>
       </c>
       <c r="G15" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
         <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
@@ -2449,7 +2449,7 @@
         <v>2.86</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
         <v>1.63</v>
@@ -2464,7 +2464,7 @@
         <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
         <v>1.86</v>
@@ -2473,7 +2473,7 @@
         <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="G16" t="n">
         <v>2.08</v>
@@ -2596,7 +2596,7 @@
         <v>1.9</v>
       </c>
       <c r="S16" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T16" t="n">
         <v>1.42</v>
@@ -2608,7 +2608,7 @@
         <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X16" t="n">
         <v>50</v>
@@ -2617,7 +2617,7 @@
         <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="n">
         <v>65</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G17" t="n">
         <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="I17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J17" t="n">
         <v>3.95</v>
@@ -2710,10 +2710,10 @@
         <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
         <v>5.2</v>
@@ -2722,13 +2722,13 @@
         <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q17" t="n">
         <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S17" t="n">
         <v>2.38</v>
@@ -2737,13 +2737,13 @@
         <v>1.57</v>
       </c>
       <c r="U17" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V17" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W17" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
         <v>29</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I18" t="n">
         <v>6.2</v>
@@ -2854,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
         <v>1.68</v>
@@ -2878,7 +2878,7 @@
         <v>1.19</v>
       </c>
       <c r="W18" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="X18" t="n">
         <v>13.5</v>
@@ -2887,7 +2887,7 @@
         <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA18" t="n">
         <v>160</v>
@@ -2902,7 +2902,7 @@
         <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF18" t="n">
         <v>12.5</v>
@@ -2914,10 +2914,10 @@
         <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
         <v>27</v>
@@ -2926,7 +2926,7 @@
         <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="G19" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I19" t="n">
         <v>3.55</v>
@@ -2980,7 +2980,7 @@
         <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M19" t="n">
         <v>1.12</v>
@@ -3007,13 +3007,13 @@
         <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
         <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X19" t="n">
         <v>9</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G20" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="H20" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
         <v>2.98</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
         <v>3.55</v>
@@ -3127,22 +3127,22 @@
         <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
         <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V20" t="n">
         <v>1.5</v>
@@ -3274,7 +3274,7 @@
         <v>4.9</v>
       </c>
       <c r="T21" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
         <v>1.94</v>
@@ -3292,13 +3292,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA21" t="n">
         <v>55</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
         <v>6.6</v>
@@ -3328,7 +3328,7 @@
         <v>40</v>
       </c>
       <c r="AL21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
         <v>160</v>
@@ -3400,19 +3400,19 @@
         <v>2.82</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
         <v>1.72</v>
       </c>
       <c r="S22" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T22" t="n">
         <v>1.54</v>
       </c>
       <c r="U22" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="V22" t="n">
         <v>1.32</v>
@@ -3436,7 +3436,7 @@
         <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
         <v>16</v>
@@ -3532,7 +3532,7 @@
         <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q23" t="n">
         <v>2.2</v>
@@ -3556,7 +3556,7 @@
         <v>1.73</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y23" t="n">
         <v>12</v>
@@ -3640,10 +3640,10 @@
         <v>2.86</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H24" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I24" t="n">
         <v>2.74</v>
@@ -3781,7 +3781,7 @@
         <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J25" t="n">
         <v>3.1</v>
@@ -3802,7 +3802,7 @@
         <v>1.43</v>
       </c>
       <c r="P25" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q25" t="n">
         <v>2.18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G3" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="I3" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
@@ -853,7 +853,7 @@
         <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.59</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.64</v>
-      </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -970,25 +970,25 @@
         <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.94</v>
       </c>
-      <c r="U4" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="X4" t="n">
         <v>17.5</v>
@@ -1000,7 +1000,7 @@
         <v>65</v>
       </c>
       <c r="AA4" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AB4" t="n">
         <v>10</v>
@@ -1015,10 +1015,10 @@
         <v>110</v>
       </c>
       <c r="AF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG4" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>44</v>
@@ -1039,10 +1039,10 @@
         <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO4" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I5" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.46</v>
@@ -1120,7 +1120,7 @@
         <v>1.85</v>
       </c>
       <c r="V5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W5" t="n">
         <v>1.26</v>
@@ -1162,7 +1162,7 @@
         <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
         <v>80</v>
@@ -1210,7 +1210,7 @@
         <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H6" t="n">
         <v>9</v>
@@ -1219,13 +1219,13 @@
         <v>12.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
         <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1348,16 +1348,16 @@
         <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.47</v>
@@ -1366,16 +1366,16 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
         <v>1.28</v>
@@ -1384,16 +1384,16 @@
         <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W7" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
         <v>12.5</v>
@@ -1429,7 +1429,7 @@
         <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
@@ -1441,7 +1441,7 @@
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
         <v>18.5</v>
@@ -1486,7 +1486,7 @@
         <v>7.8</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
         <v>5.7</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
         <v>2.52</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
@@ -1645,7 +1645,7 @@
         <v>1.99</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R9" t="n">
         <v>1.38</v>
@@ -1654,16 +1654,16 @@
         <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
         <v>19.5</v>
@@ -1672,7 +1672,7 @@
         <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
         <v>70</v>
@@ -1681,22 +1681,22 @@
         <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>55</v>
@@ -1705,7 +1705,7 @@
         <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
         <v>44</v>
@@ -1714,10 +1714,10 @@
         <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -1774,7 +1774,7 @@
         <v>2.98</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P10" t="n">
         <v>1.63</v>
@@ -1786,7 +1786,7 @@
         <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T10" t="n">
         <v>2.02</v>
@@ -1801,13 +1801,13 @@
         <v>1.59</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA10" t="n">
         <v>65</v>
@@ -1825,7 +1825,7 @@
         <v>46</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
         <v>12.5</v>
@@ -1888,10 +1888,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I11" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
@@ -1906,13 +1906,13 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q11" t="n">
         <v>2.18</v>
@@ -1927,7 +1927,7 @@
         <v>1.98</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V11" t="n">
         <v>2.04</v>
@@ -1939,7 +1939,7 @@
         <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1975,7 +1975,7 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL11" t="n">
         <v>110</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G12" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2056,7 +2056,7 @@
         <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="T12" t="n">
         <v>1.8</v>
@@ -2065,10 +2065,10 @@
         <v>1.92</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="X12" t="n">
         <v>13.5</v>
@@ -2155,16 +2155,16 @@
         <v>2.34</v>
       </c>
       <c r="G13" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
         <v>3.8</v>
@@ -2173,7 +2173,7 @@
         <v>1.48</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
         <v>2.94</v>
@@ -2185,13 +2185,13 @@
         <v>1.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
         <v>1.24</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
         <v>1.9</v>
@@ -2200,13 +2200,13 @@
         <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H14" t="n">
         <v>1.82</v>
@@ -2299,10 +2299,10 @@
         <v>2.16</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2323,10 +2323,10 @@
         <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>1.7</v>
+        <v>2.46</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2437,7 +2437,7 @@
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>1.51</v>
@@ -2455,7 +2455,7 @@
         <v>1.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R15" t="n">
         <v>1.23</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G16" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
         <v>3.85</v>
@@ -2572,7 +2572,7 @@
         <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.18</v>
@@ -2596,7 +2596,7 @@
         <v>1.9</v>
       </c>
       <c r="S16" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="T16" t="n">
         <v>1.42</v>
@@ -2605,10 +2605,10 @@
         <v>2.96</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="X16" t="n">
         <v>50</v>
@@ -2695,10 +2695,10 @@
         <v>3.75</v>
       </c>
       <c r="G17" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="I17" t="n">
         <v>2.02</v>
@@ -2716,61 +2716,61 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="R17" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="T17" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U17" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V17" t="n">
         <v>1.98</v>
       </c>
       <c r="W17" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA17" t="n">
         <v>26</v>
       </c>
       <c r="AB17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
         <v>19.5</v>
@@ -2785,16 +2785,16 @@
         <v>85</v>
       </c>
       <c r="AK17" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL17" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
         <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
         <v>10.5</v>
@@ -2839,13 +2839,13 @@
         <v>6.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2878,7 +2878,7 @@
         <v>1.19</v>
       </c>
       <c r="W18" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="X18" t="n">
         <v>13.5</v>
@@ -2965,7 +2965,7 @@
         <v>2.48</v>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H19" t="n">
         <v>3.35</v>
@@ -2974,7 +2974,7 @@
         <v>3.55</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
         <v>3.2</v>
@@ -2998,13 +2998,13 @@
         <v>2.52</v>
       </c>
       <c r="R19" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S19" t="n">
         <v>5.2</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U19" t="n">
         <v>1.83</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G20" t="n">
         <v>2.82</v>
@@ -3106,7 +3106,7 @@
         <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="J20" t="n">
         <v>3.45</v>
@@ -3139,13 +3139,13 @@
         <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W20" t="n">
         <v>1.55</v>
@@ -3235,7 +3235,7 @@
         <v>2.92</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H21" t="n">
         <v>2.98</v>
@@ -3256,7 +3256,7 @@
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
         <v>1.49</v>
@@ -3274,7 +3274,7 @@
         <v>4.9</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U21" t="n">
         <v>1.94</v>
@@ -3286,7 +3286,7 @@
         <v>1.51</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Y21" t="n">
         <v>9.199999999999999</v>
@@ -3310,7 +3310,7 @@
         <v>40</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG21" t="n">
         <v>13</v>
@@ -3328,7 +3328,7 @@
         <v>40</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
         <v>160</v>
@@ -3409,10 +3409,10 @@
         <v>2.34</v>
       </c>
       <c r="T22" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U22" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="V22" t="n">
         <v>1.32</v>
@@ -3430,7 +3430,7 @@
         <v>36</v>
       </c>
       <c r="AA22" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
@@ -3439,7 +3439,7 @@
         <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE22" t="n">
         <v>38</v>
@@ -3448,7 +3448,7 @@
         <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>14.5</v>
@@ -3505,7 +3505,7 @@
         <v>2.32</v>
       </c>
       <c r="G23" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
@@ -3535,7 +3535,7 @@
         <v>1.81</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R23" t="n">
         <v>1.3</v>
@@ -3553,7 +3553,7 @@
         <v>1.38</v>
       </c>
       <c r="W23" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X23" t="n">
         <v>11.5</v>
@@ -3586,7 +3586,7 @@
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
         <v>60</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G24" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>2.6</v>
       </c>
       <c r="I24" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
@@ -3655,7 +3655,7 @@
         <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3670,10 +3670,10 @@
         <v>1.96</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S24" t="n">
         <v>3.4</v>
@@ -3685,7 +3685,7 @@
         <v>2.3</v>
       </c>
       <c r="V24" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W24" t="n">
         <v>1.5</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G25" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="H25" t="n">
         <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>3.1</v>
@@ -3790,10 +3790,10 @@
         <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
         <v>2.96</v>
@@ -3802,67 +3802,67 @@
         <v>1.43</v>
       </c>
       <c r="P25" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="R25" t="n">
         <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="V25" t="n">
         <v>1.34</v>
       </c>
       <c r="W25" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI25" t="n">
         <v>85</v>
       </c>
       <c r="AJ25" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="n">
         <v>36</v>
@@ -3874,7 +3874,7 @@
         <v>170</v>
       </c>
       <c r="AN25" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO25" t="n">
         <v>80</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="n">
         <v>1.55</v>
@@ -700,7 +700,7 @@
         <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R2" t="n">
         <v>1.51</v>
@@ -841,7 +841,7 @@
         <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
         <v>1.59</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G4" t="n">
         <v>1.59</v>
       </c>
       <c r="H4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I4" t="n">
         <v>7.6</v>
@@ -967,7 +967,7 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
         <v>1.86</v>
@@ -976,22 +976,22 @@
         <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
         <v>1.95</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
         <v>2.68</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y4" t="n">
         <v>23</v>
@@ -1042,7 +1042,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO4" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="I5" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="J5" t="n">
         <v>3.65</v>
@@ -1096,34 +1096,34 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" t="n">
         <v>2.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X5" t="n">
         <v>14</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G6" t="n">
         <v>1.51</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="I6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
         <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
@@ -1258,7 +1258,7 @@
         <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X6" t="n">
         <v>15.5</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G7" t="n">
         <v>2.02</v>
@@ -1354,10 +1354,10 @@
         <v>4.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.47</v>
@@ -1375,7 +1375,7 @@
         <v>1.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
         <v>1.28</v>
@@ -1384,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
         <v>1.96</v>
@@ -1489,7 +1489,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K8" t="n">
         <v>6.2</v>
@@ -1507,7 +1507,7 @@
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="Q8" t="n">
         <v>1.48</v>
@@ -1522,7 +1522,7 @@
         <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
         <v>1.14</v>
@@ -1582,7 +1582,7 @@
         <v>5.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1615,13 +1615,13 @@
         <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -1633,7 +1633,7 @@
         <v>1.31</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>3.85</v>
@@ -1645,7 +1645,7 @@
         <v>1.99</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R9" t="n">
         <v>1.38</v>
@@ -1660,10 +1660,10 @@
         <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X9" t="n">
         <v>19.5</v>
@@ -1771,7 +1771,7 @@
         <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O10" t="n">
         <v>1.49</v>
@@ -1780,7 +1780,7 @@
         <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R10" t="n">
         <v>1.23</v>
@@ -1789,16 +1789,16 @@
         <v>5.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
         <v>1.42</v>
       </c>
       <c r="W10" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X10" t="n">
         <v>9.199999999999999</v>
@@ -1903,10 +1903,10 @@
         <v>1.42</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.37</v>
@@ -1915,7 +1915,7 @@
         <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
         <v>1.26</v>
@@ -2029,13 +2029,13 @@
         <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2056,7 +2056,7 @@
         <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="T12" t="n">
         <v>1.8</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G13" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
         <v>1.48</v>
@@ -2200,10 +2200,10 @@
         <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="X13" t="n">
         <v>12.5</v>
@@ -2596,7 +2596,7 @@
         <v>1.9</v>
       </c>
       <c r="S16" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="T16" t="n">
         <v>1.42</v>
@@ -2695,7 +2695,7 @@
         <v>3.75</v>
       </c>
       <c r="G17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H17" t="n">
         <v>1.85</v>
@@ -2704,46 +2704,46 @@
         <v>2.02</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.18</v>
       </c>
       <c r="P17" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.54</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.5</v>
       </c>
       <c r="V17" t="n">
         <v>1.98</v>
       </c>
       <c r="W17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
         <v>32</v>
@@ -2776,7 +2776,7 @@
         <v>19.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>32</v>
@@ -2791,10 +2791,10 @@
         <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO17" t="n">
         <v>10.5</v>
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G18" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="H18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2869,28 +2869,28 @@
         <v>3.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V18" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W18" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB18" t="n">
         <v>8.6</v>
@@ -2899,13 +2899,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -2914,10 +2914,10 @@
         <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
         <v>27</v>
@@ -2926,7 +2926,7 @@
         <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G19" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
         <v>3.05</v>
@@ -2986,7 +2986,7 @@
         <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="O19" t="n">
         <v>1.52</v>
@@ -2995,7 +2995,7 @@
         <v>1.57</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R19" t="n">
         <v>1.21</v>
@@ -3010,10 +3010,10 @@
         <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X19" t="n">
         <v>9</v>
@@ -3031,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD19" t="n">
         <v>15.5</v>
@@ -3064,10 +3064,10 @@
         <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G20" t="n">
         <v>2.82</v>
@@ -3106,7 +3106,7 @@
         <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J20" t="n">
         <v>3.45</v>
@@ -3130,7 +3130,7 @@
         <v>1.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R20" t="n">
         <v>1.27</v>
@@ -3235,7 +3235,7 @@
         <v>2.92</v>
       </c>
       <c r="G21" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H21" t="n">
         <v>2.98</v>
@@ -3244,10 +3244,10 @@
         <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L21" t="n">
         <v>1.54</v>
@@ -3259,13 +3259,13 @@
         <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R21" t="n">
         <v>1.24</v>
@@ -3292,7 +3292,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z21" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA21" t="n">
         <v>55</v>
@@ -3310,13 +3310,13 @@
         <v>40</v>
       </c>
       <c r="AF21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>60</v>
@@ -3331,7 +3331,7 @@
         <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
         <v>44</v>
@@ -3406,13 +3406,13 @@
         <v>1.72</v>
       </c>
       <c r="S22" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T22" t="n">
         <v>1.53</v>
       </c>
       <c r="U22" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="V22" t="n">
         <v>1.32</v>
@@ -3448,10 +3448,10 @@
         <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>38</v>
@@ -3508,13 +3508,13 @@
         <v>2.34</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
         <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
         <v>3.5</v>
@@ -3532,13 +3532,13 @@
         <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q23" t="n">
         <v>2.22</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S23" t="n">
         <v>4.1</v>
@@ -3553,7 +3553,7 @@
         <v>1.38</v>
       </c>
       <c r="W23" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X23" t="n">
         <v>11.5</v>
@@ -3568,7 +3568,7 @@
         <v>70</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
         <v>7.4</v>
@@ -3643,7 +3643,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I24" t="n">
         <v>2.72</v>
@@ -3670,7 +3670,7 @@
         <v>1.96</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
         <v>1.37</v>
@@ -3679,7 +3679,7 @@
         <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U24" t="n">
         <v>2.3</v>
@@ -3688,7 +3688,7 @@
         <v>1.58</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X24" t="n">
         <v>15</v>
@@ -3706,7 +3706,7 @@
         <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
         <v>12</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,52 +808,52 @@
         <v>2.86</v>
       </c>
       <c r="H3" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="T3" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U3" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -1003,7 +1003,7 @@
         <v>260</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
@@ -1015,19 +1015,19 @@
         <v>110</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK4" t="n">
         <v>18</v>
@@ -1108,7 +1108,7 @@
         <v>2.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -1120,43 +1120,43 @@
         <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X5" t="n">
         <v>14</v>
       </c>
       <c r="Y5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
         <v>8.6</v>
       </c>
-      <c r="Z5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
         <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>980</v>
@@ -1168,7 +1168,7 @@
         <v>80</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="n">
         <v>170</v>
@@ -1210,7 +1210,7 @@
         <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>9.4</v>
@@ -1222,10 +1222,10 @@
         <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="X7" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG7" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AH7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO7" t="n">
         <v>130</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.41</v>
+        <v>1.96</v>
       </c>
       <c r="G8" t="n">
-        <v>1.43</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>5.8</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>6.2</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>2.86</v>
+        <v>1.77</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.48</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>2.18</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>3.3</v>
+        <v>1.98</v>
       </c>
       <c r="X8" t="n">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.3</v>
+        <v>18.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S9" t="n">
         <v>2.18</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>1.69</v>
+        <v>3.25</v>
       </c>
       <c r="X9" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="Z9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD9" t="n">
         <v>30</v>
       </c>
-      <c r="AA9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AE9" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="n">
         <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>4.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.68</v>
+        <v>2.22</v>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>2.96</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63</v>
+        <v>1.99</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.54</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="W10" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="X10" t="n">
-        <v>9.199999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE10" t="n">
         <v>46</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO10" t="n">
         <v>40</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.8</v>
+        <v>2.68</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.78</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.95</v>
+        <v>3.35</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="L11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.42</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.04</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.2</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AF11" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
         <v>60</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>110</v>
-      </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.04</v>
+        <v>4.8</v>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.9</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>2.04</v>
       </c>
       <c r="W12" t="n">
-        <v>1.85</v>
+        <v>1.2</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL12" t="n">
         <v>110</v>
       </c>
-      <c r="AB12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>55</v>
-      </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AO12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
-        <v>2.54</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.25</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
         <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="X13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG13" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AH13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI13" t="n">
         <v>80</v>
       </c>
-      <c r="AB13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AJ13" t="n">
         <v>980</v>
       </c>
-      <c r="AF13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>42</v>
-      </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.5</v>
       </c>
-      <c r="G14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.16</v>
-      </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>2.14</v>
+        <v>2.94</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>2.22</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>2.46</v>
+        <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NFC Volos</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.18</v>
+        <v>3.7</v>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>5.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>1.82</v>
       </c>
       <c r="I15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
         <v>4.3</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.86</v>
-      </c>
       <c r="O15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.45</v>
       </c>
-      <c r="P15" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.23</v>
-      </c>
       <c r="S15" t="n">
-        <v>4.4</v>
+        <v>2.62</v>
       </c>
       <c r="T15" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.9</v>
       </c>
       <c r="W15" t="n">
-        <v>1.76</v>
+        <v>1.26</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>110</v>
       </c>
-      <c r="AB15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AK15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL15" t="n">
         <v>65</v>
       </c>
-      <c r="AF15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL15" t="n">
+      <c r="AM15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN15" t="n">
         <v>55</v>
       </c>
-      <c r="AM15" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>980</v>
-      </c>
       <c r="AO15" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>NFC Volos</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>7.6</v>
+        <v>2.86</v>
       </c>
       <c r="O16" t="n">
-        <v>1.12</v>
+        <v>1.45</v>
       </c>
       <c r="P16" t="n">
-        <v>3.2</v>
+        <v>1.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.37</v>
+        <v>2.36</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.23</v>
       </c>
       <c r="S16" t="n">
-        <v>1.84</v>
+        <v>4.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="U16" t="n">
-        <v>2.96</v>
+        <v>1.86</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="X16" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
         <v>65</v>
       </c>
-      <c r="AB16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>40</v>
-      </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -2683,97 +2683,97 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.75</v>
+        <v>1.93</v>
       </c>
       <c r="G17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J17" t="n">
         <v>4.3</v>
       </c>
-      <c r="H17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4</v>
-      </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="R17" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="S17" t="n">
-        <v>2.28</v>
+        <v>1.91</v>
       </c>
       <c r="T17" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="U17" t="n">
-        <v>2.54</v>
+        <v>2.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.94</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="Z17" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF17" t="n">
         <v>21</v>
       </c>
-      <c r="AF17" t="n">
-        <v>40</v>
-      </c>
       <c r="AG17" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
@@ -2782,28 +2782,28 @@
         <v>32</v>
       </c>
       <c r="AJ17" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AM17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.83</v>
+        <v>3.65</v>
       </c>
       <c r="G18" t="n">
-        <v>2.08</v>
+        <v>4.2</v>
       </c>
       <c r="H18" t="n">
-        <v>4.6</v>
+        <v>1.86</v>
       </c>
       <c r="I18" t="n">
-        <v>5.7</v>
+        <v>2.02</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>1.68</v>
+        <v>2.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.16</v>
+        <v>1.52</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="S18" t="n">
-        <v>3.8</v>
+        <v>2.28</v>
       </c>
       <c r="T18" t="n">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="U18" t="n">
-        <v>1.84</v>
+        <v>2.54</v>
       </c>
       <c r="V18" t="n">
-        <v>1.22</v>
+        <v>1.98</v>
       </c>
       <c r="W18" t="n">
-        <v>1.93</v>
+        <v>1.32</v>
       </c>
       <c r="X18" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD18" t="n">
         <v>13</v>
       </c>
-      <c r="Y18" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AE18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL18" t="n">
         <v>44</v>
       </c>
-      <c r="AA18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>55</v>
-      </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO18" t="n">
-        <v>130</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.44</v>
+        <v>1.83</v>
       </c>
       <c r="G19" t="n">
-        <v>2.56</v>
+        <v>2.08</v>
       </c>
       <c r="H19" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>2.64</v>
+        <v>2.98</v>
       </c>
       <c r="O19" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.56</v>
+        <v>2.16</v>
       </c>
       <c r="R19" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="T19" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="U19" t="n">
         <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AA19" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AB19" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL19" t="n">
         <v>55</v>
       </c>
-      <c r="AF19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>65</v>
-      </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="G20" t="n">
-        <v>2.82</v>
+        <v>2.52</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.94</v>
+        <v>3.65</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="O20" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.16</v>
+        <v>2.56</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="S20" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="n">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="W20" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG20" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
       </c>
       <c r="AI20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL20" t="n">
         <v>65</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>60</v>
-      </c>
       <c r="AM20" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO20" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,109 +3223,109 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.92</v>
+        <v>2.64</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="H21" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
       </c>
       <c r="J21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N21" t="n">
         <v>3.1</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="P21" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="R21" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S21" t="n">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="T21" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="U21" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="V21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W21" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="X21" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AA21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>55</v>
       </c>
-      <c r="AB21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>48</v>
-      </c>
       <c r="AK21" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="n">
         <v>60</v>
@@ -3334,16 +3334,16 @@
         <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.93</v>
+        <v>2.92</v>
       </c>
       <c r="G22" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.94</v>
       </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.76</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="W22" t="n">
-        <v>2.06</v>
+        <v>1.51</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>9.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z22" t="n">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AK22" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>7.8</v>
+        <v>44</v>
       </c>
       <c r="AO22" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S23" t="n">
         <v>2.32</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.96</v>
+        <v>1.53</v>
       </c>
       <c r="U23" t="n">
-        <v>2.02</v>
+        <v>2.76</v>
       </c>
       <c r="V23" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="X23" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF23" t="n">
         <v>15</v>
       </c>
-      <c r="AE23" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AM23" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AN23" t="n">
-        <v>23</v>
+        <v>7.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Estoril Praia</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.88</v>
+        <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2.34</v>
       </c>
       <c r="H24" t="n">
-        <v>2.62</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.5</v>
       </c>
-      <c r="K24" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="P24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.96</v>
       </c>
-      <c r="Q24" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.73</v>
-      </c>
       <c r="U24" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="W24" t="n">
-        <v>1.51</v>
+        <v>1.74</v>
       </c>
       <c r="X24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD24" t="n">
         <v>15</v>
       </c>
-      <c r="Y24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>12</v>
-      </c>
       <c r="AE24" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AJ24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO24" t="n">
         <v>50</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,125 +3758,260 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.26</v>
+        <v>2.88</v>
       </c>
       <c r="G25" t="n">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.55</v>
       </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="P25" t="n">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="S25" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="U25" t="n">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="V25" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="W25" t="n">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AA25" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK25" t="n">
         <v>36</v>
       </c>
       <c r="AL25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE26" t="n">
         <v>60</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AF26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM26" t="n">
         <v>170</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AN26" t="n">
         <v>980</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AO26" t="n">
         <v>80</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -685,7 +685,7 @@
         <v>5.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G3" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H3" t="n">
         <v>2.6</v>
@@ -817,7 +817,7 @@
         <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
@@ -835,25 +835,25 @@
         <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
         <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
         <v>1.61</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V3" t="n">
         <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G4" t="n">
         <v>1.59</v>
@@ -946,7 +946,7 @@
         <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J4" t="n">
         <v>4.4</v>
@@ -1000,7 +1000,7 @@
         <v>65</v>
       </c>
       <c r="AA4" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB4" t="n">
         <v>9.800000000000001</v>
@@ -1078,16 +1078,16 @@
         <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="I5" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J5" t="n">
         <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.46</v>
@@ -1111,16 +1111,16 @@
         <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
         <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
         <v>1.24</v>
@@ -1132,7 +1132,7 @@
         <v>7.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
         <v>980</v>
@@ -1156,7 +1156,7 @@
         <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
         <v>980</v>
@@ -1210,7 +1210,7 @@
         <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H6" t="n">
         <v>9.4</v>
@@ -1222,10 +1222,10 @@
         <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1234,7 +1234,7 @@
         <v>3.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
         <v>1.75</v>
@@ -1258,10 +1258,10 @@
         <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>34</v>
@@ -1276,7 +1276,7 @@
         <v>7.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
@@ -1345,13 +1345,13 @@
         <v>1.72</v>
       </c>
       <c r="G7" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
@@ -1360,7 +1360,7 @@
         <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1375,13 +1375,13 @@
         <v>1.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
         <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
         <v>1.76</v>
@@ -1390,13 +1390,13 @@
         <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>21</v>
@@ -1504,7 +1504,7 @@
         <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
         <v>1.77</v>
@@ -1525,7 +1525,7 @@
         <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
         <v>1.98</v>
@@ -1636,13 +1636,13 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q9" t="n">
         <v>1.48</v>
@@ -1693,7 +1693,7 @@
         <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
         <v>24</v>
@@ -1759,7 +1759,7 @@
         <v>3.65</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
@@ -1768,7 +1768,7 @@
         <v>1.31</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>3.85</v>
@@ -1786,7 +1786,7 @@
         <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
         <v>1.67</v>
@@ -1885,7 +1885,7 @@
         <v>2.68</v>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
@@ -1924,7 +1924,7 @@
         <v>5.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
         <v>1.92</v>
@@ -2041,28 +2041,28 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
         <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
         <v>2.04</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G13" t="n">
         <v>2.2</v>
@@ -2164,10 +2164,10 @@
         <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.41</v>
@@ -2203,13 +2203,13 @@
         <v>1.3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>980</v>
@@ -2221,16 +2221,16 @@
         <v>9.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
         <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
         <v>12.5</v>
@@ -2257,7 +2257,7 @@
         <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -2299,7 +2299,7 @@
         <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>3.6</v>
@@ -2326,7 +2326,7 @@
         <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T14" t="n">
         <v>1.9</v>
@@ -2425,13 +2425,13 @@
         <v>3.7</v>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
         <v>1.82</v>
       </c>
       <c r="I15" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="J15" t="n">
         <v>3.45</v>
@@ -2461,7 +2461,7 @@
         <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="T15" t="n">
         <v>1.65</v>
@@ -2470,13 +2470,13 @@
         <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W15" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="Y15" t="n">
         <v>13.5</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H16" t="n">
         <v>3.8</v>
@@ -2608,7 +2608,7 @@
         <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2626,7 +2626,7 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
         <v>2.06</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
         <v>4.3</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.18</v>
@@ -2731,7 +2731,7 @@
         <v>1.9</v>
       </c>
       <c r="S17" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="T17" t="n">
         <v>1.42</v>
@@ -2845,7 +2845,7 @@
         <v>4.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
@@ -2971,7 +2971,7 @@
         <v>4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
@@ -3010,7 +3010,7 @@
         <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W19" t="n">
         <v>1.93</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G20" t="n">
         <v>2.52</v>
@@ -3106,7 +3106,7 @@
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J20" t="n">
         <v>3.1</v>
@@ -3139,7 +3139,7 @@
         <v>5.2</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U20" t="n">
         <v>1.83</v>
@@ -3169,7 +3169,7 @@
         <v>6.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>55</v>
@@ -3238,7 +3238,7 @@
         <v>2.82</v>
       </c>
       <c r="H21" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -3283,16 +3283,16 @@
         <v>1.52</v>
       </c>
       <c r="W21" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X21" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
         <v>60</v>
@@ -3304,16 +3304,16 @@
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
         <v>23</v>
@@ -3322,22 +3322,22 @@
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL21" t="n">
         <v>55</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>60</v>
       </c>
       <c r="AM21" t="n">
         <v>140</v>
       </c>
       <c r="AN21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO21" t="n">
         <v>40</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G22" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="H22" t="n">
         <v>2.98</v>
@@ -3412,13 +3412,13 @@
         <v>2.04</v>
       </c>
       <c r="U22" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V22" t="n">
         <v>1.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X22" t="n">
         <v>9.4</v>
@@ -3427,7 +3427,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z22" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="n">
         <v>55</v>
@@ -3445,7 +3445,7 @@
         <v>40</v>
       </c>
       <c r="AF22" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.93</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.94</v>
       </c>
       <c r="H23" t="n">
         <v>4.1</v>
@@ -3550,7 +3550,7 @@
         <v>2.76</v>
       </c>
       <c r="V23" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W23" t="n">
         <v>2.06</v>
@@ -3586,7 +3586,7 @@
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI23" t="n">
         <v>38</v>
@@ -3595,13 +3595,13 @@
         <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>24</v>
       </c>
       <c r="AM23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN23" t="n">
         <v>7.8</v>
@@ -3640,16 +3640,16 @@
         <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
         <v>3.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
         <v>3.5</v>
@@ -3688,7 +3688,7 @@
         <v>1.38</v>
       </c>
       <c r="W24" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X24" t="n">
         <v>11.5</v>
@@ -3778,7 +3778,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I25" t="n">
         <v>2.72</v>
@@ -3823,7 +3823,7 @@
         <v>1.58</v>
       </c>
       <c r="W25" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X25" t="n">
         <v>15</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>1.48</v>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
         <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -700,7 +700,7 @@
         <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
         <v>1.51</v>
@@ -718,7 +718,7 @@
         <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="X2" t="n">
         <v>27</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,84 +788,84 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>US Monastirienne</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.68</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>1.08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>1.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="S3" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -877,10 +877,10 @@
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
         <v>1000</v>
@@ -889,22 +889,22 @@
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.54</v>
+        <v>2.74</v>
       </c>
       <c r="G4" t="n">
-        <v>1.59</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8</v>
+        <v>2.44</v>
       </c>
       <c r="I4" t="n">
-        <v>7.4</v>
+        <v>2.66</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>2.36</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="W4" t="n">
-        <v>2.68</v>
+        <v>1.48</v>
       </c>
       <c r="X4" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>250</v>
+        <v>980</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>1.55</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>1.59</v>
       </c>
       <c r="H5" t="n">
-        <v>1.83</v>
+        <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.89</v>
+        <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
         <v>4</v>
       </c>
-      <c r="L5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.2</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>1.86</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>1.24</v>
+        <v>2.68</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.8</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC5" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>15.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>80</v>
+        <v>17.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>110</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,123 +1193,123 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Enosis Neon Paralimni</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.42</v>
+        <v>4.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.51</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>9.4</v>
+        <v>1.84</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>1.91</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>5.3</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>3.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.54</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>2.08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.92</v>
+        <v>1.24</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>7.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>120</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
         <v>980</v>
       </c>
-      <c r="AE6" t="n">
-        <v>280</v>
-      </c>
       <c r="AF6" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI6" t="n">
         <v>980</v>
       </c>
-      <c r="AI6" t="n">
-        <v>240</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.28</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.31</v>
-      </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="V7" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>2.08</v>
+        <v>2.96</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="AF7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG7" t="n">
         <v>13</v>
       </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S8" t="n">
         <v>3.55</v>
       </c>
-      <c r="K8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="X8" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG8" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AH8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO8" t="n">
         <v>130</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.42</v>
+        <v>1.96</v>
       </c>
       <c r="G9" t="n">
-        <v>1.44</v>
+        <v>2.02</v>
       </c>
       <c r="H9" t="n">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="J9" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>6.4</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>2.88</v>
+        <v>1.77</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.48</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>2.18</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="W9" t="n">
-        <v>3.25</v>
+        <v>1.98</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>100</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.22</v>
+        <v>1.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2.46</v>
+        <v>1.43</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>7.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.65</v>
+        <v>8.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>6.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>1.99</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.18</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="W10" t="n">
-        <v>1.69</v>
+        <v>3.3</v>
       </c>
       <c r="X10" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="AB10" t="n">
         <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AM10" t="n">
         <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>4.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.68</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2.54</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.05</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5.1</v>
-      </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>2.22</v>
       </c>
       <c r="V11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="X11" t="n">
-        <v>9.199999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC11" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AD11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF11" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>15</v>
-      </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.8</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>1.78</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.95</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="L12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.42</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.04</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.2</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AF12" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
         <v>60</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>110</v>
-      </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,46 +2143,46 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.04</v>
+        <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.9</v>
       </c>
-      <c r="I13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
         <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q13" t="n">
         <v>2.12</v>
@@ -2194,70 +2194,70 @@
         <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>2.04</v>
       </c>
       <c r="W13" t="n">
-        <v>1.84</v>
+        <v>1.2</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>90</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL13" t="n">
         <v>110</v>
       </c>
-      <c r="AB13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>55</v>
-      </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AO13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.4</v>
+        <v>2.04</v>
       </c>
       <c r="G14" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="T14" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U14" t="n">
         <v>1.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI14" t="n">
         <v>80</v>
       </c>
-      <c r="AB14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AJ14" t="n">
         <v>980</v>
       </c>
-      <c r="AF14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>42</v>
-      </c>
       <c r="AK14" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
         <v>3.45</v>
@@ -2446,7 +2446,7 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.24</v>
@@ -2470,10 +2470,10 @@
         <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="W15" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X15" t="n">
         <v>90</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="G16" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.51</v>
@@ -2581,13 +2581,13 @@
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="n">
         <v>1.45</v>
       </c>
       <c r="P16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q16" t="n">
         <v>2.36</v>
@@ -2602,13 +2602,13 @@
         <v>1.98</v>
       </c>
       <c r="U16" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2620,13 +2620,13 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="n">
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2659,16 +2659,16 @@
         <v>180</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.9</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.42</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.96</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="X17" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN17" t="n">
         <v>34</v>
       </c>
-      <c r="Z17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AO17" t="n">
         <v>65</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -2818,97 +2818,97 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.65</v>
+        <v>1.9</v>
       </c>
       <c r="G18" t="n">
-        <v>4.2</v>
+        <v>2.06</v>
       </c>
       <c r="H18" t="n">
-        <v>1.86</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.02</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="P18" t="n">
-        <v>2.66</v>
+        <v>3.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="n">
-        <v>2.28</v>
+        <v>1.84</v>
       </c>
       <c r="T18" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="U18" t="n">
-        <v>2.54</v>
+        <v>2.96</v>
       </c>
       <c r="V18" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.32</v>
+        <v>1.94</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Y18" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC18" t="n">
         <v>15</v>
       </c>
-      <c r="Z18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
-        <v>18.5</v>
+        <v>40</v>
       </c>
       <c r="AF18" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>18</v>
@@ -2917,28 +2917,28 @@
         <v>32</v>
       </c>
       <c r="AJ18" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AK18" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AM18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN18" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AO18" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.83</v>
+        <v>3.65</v>
       </c>
       <c r="G19" t="n">
-        <v>2.08</v>
+        <v>4.2</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>1.86</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>2.02</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.98</v>
+        <v>5.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>1.67</v>
+        <v>2.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.16</v>
+        <v>1.48</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="S19" t="n">
-        <v>3.8</v>
+        <v>2.22</v>
       </c>
       <c r="T19" t="n">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="V19" t="n">
-        <v>1.21</v>
+        <v>1.98</v>
       </c>
       <c r="W19" t="n">
-        <v>1.93</v>
+        <v>1.32</v>
       </c>
       <c r="X19" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD19" t="n">
         <v>13</v>
       </c>
-      <c r="Y19" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>24</v>
-      </c>
       <c r="AE19" t="n">
-        <v>90</v>
+        <v>18.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM19" t="n">
         <v>55</v>
       </c>
-      <c r="AM19" t="n">
-        <v>180</v>
-      </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>130</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.44</v>
+        <v>1.82</v>
       </c>
       <c r="G20" t="n">
-        <v>2.52</v>
+        <v>1.96</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="M20" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.56</v>
+        <v>2.14</v>
       </c>
       <c r="R20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.21</v>
       </c>
-      <c r="S20" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.37</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="X20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AA20" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL20" t="n">
         <v>55</v>
       </c>
-      <c r="AF20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>65</v>
-      </c>
       <c r="AM20" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="G21" t="n">
-        <v>2.82</v>
+        <v>2.52</v>
       </c>
       <c r="H21" t="n">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="L21" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="O21" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="P21" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.16</v>
+        <v>2.56</v>
       </c>
       <c r="R21" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="V21" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="W21" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="X21" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
         <v>23</v>
       </c>
       <c r="AI21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL21" t="n">
         <v>65</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>55</v>
-      </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO21" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.96</v>
+        <v>2.62</v>
       </c>
       <c r="G22" t="n">
-        <v>2.98</v>
+        <v>2.82</v>
       </c>
       <c r="H22" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N22" t="n">
         <v>3.1</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3</v>
-      </c>
       <c r="O22" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="R22" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="T22" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="U22" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="V22" t="n">
         <v>1.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="X22" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC22" t="n">
         <v>9</v>
       </c>
-      <c r="AC22" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
         <v>40</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK22" t="n">
         <v>40</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
         <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AO22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.92</v>
+        <v>2.96</v>
       </c>
       <c r="G23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.93</v>
       </c>
-      <c r="H23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.76</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="W23" t="n">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="X23" t="n">
-        <v>26</v>
+        <v>9.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z23" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="AN23" t="n">
-        <v>7.8</v>
+        <v>44</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.32</v>
+        <v>1.91</v>
       </c>
       <c r="G24" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>3.35</v>
+        <v>6.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.22</v>
+        <v>1.54</v>
       </c>
       <c r="R24" t="n">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
-        <v>4.2</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
-        <v>1.96</v>
+        <v>1.54</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>2.78</v>
       </c>
       <c r="V24" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="W24" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="X24" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>23</v>
       </c>
-      <c r="AA24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>32</v>
-      </c>
       <c r="AK24" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AM24" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>7.8</v>
       </c>
       <c r="AO24" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Estoril Praia</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.88</v>
+        <v>2.32</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="H25" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.5</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O25" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="P25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.96</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.73</v>
       </c>
-      <c r="U25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD25" t="n">
         <v>15</v>
       </c>
-      <c r="Y25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>12</v>
-      </c>
       <c r="AE25" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AF25" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO25" t="n">
         <v>50</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,125 +3893,260 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.26</v>
+        <v>2.88</v>
       </c>
       <c r="G26" t="n">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.55</v>
       </c>
-      <c r="I26" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.5</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.69</v>
-      </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AA26" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AJ26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK26" t="n">
         <v>36</v>
       </c>
       <c r="AL26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
         <v>60</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM27" t="n">
         <v>170</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AN27" t="n">
         <v>980</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AO27" t="n">
         <v>80</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G2" t="n">
         <v>1.53</v>
@@ -691,13 +691,13 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
         <v>1.65</v>
@@ -709,7 +709,7 @@
         <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
         <v>2.02</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,19 +826,19 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
         <v>1.01</v>
@@ -850,10 +850,10 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G4" t="n">
         <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I4" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
@@ -961,7 +961,7 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.24</v>
@@ -970,10 +970,10 @@
         <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
         <v>2.78</v>
@@ -982,7 +982,7 @@
         <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
         <v>1.6</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G5" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I5" t="n">
         <v>7.2</v>
@@ -1087,7 +1087,7 @@
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.37</v>
@@ -1105,7 +1105,7 @@
         <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
         <v>1.41</v>
@@ -1114,70 +1114,70 @@
         <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
         <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X5" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
         <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG5" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
         <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -1213,13 +1213,13 @@
         <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>3.95</v>
@@ -1252,10 +1252,10 @@
         <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
         <v>1.24</v>
@@ -1348,7 +1348,7 @@
         <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="I7" t="n">
         <v>12</v>
@@ -1360,7 +1360,7 @@
         <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="G8" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="H8" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.35</v>
@@ -1501,37 +1501,37 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
         <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U8" t="n">
         <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="X8" t="n">
-        <v>90</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
         <v>21</v>
@@ -1555,19 +1555,19 @@
         <v>100</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
         <v>100</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AK8" t="n">
         <v>25</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
@@ -1642,7 +1642,7 @@
         <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
         <v>2.18</v>
@@ -1654,13 +1654,13 @@
         <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U9" t="n">
         <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
         <v>1.98</v>
@@ -1762,7 +1762,7 @@
         <v>5.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
         <v>1.25</v>
@@ -1777,19 +1777,19 @@
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
         <v>2.2</v>
@@ -1801,10 +1801,10 @@
         <v>3.3</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="n">
         <v>85</v>
@@ -1813,10 +1813,10 @@
         <v>240</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
         <v>30</v>
@@ -1825,7 +1825,7 @@
         <v>100</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
@@ -1837,10 +1837,10 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
         <v>27</v>
@@ -1849,10 +1849,10 @@
         <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H11" t="n">
         <v>3.05</v>
@@ -1894,7 +1894,7 @@
         <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
         <v>3.95</v>
@@ -1909,7 +1909,7 @@
         <v>3.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
         <v>1.99</v>
@@ -1924,7 +1924,7 @@
         <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
         <v>2.22</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.35</v>
       </c>
       <c r="J12" t="n">
         <v>3.05</v>
@@ -2050,31 +2050,31 @@
         <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
         <v>1.92</v>
       </c>
       <c r="V12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W12" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X12" t="n">
         <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z12" t="n">
         <v>19.5</v>
@@ -2095,7 +2095,7 @@
         <v>46</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG12" t="n">
         <v>12.5</v>
@@ -2110,7 +2110,7 @@
         <v>40</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
         <v>60</v>
@@ -2119,7 +2119,7 @@
         <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="n">
         <v>55</v>
@@ -2155,22 +2155,22 @@
         <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H13" t="n">
         <v>1.78</v>
       </c>
       <c r="I13" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
@@ -2191,7 +2191,7 @@
         <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
         <v>1.96</v>
@@ -2200,16 +2200,16 @@
         <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="W13" t="n">
         <v>1.2</v>
       </c>
       <c r="X13" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G14" t="n">
         <v>2.2</v>
@@ -2296,22 +2296,22 @@
         <v>3.95</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.39</v>
@@ -2332,10 +2332,10 @@
         <v>1.89</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
         <v>1.84</v>
@@ -2461,7 +2461,7 @@
         <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="T15" t="n">
         <v>1.65</v>
@@ -2560,10 +2560,10 @@
         <v>2.26</v>
       </c>
       <c r="G16" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
@@ -2572,7 +2572,7 @@
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
         <v>1.51</v>
@@ -2587,7 +2587,7 @@
         <v>1.45</v>
       </c>
       <c r="P16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q16" t="n">
         <v>2.36</v>
@@ -2608,7 +2608,7 @@
         <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2737,7 +2737,7 @@
         <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V17" t="n">
         <v>1.4</v>
@@ -2749,7 +2749,7 @@
         <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
         <v>27</v>
@@ -2758,7 +2758,7 @@
         <v>80</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>8.6</v>
@@ -2767,13 +2767,13 @@
         <v>15.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
@@ -2782,7 +2782,7 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="n">
         <v>36</v>
@@ -2830,10 +2830,10 @@
         <v>1.9</v>
       </c>
       <c r="G18" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
         <v>3.75</v>
@@ -2842,13 +2842,13 @@
         <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.18</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
         <v>7.6</v>
@@ -2857,28 +2857,28 @@
         <v>1.12</v>
       </c>
       <c r="P18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="n">
         <v>1.38</v>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S18" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="T18" t="n">
         <v>1.42</v>
       </c>
       <c r="U18" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="V18" t="n">
         <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X18" t="n">
         <v>50</v>
@@ -2923,7 +2923,7 @@
         <v>21</v>
       </c>
       <c r="AL18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM18" t="n">
         <v>55</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G19" t="n">
         <v>4.2</v>
@@ -2971,10 +2971,10 @@
         <v>1.86</v>
       </c>
       <c r="I19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
         <v>4.8</v>
@@ -2983,7 +2983,7 @@
         <v>1.24</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>5.9</v>
@@ -2992,10 +2992,10 @@
         <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R19" t="n">
         <v>1.69</v>
@@ -3010,7 +3010,7 @@
         <v>2.6</v>
       </c>
       <c r="V19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>1.32</v>
@@ -3025,7 +3025,7 @@
         <v>17.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
@@ -3037,19 +3037,19 @@
         <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>40</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
         <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="n">
         <v>70</v>
@@ -3100,22 +3100,22 @@
         <v>1.82</v>
       </c>
       <c r="G20" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="H20" t="n">
         <v>4.9</v>
       </c>
       <c r="I20" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -3136,7 +3136,7 @@
         <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="T20" t="n">
         <v>1.98</v>
@@ -3145,10 +3145,10 @@
         <v>1.82</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X20" t="n">
         <v>13</v>
@@ -3163,7 +3163,7 @@
         <v>160</v>
       </c>
       <c r="AB20" t="n">
-        <v>970</v>
+        <v>7.6</v>
       </c>
       <c r="AC20" t="n">
         <v>9.4</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H21" t="n">
         <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L21" t="n">
         <v>1.57</v>
@@ -3262,7 +3262,7 @@
         <v>1.53</v>
       </c>
       <c r="P21" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q21" t="n">
         <v>2.56</v>
@@ -3271,25 +3271,25 @@
         <v>1.21</v>
       </c>
       <c r="S21" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="T21" t="n">
         <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V21" t="n">
         <v>1.37</v>
       </c>
       <c r="W21" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X21" t="n">
         <v>9</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
         <v>23</v>
@@ -3301,28 +3301,28 @@
         <v>7.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>55</v>
       </c>
       <c r="AF21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
         <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK21" t="n">
         <v>34</v>
@@ -3331,13 +3331,13 @@
         <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="G22" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H22" t="n">
         <v>2.84</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.46</v>
@@ -3391,13 +3391,13 @@
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O22" t="n">
         <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q22" t="n">
         <v>2.16</v>
@@ -3415,10 +3415,10 @@
         <v>1.99</v>
       </c>
       <c r="V22" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W22" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="X22" t="n">
         <v>12.5</v>
@@ -3454,13 +3454,13 @@
         <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
         <v>50</v>
       </c>
       <c r="AK22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="n">
         <v>55</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.96</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.98</v>
       </c>
       <c r="H23" t="n">
         <v>2.98</v>
@@ -3532,7 +3532,7 @@
         <v>1.48</v>
       </c>
       <c r="P23" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q23" t="n">
         <v>2.48</v>
@@ -3544,7 +3544,7 @@
         <v>4.9</v>
       </c>
       <c r="T23" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U23" t="n">
         <v>1.93</v>
@@ -3553,7 +3553,7 @@
         <v>1.5</v>
       </c>
       <c r="W23" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X23" t="n">
         <v>9.4</v>
@@ -3640,13 +3640,13 @@
         <v>1.91</v>
       </c>
       <c r="G24" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
         <v>4.2</v>
@@ -3664,7 +3664,7 @@
         <v>6.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
         <v>2.8</v>
@@ -3673,7 +3673,7 @@
         <v>1.54</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S24" t="n">
         <v>2.38</v>
@@ -3682,10 +3682,10 @@
         <v>1.54</v>
       </c>
       <c r="U24" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="V24" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
         <v>2.08</v>
@@ -3706,13 +3706,13 @@
         <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF24" t="n">
         <v>15</v>
@@ -3730,16 +3730,16 @@
         <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
         <v>24</v>
       </c>
       <c r="AM24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
@@ -3775,13 +3775,13 @@
         <v>2.32</v>
       </c>
       <c r="G25" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J25" t="n">
         <v>3.4</v>
@@ -3802,7 +3802,7 @@
         <v>1.41</v>
       </c>
       <c r="P25" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q25" t="n">
         <v>2.22</v>
@@ -3814,16 +3814,16 @@
         <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W25" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X25" t="n">
         <v>11.5</v>
@@ -3907,70 +3907,70 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H26" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="I26" t="n">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K26" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O26" t="n">
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R26" t="n">
         <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
         <v>1.73</v>
       </c>
       <c r="U26" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AB26" t="n">
         <v>12.5</v>
@@ -3979,40 +3979,40 @@
         <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL26" t="n">
         <v>42</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>44</v>
       </c>
       <c r="AM26" t="n">
         <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO26" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -4117,13 +4117,13 @@
         <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
         <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -673,16 +673,16 @@
         <v>1.53</v>
       </c>
       <c r="H2" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.3</v>
@@ -718,7 +718,7 @@
         <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="X2" t="n">
         <v>27</v>
@@ -733,7 +733,7 @@
         <v>250</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>13.5</v>
@@ -742,34 +742,34 @@
         <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="AF2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG2" t="n">
         <v>12</v>
       </c>
-      <c r="AG2" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>100</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>390</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO2" t="n">
         <v>130</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.05</v>
+        <v>2.68</v>
       </c>
       <c r="G3" t="n">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="I3" t="n">
-        <v>500</v>
+        <v>3.85</v>
       </c>
       <c r="J3" t="n">
-        <v>1.05</v>
+        <v>2.74</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -850,64 +850,64 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G4" t="n">
         <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="I4" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
@@ -961,88 +961,88 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
         <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V4" t="n">
         <v>1.6</v>
       </c>
       <c r="W4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AM4" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
         <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G5" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
         <v>4.6</v>
@@ -1096,7 +1096,7 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1105,7 +1105,7 @@
         <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
         <v>1.41</v>
@@ -1114,7 +1114,7 @@
         <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
         <v>1.96</v>
@@ -1123,10 +1123,10 @@
         <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
         <v>23</v>
@@ -1135,34 +1135,34 @@
         <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB5" t="n">
         <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI5" t="n">
         <v>100</v>
       </c>
-      <c r="AF5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>95</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
         <v>16</v>
@@ -1171,7 +1171,7 @@
         <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>8.6</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>3.95</v>
@@ -1231,7 +1231,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.39</v>
@@ -1255,40 +1255,40 @@
         <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
         <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AC6" t="n">
         <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AG6" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AH6" t="n">
         <v>29</v>
@@ -1300,19 +1300,19 @@
         <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AL6" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
         <v>1.5</v>
@@ -1354,31 +1354,31 @@
         <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
         <v>1.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
         <v>3.9</v>
@@ -1396,7 +1396,7 @@
         <v>2.96</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>34</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="n">
         <v>980</v>
@@ -1423,7 +1423,7 @@
         <v>8.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
@@ -1435,16 +1435,16 @@
         <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1480,10 +1480,10 @@
         <v>1.66</v>
       </c>
       <c r="G8" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="H8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
         <v>6.8</v>
@@ -1492,7 +1492,7 @@
         <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.35</v>
@@ -1519,7 +1519,7 @@
         <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
         <v>1.78</v>
@@ -1528,19 +1528,19 @@
         <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="X8" t="n">
         <v>16.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AA8" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
         <v>9.6</v>
@@ -1549,40 +1549,40 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AE8" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="AF8" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AJ8" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="AM8" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AO8" t="n">
-        <v>130</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9">
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
         <v>4.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1639,16 +1639,16 @@
         <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1666,31 +1666,31 @@
         <v>1.98</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
         <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
@@ -1699,25 +1699,25 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G10" t="n">
         <v>1.43</v>
@@ -1762,7 +1762,7 @@
         <v>5.7</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.25</v>
@@ -1771,28 +1771,28 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T10" t="n">
         <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
         <v>1.13</v>
@@ -1801,7 +1801,7 @@
         <v>3.3</v>
       </c>
       <c r="X10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="n">
         <v>42</v>
@@ -1810,22 +1810,22 @@
         <v>85</v>
       </c>
       <c r="AA10" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AB10" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AE10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
@@ -1840,7 +1840,7 @@
         <v>13.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
         <v>27</v>
@@ -1849,10 +1849,10 @@
         <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>90</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
         <v>3.05</v>
@@ -1894,7 +1894,7 @@
         <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>3.95</v>
@@ -1906,7 +1906,7 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
@@ -1915,7 +1915,7 @@
         <v>1.99</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R11" t="n">
         <v>1.39</v>
@@ -1924,7 +1924,7 @@
         <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
         <v>2.22</v>
@@ -1933,37 +1933,37 @@
         <v>1.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
         <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
         <v>44</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
         <v>20</v>
@@ -1972,10 +1972,10 @@
         <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
         <v>44</v>
@@ -1987,7 +1987,7 @@
         <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
         <v>3.25</v>
@@ -2044,19 +2044,19 @@
         <v>2.96</v>
       </c>
       <c r="O12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="T12" t="n">
         <v>2.04</v>
@@ -2068,7 +2068,7 @@
         <v>1.43</v>
       </c>
       <c r="W12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
         <v>9</v>
@@ -2089,7 +2089,7 @@
         <v>6.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>46</v>
@@ -2101,7 +2101,7 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>70</v>
@@ -2155,37 +2155,37 @@
         <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
         <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R13" t="n">
         <v>1.27</v>
@@ -2200,7 +2200,7 @@
         <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W13" t="n">
         <v>1.2</v>
@@ -2209,55 +2209,55 @@
         <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
         <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="AI13" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK13" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AL13" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G14" t="n">
         <v>2.2</v>
@@ -2299,13 +2299,13 @@
         <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2329,7 +2329,7 @@
         <v>3.95</v>
       </c>
       <c r="T14" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U14" t="n">
         <v>1.94</v>
@@ -2338,19 +2338,19 @@
         <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AB14" t="n">
         <v>8.6</v>
@@ -2359,40 +2359,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>65</v>
+        <v>370</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AL14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN14" t="n">
         <v>55</v>
       </c>
-      <c r="AM14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>980</v>
-      </c>
       <c r="AO14" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>3.45</v>
@@ -2446,7 +2446,7 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.24</v>
@@ -2455,79 +2455,79 @@
         <v>2.14</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R15" t="n">
         <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="T15" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
         <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="X15" t="n">
         <v>90</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
         <v>970</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
         <v>11.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AK15" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AO15" t="n">
         <v>55</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2566,7 +2566,7 @@
         <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2578,7 +2578,7 @@
         <v>1.51</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
         <v>2.88</v>
@@ -2590,13 +2590,13 @@
         <v>1.65</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R16" t="n">
         <v>1.23</v>
       </c>
       <c r="S16" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T16" t="n">
         <v>1.98</v>
@@ -2611,58 +2611,58 @@
         <v>1.71</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AA16" t="n">
         <v>100</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AJ16" t="n">
         <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AM16" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
         <v>34</v>
       </c>
       <c r="AO16" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -2734,7 +2734,7 @@
         <v>4.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="n">
         <v>1.93</v>
@@ -2791,13 +2791,13 @@
         <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
         <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H18" t="n">
         <v>3.45</v>
@@ -2851,7 +2851,7 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.12</v>
@@ -2860,37 +2860,37 @@
         <v>3.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R18" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S18" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="T18" t="n">
         <v>1.42</v>
       </c>
       <c r="U18" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X18" t="n">
         <v>50</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z18" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AA18" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AB18" t="n">
         <v>21</v>
@@ -2899,13 +2899,13 @@
         <v>15</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE18" t="n">
         <v>40</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
@@ -2914,7 +2914,7 @@
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="n">
         <v>32</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G19" t="n">
         <v>4.2</v>
@@ -2977,37 +2977,37 @@
         <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="R19" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S19" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="T19" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="V19" t="n">
         <v>2</v>
@@ -3019,16 +3019,16 @@
         <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="n">
         <v>17.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AC19" t="n">
         <v>11.5</v>
@@ -3043,31 +3043,31 @@
         <v>40</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AK19" t="n">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="AL19" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AM19" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="AO19" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H20" t="n">
         <v>4.9</v>
@@ -3109,10 +3109,10 @@
         <v>5.9</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
         <v>1.45</v>
@@ -3127,13 +3127,13 @@
         <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q20" t="n">
         <v>2.14</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S20" t="n">
         <v>4.1</v>
@@ -3142,10 +3142,10 @@
         <v>1.98</v>
       </c>
       <c r="U20" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
         <v>2.06</v>
@@ -3157,52 +3157,52 @@
         <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
         <v>7.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
         <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO20" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G21" t="n">
         <v>2.46</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I21" t="n">
         <v>3.75</v>
       </c>
       <c r="J21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.25</v>
       </c>
       <c r="L21" t="n">
         <v>1.57</v>
@@ -3256,7 +3256,7 @@
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O21" t="n">
         <v>1.53</v>
@@ -3265,7 +3265,7 @@
         <v>1.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R21" t="n">
         <v>1.21</v>
@@ -3280,10 +3280,10 @@
         <v>1.81</v>
       </c>
       <c r="V21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X21" t="n">
         <v>9</v>
@@ -3307,7 +3307,7 @@
         <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="n">
         <v>13.5</v>
@@ -3319,7 +3319,7 @@
         <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
         <v>36</v>
@@ -3334,10 +3334,10 @@
         <v>190</v>
       </c>
       <c r="AN21" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AO21" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
@@ -3373,13 +3373,13 @@
         <v>2.86</v>
       </c>
       <c r="H22" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I22" t="n">
         <v>2.96</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
         <v>3.5</v>
@@ -3406,13 +3406,13 @@
         <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
         <v>1.85</v>
       </c>
       <c r="U22" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
         <v>1.51</v>
@@ -3430,7 +3430,7 @@
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AB22" t="n">
         <v>12</v>
@@ -3442,7 +3442,7 @@
         <v>14</v>
       </c>
       <c r="AE22" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AF22" t="n">
         <v>21</v>
@@ -3454,25 +3454,25 @@
         <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AJ22" t="n">
         <v>50</v>
       </c>
       <c r="AK22" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AO22" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H23" t="n">
         <v>2.96</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>2.98</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>3.05</v>
@@ -3553,7 +3553,7 @@
         <v>1.5</v>
       </c>
       <c r="W23" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X23" t="n">
         <v>9.4</v>
@@ -3562,13 +3562,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC23" t="n">
         <v>6.6</v>
@@ -3592,7 +3592,7 @@
         <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK23" t="n">
         <v>40</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G24" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.2</v>
       </c>
       <c r="J24" t="n">
         <v>4.2</v>
@@ -3670,28 +3670,28 @@
         <v>2.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R24" t="n">
         <v>1.71</v>
       </c>
       <c r="S24" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T24" t="n">
         <v>1.54</v>
       </c>
       <c r="U24" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y24" t="n">
         <v>23</v>
@@ -3703,7 +3703,7 @@
         <v>80</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC24" t="n">
         <v>10.5</v>
@@ -3712,7 +3712,7 @@
         <v>16.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="n">
         <v>15</v>
@@ -3727,7 +3727,7 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
         <v>17</v>
@@ -3736,10 +3736,10 @@
         <v>24</v>
       </c>
       <c r="AM24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
@@ -3775,16 +3775,16 @@
         <v>2.32</v>
       </c>
       <c r="G25" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
         <v>3.5</v>
@@ -3799,7 +3799,7 @@
         <v>3.35</v>
       </c>
       <c r="O25" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
         <v>1.79</v>
@@ -3844,7 +3844,7 @@
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE25" t="n">
         <v>46</v>
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="n">
         <v>2.56</v>
       </c>
-      <c r="G26" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.82</v>
-      </c>
       <c r="I26" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -3940,52 +3940,52 @@
         <v>1.98</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R26" t="n">
         <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U26" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="W26" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="X26" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="n">
         <v>12.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF26" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
         <v>12.5</v>
@@ -3994,25 +3994,25 @@
         <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL26" t="n">
         <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO26" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G27" t="n">
         <v>2.44</v>
@@ -4099,13 +4099,13 @@
         <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z27" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AA27" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AB27" t="n">
         <v>8.4</v>
@@ -4114,19 +4114,19 @@
         <v>7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AI27" t="n">
         <v>85</v>
@@ -4141,13 +4141,13 @@
         <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
         <v>980</v>
       </c>
       <c r="AO27" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I2" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J2" t="n">
         <v>4.6</v>
@@ -685,7 +685,7 @@
         <v>5.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -697,67 +697,67 @@
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="Q2" t="n">
         <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="n">
         <v>80</v>
       </c>
       <c r="AA2" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AB2" t="n">
         <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AE2" t="n">
-        <v>260</v>
+        <v>510</v>
       </c>
       <c r="AF2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="n">
         <v>15.5</v>
@@ -769,10 +769,10 @@
         <v>390</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -802,79 +802,79 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.68</v>
+        <v>4.7</v>
       </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="I3" t="n">
-        <v>3.85</v>
+        <v>2.12</v>
       </c>
       <c r="J3" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.89</v>
       </c>
       <c r="W3" t="n">
         <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>500</v>
+        <v>6.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>500</v>
+        <v>11.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AB3" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>500</v>
@@ -886,7 +886,7 @@
         <v>500</v>
       </c>
       <c r="AH3" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
         <v>500</v>
@@ -904,7 +904,7 @@
         <v>500</v>
       </c>
       <c r="AN3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
         <v>500</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="I4" t="n">
         <v>2.66</v>
@@ -952,16 +952,16 @@
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
@@ -973,7 +973,7 @@
         <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
         <v>2.74</v>
@@ -982,13 +982,13 @@
         <v>1.59</v>
       </c>
       <c r="U4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V4" t="n">
         <v>1.6</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
         <v>34</v>
@@ -1006,28 +1006,28 @@
         <v>28</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>25</v>
       </c>
       <c r="AI4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>500</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>900</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
@@ -1078,13 +1078,13 @@
         <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I5" t="n">
         <v>7.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
         <v>4.6</v>
@@ -1099,16 +1099,16 @@
         <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
         <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
         <v>3.15</v>
@@ -1117,16 +1117,16 @@
         <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
         <v>2.74</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
         <v>23</v>
@@ -1144,16 +1144,16 @@
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>24</v>
@@ -1162,19 +1162,19 @@
         <v>100</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO5" t="n">
         <v>130</v>
@@ -1213,16 +1213,16 @@
         <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.46</v>
@@ -1234,10 +1234,10 @@
         <v>3.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
         <v>2.16</v>
@@ -1246,37 +1246,37 @@
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
         <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W6" t="n">
         <v>1.23</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
         <v>30</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
@@ -1291,16 +1291,16 @@
         <v>50</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AK6" t="n">
-        <v>190</v>
+        <v>480</v>
       </c>
       <c r="AL6" t="n">
         <v>500</v>
@@ -1309,7 +1309,7 @@
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="AO6" t="n">
         <v>40</v>
@@ -1345,7 +1345,7 @@
         <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H7" t="n">
         <v>9.4</v>
@@ -1357,10 +1357,10 @@
         <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1372,10 +1372,10 @@
         <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
@@ -1384,10 +1384,10 @@
         <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="V7" t="n">
         <v>1.09</v>
@@ -1399,7 +1399,7 @@
         <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
         <v>120</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC7" t="n">
         <v>20</v>
@@ -1420,7 +1420,7 @@
         <v>280</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.6</v>
+        <v>15.5</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
@@ -1432,10 +1432,10 @@
         <v>240</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="AK7" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AL7" t="n">
         <v>160</v>
@@ -1477,64 +1477,64 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G8" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="H8" t="n">
         <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
         <v>190</v>
@@ -1543,13 +1543,13 @@
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE8" t="n">
         <v>420</v>
@@ -1570,7 +1570,7 @@
         <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
         <v>160</v>
@@ -1612,28 +1612,28 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
         <v>4.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.48</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
         <v>3.3</v>
@@ -1642,19 +1642,19 @@
         <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
         <v>1.96</v>
@@ -1663,13 +1663,13 @@
         <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z9" t="n">
         <v>36</v>
@@ -1687,7 +1687,7 @@
         <v>19.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -1708,16 +1708,16 @@
         <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
         <v>17.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1750,19 +1750,19 @@
         <v>1.41</v>
       </c>
       <c r="G10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
         <v>8.6</v>
       </c>
       <c r="J10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
         <v>1.25</v>
@@ -1774,19 +1774,19 @@
         <v>6.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
         <v>1.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
         <v>1.74</v>
@@ -1798,10 +1798,10 @@
         <v>1.13</v>
       </c>
       <c r="W10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X10" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
         <v>42</v>
@@ -1810,7 +1810,7 @@
         <v>85</v>
       </c>
       <c r="AA10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
@@ -1819,10 +1819,10 @@
         <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
@@ -1831,13 +1831,13 @@
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
@@ -1846,13 +1846,13 @@
         <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,40 +1882,40 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
         <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
         <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
         <v>1.39</v>
@@ -1924,70 +1924,70 @@
         <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
         <v>1.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA11" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG11" t="n">
         <v>15</v>
       </c>
-      <c r="AE11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -2047,16 +2047,16 @@
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T12" t="n">
         <v>2.04</v>
@@ -2080,7 +2080,7 @@
         <v>19.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
         <v>8.6</v>
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="I13" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>2.96</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U13" t="n">
         <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="W13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>14.5</v>
@@ -2215,13 +2215,13 @@
         <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB13" t="n">
         <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
         <v>21</v>
@@ -2233,7 +2233,7 @@
         <v>500</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AH13" t="n">
         <v>500</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G14" t="n">
         <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
         <v>1.46</v>
@@ -2317,7 +2317,7 @@
         <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q14" t="n">
         <v>2.14</v>
@@ -2332,22 +2332,22 @@
         <v>1.91</v>
       </c>
       <c r="U14" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
         <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
         <v>25</v>
       </c>
       <c r="Z14" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AA14" t="n">
         <v>900</v>
@@ -2359,13 +2359,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE14" t="n">
         <v>370</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
@@ -2380,10 +2380,10 @@
         <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
         <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
         <v>1.71</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U15" t="n">
         <v>2.2</v>
@@ -2473,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X15" t="n">
         <v>90</v>
@@ -2482,7 +2482,7 @@
         <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
         <v>900</v>
@@ -2497,13 +2497,13 @@
         <v>40</v>
       </c>
       <c r="AE15" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
         <v>100</v>
       </c>
       <c r="AG15" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
         <v>60</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.51</v>
@@ -2581,7 +2581,7 @@
         <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.45</v>
@@ -2590,37 +2590,37 @@
         <v>1.65</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="R16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S16" t="n">
         <v>4.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U16" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA16" t="n">
         <v>500</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>100</v>
       </c>
       <c r="AB16" t="n">
         <v>14.5</v>
@@ -2629,13 +2629,13 @@
         <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
         <v>500</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AG16" t="n">
         <v>23</v>
@@ -2647,10 +2647,10 @@
         <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AK16" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AL16" t="n">
         <v>500</v>
@@ -2659,7 +2659,7 @@
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
         <v>500</v>
@@ -2695,7 +2695,7 @@
         <v>2.4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
@@ -2704,10 +2704,10 @@
         <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
         <v>1.49</v>
@@ -2725,7 +2725,7 @@
         <v>1.66</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
         <v>1.25</v>
@@ -2743,58 +2743,58 @@
         <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AA17" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
         <v>15.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL17" t="n">
         <v>55</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>60</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AO17" t="n">
         <v>110</v>
@@ -2833,7 +2833,7 @@
         <v>2.02</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
         <v>3.75</v>
@@ -2842,7 +2842,7 @@
         <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.18</v>
@@ -2860,13 +2860,13 @@
         <v>3.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R18" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S18" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T18" t="n">
         <v>1.42</v>
@@ -2881,10 +2881,10 @@
         <v>1.98</v>
       </c>
       <c r="X18" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="Y18" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="n">
         <v>85</v>
@@ -2896,43 +2896,43 @@
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="AE18" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AF18" t="n">
         <v>36</v>
       </c>
       <c r="AG18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH18" t="n">
         <v>15</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>18</v>
       </c>
       <c r="AI18" t="n">
         <v>80</v>
       </c>
       <c r="AJ18" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G19" t="n">
         <v>4.2</v>
@@ -2971,13 +2971,13 @@
         <v>1.86</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.23</v>
@@ -2992,10 +2992,10 @@
         <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R19" t="n">
         <v>1.71</v>
@@ -3007,49 +3007,49 @@
         <v>1.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W19" t="n">
         <v>1.32</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA19" t="n">
         <v>42</v>
       </c>
       <c r="AB19" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AC19" t="n">
         <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AF19" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="n">
         <v>500</v>
@@ -3061,13 +3061,13 @@
         <v>130</v>
       </c>
       <c r="AM19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -3097,67 +3097,67 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G20" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AA20" t="n">
         <v>900</v>
@@ -3166,22 +3166,22 @@
         <v>7.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="AE20" t="n">
         <v>500</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AG20" t="n">
         <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="n">
         <v>500</v>
@@ -3190,7 +3190,7 @@
         <v>900</v>
       </c>
       <c r="AK20" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
         <v>290</v>
@@ -3199,7 +3199,7 @@
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
         <v>500</v>
@@ -3238,10 +3238,10 @@
         <v>2.46</v>
       </c>
       <c r="H21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
         <v>3.1</v>
@@ -3256,16 +3256,16 @@
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="O21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P21" t="n">
         <v>1.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="R21" t="n">
         <v>1.21</v>
@@ -3274,7 +3274,7 @@
         <v>5.4</v>
       </c>
       <c r="T21" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="U21" t="n">
         <v>1.81</v>
@@ -3283,7 +3283,7 @@
         <v>1.36</v>
       </c>
       <c r="W21" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X21" t="n">
         <v>9</v>
@@ -3304,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
         <v>60</v>
@@ -3313,7 +3313,7 @@
         <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
         <v>23</v>
@@ -3388,7 +3388,7 @@
         <v>1.46</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
         <v>3.15</v>
@@ -3397,7 +3397,7 @@
         <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="Q22" t="n">
         <v>2.16</v>
@@ -3421,13 +3421,13 @@
         <v>1.53</v>
       </c>
       <c r="X22" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y22" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>11</v>
-      </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="n">
         <v>130</v>
@@ -3439,28 +3439,28 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AF22" t="n">
         <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI22" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AJ22" t="n">
         <v>50</v>
       </c>
       <c r="AK22" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="n">
         <v>130</v>
@@ -3469,10 +3469,10 @@
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AO22" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -3505,7 +3505,7 @@
         <v>2.96</v>
       </c>
       <c r="G23" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
         <v>2.96</v>
@@ -3529,16 +3529,16 @@
         <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P23" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q23" t="n">
         <v>2.48</v>
       </c>
       <c r="R23" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S23" t="n">
         <v>4.9</v>
@@ -3547,7 +3547,7 @@
         <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V23" t="n">
         <v>1.5</v>
@@ -3556,7 +3556,7 @@
         <v>1.5</v>
       </c>
       <c r="X23" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Y23" t="n">
         <v>9.199999999999999</v>
@@ -3586,7 +3586,7 @@
         <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>60</v>
@@ -3655,7 +3655,7 @@
         <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3667,13 +3667,13 @@
         <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q24" t="n">
         <v>1.53</v>
       </c>
       <c r="R24" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S24" t="n">
         <v>2.36</v>
@@ -3697,19 +3697,19 @@
         <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
         <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
         <v>38</v>
@@ -3724,22 +3724,22 @@
         <v>14</v>
       </c>
       <c r="AI24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
         <v>17</v>
       </c>
       <c r="AL24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM24" t="n">
         <v>50</v>
       </c>
       <c r="AN24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
@@ -3781,10 +3781,10 @@
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
         <v>3.5</v>
@@ -3799,13 +3799,13 @@
         <v>3.35</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P25" t="n">
         <v>1.79</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R25" t="n">
         <v>1.29</v>
@@ -3823,7 +3823,7 @@
         <v>1.39</v>
       </c>
       <c r="W25" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X25" t="n">
         <v>11.5</v>
@@ -3838,7 +3838,7 @@
         <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -3916,7 +3916,7 @@
         <v>2.56</v>
       </c>
       <c r="I26" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J26" t="n">
         <v>3.6</v>
@@ -3925,43 +3925,43 @@
         <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O26" t="n">
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
         <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U26" t="n">
         <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W26" t="n">
         <v>1.5</v>
       </c>
       <c r="X26" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
         <v>11.5</v>
@@ -4009,7 +4009,7 @@
         <v>85</v>
       </c>
       <c r="AN26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
@@ -4045,19 +4045,19 @@
         <v>2.3</v>
       </c>
       <c r="G27" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J27" t="n">
         <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.5</v>
@@ -4090,13 +4090,13 @@
         <v>1.92</v>
       </c>
       <c r="V27" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
         <v>21</v>
@@ -4114,31 +4114,31 @@
         <v>7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE27" t="n">
         <v>250</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
         <v>38</v>
       </c>
       <c r="AI27" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="AJ27" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AK27" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="G2" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.6</v>
@@ -697,55 +697,55 @@
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
         <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
         <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AB2" t="n">
         <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>510</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -754,25 +754,25 @@
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK2" t="n">
         <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
         <v>390</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -802,55 +802,55 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
         <v>1.92</v>
       </c>
       <c r="I3" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="J3" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K3" t="n">
         <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P3" t="n">
         <v>1.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="R3" t="n">
         <v>1.16</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>5.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V3" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
         <v>1.19</v>
@@ -865,10 +865,10 @@
         <v>11.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
         <v>7.6</v>
@@ -877,19 +877,19 @@
         <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
         <v>500</v>
       </c>
       <c r="AG3" t="n">
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="AH3" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AI3" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AJ3" t="n">
         <v>900</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="G4" t="n">
         <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I4" t="n">
         <v>2.66</v>
@@ -955,7 +955,7 @@
         <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -967,13 +967,13 @@
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
         <v>2.74</v>
@@ -982,16 +982,16 @@
         <v>1.59</v>
       </c>
       <c r="U4" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V4" t="n">
         <v>1.6</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
         <v>25</v>
@@ -1012,7 +1012,7 @@
         <v>19.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
         <v>55</v>
@@ -1039,7 +1039,7 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
         <v>55</v>
@@ -1078,7 +1078,7 @@
         <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
         <v>7.4</v>
@@ -1096,13 +1096,13 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
         <v>1.86</v>
@@ -1114,10 +1114,10 @@
         <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
         <v>1.15</v>
@@ -1126,10 +1126,10 @@
         <v>2.74</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z5" t="n">
         <v>60</v>
@@ -1147,22 +1147,22 @@
         <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AF5" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>100</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK5" t="n">
         <v>16</v>
@@ -1171,13 +1171,13 @@
         <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>8.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1210,13 @@
         <v>5.1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="J6" t="n">
         <v>3.85</v>
@@ -1255,7 +1255,7 @@
         <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="W6" t="n">
         <v>1.23</v>
@@ -1267,7 +1267,7 @@
         <v>7.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
         <v>36</v>
@@ -1312,7 +1312,7 @@
         <v>500</v>
       </c>
       <c r="AO6" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1351,7 +1351,7 @@
         <v>9.4</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
@@ -1360,7 +1360,7 @@
         <v>4.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1381,13 +1381,13 @@
         <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U7" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
         <v>1.09</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G8" t="n">
         <v>1.81</v>
@@ -1498,37 +1498,37 @@
         <v>1.37</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
         <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X8" t="n">
         <v>26</v>
@@ -1561,7 +1561,7 @@
         <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="n">
         <v>330</v>
@@ -1636,7 +1636,7 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G10" t="n">
         <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J10" t="n">
         <v>5.8</v>
@@ -1771,28 +1771,28 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.76</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>2.2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.24</v>
       </c>
       <c r="V10" t="n">
         <v>1.13</v>
@@ -1801,7 +1801,7 @@
         <v>3.35</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
         <v>42</v>
@@ -1819,13 +1819,13 @@
         <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="n">
-        <v>100</v>
+        <v>510</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
@@ -1834,7 +1834,7 @@
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="AJ10" t="n">
         <v>13</v>
@@ -1846,7 +1846,7 @@
         <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
         <v>4.6</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1912,7 +1912,7 @@
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q11" t="n">
         <v>1.72</v>
@@ -1930,7 +1930,7 @@
         <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W11" t="n">
         <v>1.69</v>
@@ -1981,7 +1981,7 @@
         <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN11" t="n">
         <v>980</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.7</v>
       </c>
-      <c r="G12" t="n">
-        <v>2.72</v>
-      </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
         <v>3.05</v>
@@ -2047,7 +2047,7 @@
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q12" t="n">
         <v>2.56</v>
@@ -2056,7 +2056,7 @@
         <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
         <v>2.04</v>
@@ -2065,7 +2065,7 @@
         <v>1.92</v>
       </c>
       <c r="V12" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W12" t="n">
         <v>1.58</v>
@@ -2092,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF12" t="n">
         <v>15.5</v>
@@ -2107,10 +2107,10 @@
         <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
         <v>60</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="I13" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="J13" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>1.46</v>
@@ -2179,19 +2179,19 @@
         <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R13" t="n">
         <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
         <v>2.02</v>
@@ -2200,13 +2200,13 @@
         <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="W13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>14.5</v>
@@ -2218,10 +2218,10 @@
         <v>500</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
         <v>21</v>
@@ -2236,7 +2236,7 @@
         <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AI13" t="n">
         <v>500</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G14" t="n">
         <v>2.2</v>
@@ -2299,10 +2299,10 @@
         <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
         <v>1.46</v>
@@ -2323,7 +2323,7 @@
         <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S14" t="n">
         <v>3.95</v>
@@ -2338,7 +2338,7 @@
         <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X14" t="n">
         <v>12.5</v>
@@ -2431,13 +2431,13 @@
         <v>1.87</v>
       </c>
       <c r="I15" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.29</v>
@@ -2455,25 +2455,25 @@
         <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
         <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T15" t="n">
         <v>1.7</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="W15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X15" t="n">
         <v>90</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
         <v>3.8</v>
@@ -2572,7 +2572,7 @@
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
         <v>1.51</v>
@@ -2599,7 +2599,7 @@
         <v>4.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U16" t="n">
         <v>1.89</v>
@@ -2623,7 +2623,7 @@
         <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
         <v>13</v>
@@ -2698,7 +2698,7 @@
         <v>2.46</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
         <v>3.5</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G18" t="n">
         <v>2.02</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
         <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K18" t="n">
         <v>4.9</v>
@@ -2857,22 +2857,22 @@
         <v>1.12</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
         <v>1.36</v>
       </c>
       <c r="R18" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S18" t="n">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="T18" t="n">
         <v>1.42</v>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V18" t="n">
         <v>1.37</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G19" t="n">
         <v>4.2</v>
@@ -2992,7 +2992,7 @@
         <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q19" t="n">
         <v>1.48</v>
@@ -3001,7 +3001,7 @@
         <v>1.71</v>
       </c>
       <c r="S19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T19" t="n">
         <v>1.5</v>
@@ -3010,7 +3010,7 @@
         <v>2.8</v>
       </c>
       <c r="V19" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W19" t="n">
         <v>1.32</v>
@@ -3115,7 +3115,7 @@
         <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -3178,7 +3178,7 @@
         <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>80</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G21" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
         <v>3.8</v>
@@ -3247,7 +3247,7 @@
         <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.57</v>
@@ -3256,7 +3256,7 @@
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="O21" t="n">
         <v>1.54</v>
@@ -3283,7 +3283,7 @@
         <v>1.36</v>
       </c>
       <c r="W21" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X21" t="n">
         <v>9</v>
@@ -3295,7 +3295,7 @@
         <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="n">
         <v>7.8</v>
@@ -3313,7 +3313,7 @@
         <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
         <v>23</v>
@@ -3391,13 +3391,13 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O22" t="n">
         <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q22" t="n">
         <v>2.16</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -3532,7 +3532,7 @@
         <v>1.49</v>
       </c>
       <c r="P23" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q23" t="n">
         <v>2.48</v>
@@ -3556,13 +3556,13 @@
         <v>1.5</v>
       </c>
       <c r="X23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y23" t="n">
         <v>9</v>
       </c>
-      <c r="Y23" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="Z23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA23" t="n">
         <v>46</v>
@@ -3574,13 +3574,13 @@
         <v>6.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
@@ -3655,7 +3655,7 @@
         <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3667,10 +3667,10 @@
         <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R24" t="n">
         <v>1.72</v>
@@ -3679,7 +3679,7 @@
         <v>2.36</v>
       </c>
       <c r="T24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U24" t="n">
         <v>2.74</v>
@@ -3703,7 +3703,7 @@
         <v>75</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC24" t="n">
         <v>10.5</v>
@@ -3733,7 +3733,7 @@
         <v>17</v>
       </c>
       <c r="AL24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM24" t="n">
         <v>50</v>
@@ -3805,7 +3805,7 @@
         <v>1.79</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R25" t="n">
         <v>1.29</v>
@@ -3835,7 +3835,7 @@
         <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB25" t="n">
         <v>9</v>
@@ -3847,7 +3847,7 @@
         <v>14.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF25" t="n">
         <v>13.5</v>
@@ -3865,10 +3865,10 @@
         <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
         <v>120</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -4045,13 +4045,13 @@
         <v>2.3</v>
       </c>
       <c r="G27" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J27" t="n">
         <v>3.1</v>
@@ -4069,13 +4069,13 @@
         <v>2.96</v>
       </c>
       <c r="O27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
         <v>1.67</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R27" t="n">
         <v>1.25</v>
@@ -4093,7 +4093,7 @@
         <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X27" t="n">
         <v>19</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="H2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>4.6</v>
@@ -691,70 +691,70 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
         <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AA2" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>510</v>
+        <v>95</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="AJ2" t="n">
         <v>14.5</v>
@@ -769,10 +769,10 @@
         <v>390</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L3" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N3" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="O3" t="n">
         <v>1.58</v>
       </c>
       <c r="P3" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="R3" t="n">
         <v>1.16</v>
       </c>
       <c r="S3" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="T3" t="n">
         <v>2.24</v>
       </c>
       <c r="U3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V3" t="n">
         <v>1.87</v>
       </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X3" t="n">
         <v>8</v>
@@ -868,7 +868,7 @@
         <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
         <v>7.6</v>
@@ -877,19 +877,19 @@
         <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="n">
         <v>500</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AH3" t="n">
         <v>65</v>
       </c>
       <c r="AI3" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AJ3" t="n">
         <v>900</v>
@@ -907,7 +907,7 @@
         <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -940,10 +940,10 @@
         <v>2.78</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H4" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="I4" t="n">
         <v>2.66</v>
@@ -955,43 +955,43 @@
         <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V4" t="n">
         <v>1.6</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X4" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="n">
         <v>25</v>
@@ -1018,7 +1018,7 @@
         <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
         <v>25</v>
@@ -1030,7 +1030,7 @@
         <v>500</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="n">
         <v>500</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
@@ -1090,13 +1090,13 @@
         <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
@@ -1108,25 +1108,25 @@
         <v>1.86</v>
       </c>
       <c r="R5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U5" t="n">
         <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
         <v>24</v>
@@ -1135,31 +1135,31 @@
         <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB5" t="n">
         <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="AJ5" t="n">
         <v>14.5</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="G6" t="n">
         <v>5.4</v>
@@ -1216,52 +1216,52 @@
         <v>1.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="J6" t="n">
         <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
         <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
         <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="W6" t="n">
         <v>1.23</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
         <v>7.4</v>
@@ -1270,7 +1270,7 @@
         <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AB6" t="n">
         <v>30</v>
@@ -1288,10 +1288,10 @@
         <v>95</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI6" t="n">
         <v>110</v>
@@ -1309,10 +1309,10 @@
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1342,100 +1342,100 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="G7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H7" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
         <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
         <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AF7" t="n">
         <v>15.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AJ7" t="n">
         <v>180</v>
       </c>
       <c r="AK7" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
         <v>160</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="Q8" t="n">
         <v>2.04</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
         <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>970</v>
@@ -1543,7 +1543,7 @@
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
         <v>14</v>
@@ -1555,7 +1555,7 @@
         <v>420</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
@@ -1579,10 +1579,10 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H9" t="n">
         <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1630,28 +1630,28 @@
         <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
         <v>1.94</v>
@@ -1660,19 +1660,19 @@
         <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
         <v>120</v>
@@ -1684,10 +1684,10 @@
         <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -1708,10 +1708,10 @@
         <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
         <v>17.5</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G10" t="n">
         <v>1.42</v>
@@ -1756,40 +1756,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J10" t="n">
         <v>5.8</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
         <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
         <v>2.2</v>
@@ -1801,28 +1801,28 @@
         <v>3.35</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="n">
         <v>300</v>
       </c>
       <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
         <v>13</v>
       </c>
-      <c r="AC10" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AD10" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>510</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="n">
         <v>10.5</v>
@@ -1834,7 +1834,7 @@
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="AJ10" t="n">
         <v>13</v>
@@ -1846,10 +1846,10 @@
         <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1885,13 +1885,13 @@
         <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.55</v>
@@ -1900,43 +1900,43 @@
         <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="T11" t="n">
-        <v>1.05</v>
+        <v>1.56</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
         <v>1.41</v>
       </c>
       <c r="W11" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
         <v>20</v>
@@ -1957,7 +1957,7 @@
         <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
         <v>20</v>
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
@@ -1978,7 +1978,7 @@
         <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
         <v>330</v>
@@ -2035,22 +2035,22 @@
         <v>3.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P12" t="n">
         <v>1.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
@@ -2059,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
         <v>1.92</v>
@@ -2107,7 +2107,7 @@
         <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="n">
         <v>34</v>
@@ -2152,73 +2152,73 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="G13" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="I13" t="n">
         <v>1.88</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T13" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="V13" t="n">
         <v>2.12</v>
       </c>
       <c r="W13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z13" t="n">
         <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
         <v>14</v>
@@ -2236,7 +2236,7 @@
         <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AI13" t="n">
         <v>500</v>
@@ -2287,46 +2287,46 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G14" t="n">
         <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
         <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="T14" t="n">
         <v>1.91</v>
@@ -2341,7 +2341,7 @@
         <v>1.83</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
         <v>25</v>
@@ -2353,7 +2353,7 @@
         <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC14" t="n">
         <v>8.199999999999999</v>
@@ -2365,7 +2365,7 @@
         <v>370</v>
       </c>
       <c r="AF14" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="n">
         <v>1.87</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="J15" t="n">
         <v>3.65</v>
@@ -2440,37 +2440,37 @@
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
         <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
         <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="W15" t="n">
         <v>1.27</v>
@@ -2491,7 +2491,7 @@
         <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
         <v>40</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G16" t="n">
         <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2575,16 +2575,16 @@
         <v>3.25</v>
       </c>
       <c r="L16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P16" t="n">
         <v>1.65</v>
@@ -2605,13 +2605,13 @@
         <v>1.89</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W16" t="n">
         <v>1.75</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
         <v>21</v>
@@ -2623,10 +2623,10 @@
         <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2647,7 +2647,7 @@
         <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
         <v>110</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G17" t="n">
         <v>2.46</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
         <v>3.5</v>
@@ -2707,37 +2707,37 @@
         <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="Q17" t="n">
         <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U17" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V17" t="n">
         <v>1.4</v>
@@ -2749,7 +2749,7 @@
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
         <v>46</v>
@@ -2761,40 +2761,40 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="AF17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="n">
         <v>380</v>
       </c>
       <c r="AJ17" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="n">
         <v>85</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AO17" t="n">
         <v>110</v>
@@ -2827,31 +2827,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G18" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
         <v>4.4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
         <v>1.12</v>
@@ -2860,13 +2860,13 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="R18" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="S18" t="n">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="T18" t="n">
         <v>1.42</v>
@@ -2878,7 +2878,7 @@
         <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
         <v>120</v>
@@ -2893,10 +2893,10 @@
         <v>160</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
         <v>36</v>
@@ -2905,10 +2905,10 @@
         <v>95</v>
       </c>
       <c r="AF18" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="AH18" t="n">
         <v>15</v>
@@ -2920,19 +2920,19 @@
         <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AL18" t="n">
         <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
         <v>6.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>17.5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
@@ -2962,73 +2962,73 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="G19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="I19" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R19" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="S19" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="T19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U19" t="n">
         <v>2.8</v>
       </c>
       <c r="V19" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="W19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X19" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AA19" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AC19" t="n">
         <v>11.5</v>
@@ -3040,10 +3040,10 @@
         <v>32</v>
       </c>
       <c r="AF19" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AH19" t="n">
         <v>15.5</v>
@@ -3061,13 +3061,13 @@
         <v>130</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
         <v>500</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="20">
@@ -3097,58 +3097,58 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
         <v>5.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
         <v>3.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T20" t="n">
         <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X20" t="n">
         <v>90</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G21" t="n">
         <v>2.48</v>
@@ -3241,7 +3241,7 @@
         <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J21" t="n">
         <v>3.1</v>
@@ -3250,43 +3250,43 @@
         <v>3.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="M21" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="O21" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P21" t="n">
         <v>1.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="T21" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U21" t="n">
         <v>1.81</v>
       </c>
       <c r="V21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W21" t="n">
         <v>1.67</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y21" t="n">
         <v>10.5</v>
@@ -3295,7 +3295,7 @@
         <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
         <v>7.8</v>
@@ -3304,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>60</v>
@@ -3328,16 +3328,16 @@
         <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AO21" t="n">
-        <v>230</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="G22" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.86</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.82</v>
       </c>
       <c r="I22" t="n">
         <v>2.96</v>
@@ -3382,34 +3382,34 @@
         <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P22" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U22" t="n">
         <v>2</v>
@@ -3418,52 +3418,52 @@
         <v>1.51</v>
       </c>
       <c r="W22" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD22" t="n">
         <v>14</v>
       </c>
-      <c r="Y22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>16</v>
-      </c>
       <c r="AE22" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>60</v>
+        <v>19.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="AK22" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AL22" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
         <v>580</v>
@@ -3472,7 +3472,7 @@
         <v>40</v>
       </c>
       <c r="AO22" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -3520,13 +3520,13 @@
         <v>3.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M23" t="n">
         <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O23" t="n">
         <v>1.49</v>
@@ -3535,10 +3535,10 @@
         <v>1.65</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S23" t="n">
         <v>4.9</v>
@@ -3547,7 +3547,7 @@
         <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V23" t="n">
         <v>1.5</v>
@@ -3586,7 +3586,7 @@
         <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>60</v>
@@ -3607,7 +3607,7 @@
         <v>44</v>
       </c>
       <c r="AO23" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.93</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.94</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
@@ -3655,7 +3655,7 @@
         <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3673,10 +3673,10 @@
         <v>1.54</v>
       </c>
       <c r="R24" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S24" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
         <v>1.55</v>
@@ -3691,7 +3691,7 @@
         <v>2.06</v>
       </c>
       <c r="X24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
         <v>23</v>
@@ -3706,7 +3706,7 @@
         <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
         <v>17</v>
@@ -3733,7 +3733,7 @@
         <v>17</v>
       </c>
       <c r="AL24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>50</v>
@@ -3742,7 +3742,7 @@
         <v>8</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -3802,10 +3802,10 @@
         <v>1.41</v>
       </c>
       <c r="P25" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
         <v>1.29</v>
@@ -3814,13 +3814,13 @@
         <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U25" t="n">
         <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W25" t="n">
         <v>1.73</v>
@@ -3838,7 +3838,7 @@
         <v>65</v>
       </c>
       <c r="AB25" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
@@ -3874,7 +3874,7 @@
         <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO25" t="n">
         <v>50</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.94</v>
       </c>
-      <c r="G26" t="n">
-        <v>3</v>
-      </c>
       <c r="H26" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I26" t="n">
         <v>2.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L26" t="n">
         <v>1.41</v>
@@ -3931,37 +3931,37 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S26" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T26" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U26" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V26" t="n">
         <v>1.62</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y26" t="n">
         <v>11.5</v>
@@ -3982,7 +3982,7 @@
         <v>11.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF26" t="n">
         <v>20</v>
@@ -3994,10 +3994,10 @@
         <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK26" t="n">
         <v>32</v>
@@ -4009,7 +4009,7 @@
         <v>85</v>
       </c>
       <c r="AN26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
@@ -4045,46 +4045,46 @@
         <v>2.3</v>
       </c>
       <c r="G27" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
         <v>3.85</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
         <v>3.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P27" t="n">
         <v>1.67</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R27" t="n">
         <v>1.25</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T27" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
         <v>1.92</v>
@@ -4093,7 +4093,7 @@
         <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="X27" t="n">
         <v>19</v>
@@ -4108,19 +4108,19 @@
         <v>500</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC27" t="n">
         <v>7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
         <v>250</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>12</v>
@@ -4135,7 +4135,7 @@
         <v>150</v>
       </c>
       <c r="AK27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="n">
         <v>290</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -676,10 +676,10 @@
         <v>6.8</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
         <v>5.2</v>
@@ -691,25 +691,25 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q2" t="n">
         <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S2" t="n">
         <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
         <v>2.14</v>
@@ -739,10 +739,10 @@
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="AF2" t="n">
         <v>10.5</v>
@@ -754,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="AJ2" t="n">
         <v>14.5</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="I3" t="n">
         <v>2.14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>3.15</v>
       </c>
       <c r="L3" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M3" t="n">
         <v>1.15</v>
       </c>
       <c r="N3" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="O3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P3" t="n">
         <v>1.47</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="R3" t="n">
         <v>1.16</v>
       </c>
       <c r="S3" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
         <v>1.87</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X3" t="n">
         <v>8</v>
@@ -868,10 +868,10 @@
         <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
         <v>12</v>
@@ -883,7 +883,7 @@
         <v>500</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>65</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G4" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="H4" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="I4" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
@@ -961,7 +961,7 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
@@ -973,25 +973,25 @@
         <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
         <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U4" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
         <v>25</v>
@@ -1000,49 +1000,49 @@
         <v>55</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG4" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>24</v>
-      </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="AK4" t="n">
         <v>75</v>
       </c>
       <c r="AL4" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM4" t="n">
         <v>500</v>
       </c>
-      <c r="AM4" t="n">
-        <v>580</v>
-      </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>44</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G5" t="n">
         <v>1.58</v>
       </c>
       <c r="H5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I5" t="n">
         <v>7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.2</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1102,10 +1102,10 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
         <v>1.43</v>
@@ -1114,10 +1114,10 @@
         <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V5" t="n">
         <v>1.16</v>
@@ -1129,7 +1129,7 @@
         <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
         <v>60</v>
@@ -1138,7 +1138,7 @@
         <v>210</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
@@ -1156,13 +1156,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>16</v>
@@ -1174,7 +1174,7 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO5" t="n">
         <v>130</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G6" t="n">
         <v>5.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="J6" t="n">
         <v>3.85</v>
@@ -1231,7 +1231,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
         <v>1.39</v>
@@ -1240,7 +1240,7 @@
         <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
         <v>1.29</v>
@@ -1249,19 +1249,19 @@
         <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
         <v>1.23</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
         <v>7.4</v>
@@ -1270,7 +1270,7 @@
         <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
         <v>30</v>
@@ -1291,7 +1291,7 @@
         <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>110</v>
@@ -1312,7 +1312,7 @@
         <v>600</v>
       </c>
       <c r="AO6" t="n">
-        <v>40</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,55 +1342,55 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H7" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
         <v>2.92</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
@@ -1417,19 +1417,19 @@
         <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AF7" t="n">
-        <v>15.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AJ7" t="n">
         <v>180</v>
@@ -1441,10 +1441,10 @@
         <v>160</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN7" t="n">
-        <v>29</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="n">
         <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
         <v>2.04</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X8" t="n">
         <v>21</v>
@@ -1543,7 +1543,7 @@
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC8" t="n">
         <v>14</v>
@@ -1555,7 +1555,7 @@
         <v>420</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
@@ -1579,7 +1579,7 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
         <v>600</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>2.02</v>
@@ -1627,7 +1627,7 @@
         <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.49</v>
@@ -1636,16 +1636,16 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
@@ -1657,7 +1657,7 @@
         <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
         <v>1.26</v>
@@ -1672,10 +1672,10 @@
         <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB9" t="n">
         <v>8</v>
@@ -1696,7 +1696,7 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>80</v>
@@ -1708,7 +1708,7 @@
         <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
@@ -1750,16 +1750,16 @@
         <v>1.41</v>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H10" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J10" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K10" t="n">
         <v>5.9</v>
@@ -1774,7 +1774,7 @@
         <v>6.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
         <v>2.88</v>
@@ -1783,7 +1783,7 @@
         <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S10" t="n">
         <v>2.3</v>
@@ -1792,7 +1792,7 @@
         <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
         <v>1.13</v>
@@ -1804,7 +1804,7 @@
         <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="n">
         <v>80</v>
@@ -1819,7 +1819,7 @@
         <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AE10" t="n">
         <v>100</v>
@@ -1828,7 +1828,7 @@
         <v>10.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>22</v>
@@ -1843,7 +1843,7 @@
         <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>330</v>
@@ -1885,109 +1885,109 @@
         <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="R11" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="T11" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="V11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA11" t="n">
         <v>150</v>
       </c>
       <c r="AB11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2041,13 +2041,13 @@
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="O12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
         <v>2.54</v>
@@ -2056,7 +2056,7 @@
         <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T12" t="n">
         <v>2.02</v>
@@ -2074,7 +2074,7 @@
         <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
         <v>19.5</v>
@@ -2089,7 +2089,7 @@
         <v>6.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
         <v>44</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="I13" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.51</v>
@@ -2179,10 +2179,10 @@
         <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q13" t="n">
         <v>2.38</v>
@@ -2197,16 +2197,16 @@
         <v>2.08</v>
       </c>
       <c r="U13" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V13" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W13" t="n">
         <v>1.21</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>7.2</v>
@@ -2215,7 +2215,7 @@
         <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
         <v>32</v>
@@ -2224,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>65</v>
@@ -2233,7 +2233,7 @@
         <v>500</v>
       </c>
       <c r="AG13" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
         <v>500</v>
@@ -2254,7 +2254,7 @@
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO13" t="n">
         <v>55</v>
@@ -2290,13 +2290,13 @@
         <v>2.12</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H14" t="n">
         <v>3.95</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.35</v>
@@ -2311,19 +2311,19 @@
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S14" t="n">
         <v>4.2</v>
@@ -2332,13 +2332,13 @@
         <v>1.91</v>
       </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V14" t="n">
         <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
@@ -2347,7 +2347,7 @@
         <v>25</v>
       </c>
       <c r="Z14" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
         <v>900</v>
@@ -2356,7 +2356,7 @@
         <v>8.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
         <v>32</v>
@@ -2389,10 +2389,10 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AO14" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2425,7 +2425,7 @@
         <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
         <v>1.87</v>
@@ -2434,7 +2434,7 @@
         <v>1.98</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2443,28 +2443,28 @@
         <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
         <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
         <v>2.16</v>
@@ -2476,7 +2476,7 @@
         <v>1.27</v>
       </c>
       <c r="X15" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="n">
         <v>23</v>
@@ -2497,7 +2497,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
         <v>100</v>
@@ -2524,7 +2524,7 @@
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO15" t="n">
         <v>55</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2575,16 +2575,16 @@
         <v>3.25</v>
       </c>
       <c r="L16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P16" t="n">
         <v>1.65</v>
@@ -2599,43 +2599,43 @@
         <v>4.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
         <v>1.89</v>
       </c>
       <c r="V16" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AA16" t="n">
         <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
         <v>500</v>
       </c>
       <c r="AF16" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
         <v>23</v>
@@ -2662,7 +2662,7 @@
         <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2695,7 +2695,7 @@
         <v>2.42</v>
       </c>
       <c r="G17" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
         <v>3.35</v>
@@ -2704,49 +2704,49 @@
         <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
         <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="R17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.92</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.94</v>
       </c>
       <c r="V17" t="n">
         <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
@@ -2770,19 +2770,19 @@
         <v>230</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AI17" t="n">
         <v>380</v>
       </c>
       <c r="AJ17" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="n">
         <v>85</v>
@@ -2794,10 +2794,10 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO17" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
         <v>4.4</v>
@@ -2863,7 +2863,7 @@
         <v>1.39</v>
       </c>
       <c r="R18" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S18" t="n">
         <v>1.96</v>
@@ -2875,10 +2875,10 @@
         <v>3.05</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X18" t="n">
         <v>120</v>
@@ -2929,7 +2929,7 @@
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO18" t="n">
         <v>210</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
         <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="I19" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
         <v>1.27</v>
@@ -2992,7 +2992,7 @@
         <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q19" t="n">
         <v>1.51</v>
@@ -3010,10 +3010,10 @@
         <v>2.8</v>
       </c>
       <c r="V19" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="W19" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X19" t="n">
         <v>34</v>
@@ -3028,7 +3028,7 @@
         <v>90</v>
       </c>
       <c r="AB19" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AC19" t="n">
         <v>11.5</v>
@@ -3055,7 +3055,7 @@
         <v>500</v>
       </c>
       <c r="AK19" t="n">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="n">
         <v>130</v>
@@ -3067,7 +3067,7 @@
         <v>500</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="G20" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.47</v>
@@ -3124,37 +3124,37 @@
         <v>3.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S20" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="U20" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="X20" t="n">
         <v>90</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="Z20" t="n">
         <v>190</v>
@@ -3163,7 +3163,7 @@
         <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC20" t="n">
         <v>14</v>
@@ -3178,7 +3178,7 @@
         <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH20" t="n">
         <v>80</v>
@@ -3187,7 +3187,7 @@
         <v>500</v>
       </c>
       <c r="AJ20" t="n">
-        <v>900</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
         <v>65</v>
@@ -3202,7 +3202,7 @@
         <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G21" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
         <v>3.7</v>
@@ -3256,25 +3256,25 @@
         <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O21" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P21" t="n">
         <v>1.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R21" t="n">
         <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U21" t="n">
         <v>1.81</v>
@@ -3283,10 +3283,10 @@
         <v>1.37</v>
       </c>
       <c r="W21" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y21" t="n">
         <v>10.5</v>
@@ -3295,16 +3295,16 @@
         <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC21" t="n">
         <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
         <v>60</v>
@@ -3337,7 +3337,7 @@
         <v>36</v>
       </c>
       <c r="AO21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G22" t="n">
         <v>2.82</v>
@@ -3394,19 +3394,19 @@
         <v>3.35</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
         <v>1.87</v>
@@ -3436,16 +3436,16 @@
         <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AF22" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
         <v>13.5</v>
@@ -3469,7 +3469,7 @@
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AO22" t="n">
         <v>75</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H23" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I23" t="n">
         <v>2.96</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.98</v>
       </c>
       <c r="J23" t="n">
         <v>3.05</v>
@@ -3520,7 +3520,7 @@
         <v>3.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M23" t="n">
         <v>1.12</v>
@@ -3532,28 +3532,28 @@
         <v>1.49</v>
       </c>
       <c r="P23" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R23" t="n">
         <v>1.24</v>
       </c>
       <c r="S23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T23" t="n">
         <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V23" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W23" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X23" t="n">
         <v>9.199999999999999</v>
@@ -3592,7 +3592,7 @@
         <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK23" t="n">
         <v>40</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.92</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.93</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
@@ -3655,7 +3655,7 @@
         <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3667,16 +3667,16 @@
         <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q24" t="n">
         <v>1.54</v>
       </c>
       <c r="R24" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S24" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T24" t="n">
         <v>1.55</v>
@@ -3688,7 +3688,7 @@
         <v>1.32</v>
       </c>
       <c r="W24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X24" t="n">
         <v>26</v>
@@ -3727,13 +3727,13 @@
         <v>36</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
         <v>17</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM24" t="n">
         <v>50</v>
@@ -3742,7 +3742,7 @@
         <v>8</v>
       </c>
       <c r="AO24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G25" t="n">
         <v>2.36</v>
@@ -3787,7 +3787,7 @@
         <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
         <v>1.49</v>
@@ -3796,31 +3796,31 @@
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R25" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U25" t="n">
         <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W25" t="n">
         <v>1.73</v>
@@ -3835,7 +3835,7 @@
         <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
         <v>8.800000000000001</v>
@@ -3847,28 +3847,28 @@
         <v>14.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF25" t="n">
         <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK25" t="n">
         <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM25" t="n">
         <v>120</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G26" t="n">
         <v>2.94</v>
@@ -3940,7 +3940,7 @@
         <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R26" t="n">
         <v>1.39</v>
@@ -3949,7 +3949,7 @@
         <v>3.45</v>
       </c>
       <c r="T26" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U26" t="n">
         <v>2.26</v>
@@ -3958,16 +3958,16 @@
         <v>1.62</v>
       </c>
       <c r="W26" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X26" t="n">
         <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA26" t="n">
         <v>38</v>
@@ -3976,16 +3976,16 @@
         <v>12.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
         <v>11.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG26" t="n">
         <v>12.5</v>
@@ -3994,7 +3994,7 @@
         <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="n">
         <v>46</v>
@@ -4012,7 +4012,7 @@
         <v>27</v>
       </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -4051,7 +4051,7 @@
         <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J27" t="n">
         <v>3.2</v>
@@ -4069,7 +4069,7 @@
         <v>3.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
         <v>1.67</v>
@@ -4108,7 +4108,7 @@
         <v>500</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC27" t="n">
         <v>7.4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="G2" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="H2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I2" t="n">
         <v>6.8</v>
       </c>
-      <c r="I2" t="n">
-        <v>7.8</v>
-      </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.32</v>
@@ -694,43 +694,43 @@
         <v>5.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W2" t="n">
         <v>2.68</v>
       </c>
-      <c r="T2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.84</v>
-      </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
         <v>32</v>
       </c>
       <c r="Z2" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="n">
         <v>11</v>
@@ -739,40 +739,40 @@
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE2" t="n">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="I3" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -820,13 +820,13 @@
         <v>3.15</v>
       </c>
       <c r="L3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="M3" t="n">
         <v>1.15</v>
       </c>
       <c r="N3" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O3" t="n">
         <v>1.59</v>
@@ -838,55 +838,55 @@
         <v>2.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.4</v>
+        <v>55</v>
       </c>
       <c r="Z3" t="n">
-        <v>11.5</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AF3" t="n">
         <v>500</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
         <v>500</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G4" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
         <v>3.9</v>
@@ -964,85 +964,85 @@
         <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" t="n">
         <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
         <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="U4" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>1.51</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="G5" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1105,7 +1105,7 @@
         <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R5" t="n">
         <v>1.43</v>
@@ -1114,58 +1114,58 @@
         <v>3.2</v>
       </c>
       <c r="T5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.94</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.99</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA5" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AB5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF5" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AG5" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL5" t="n">
         <v>36</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -1207,40 +1207,40 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J6" t="n">
         <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.47</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
         <v>1.29</v>
@@ -1249,70 +1249,70 @@
         <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="AB6" t="n">
         <v>30</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AG6" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
         <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AK6" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G7" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
         <v>4.3</v>
@@ -1360,7 +1360,7 @@
         <v>4.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1372,7 +1372,7 @@
         <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q7" t="n">
         <v>2.08</v>
@@ -1384,67 +1384,67 @@
         <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V7" t="n">
         <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
         <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
         <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
         <v>160</v>
       </c>
       <c r="AM7" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G8" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="H8" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.43</v>
@@ -1504,34 +1504,34 @@
         <v>3.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
         <v>970</v>
@@ -1543,31 +1543,31 @@
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
         <v>420</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AI8" t="n">
         <v>330</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="AK8" t="n">
         <v>65</v>
@@ -1579,7 +1579,7 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO8" t="n">
         <v>600</v>
@@ -1615,19 +1615,19 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
         <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.49</v>
@@ -1636,10 +1636,10 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
         <v>1.78</v>
@@ -1648,46 +1648,46 @@
         <v>2.22</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
         <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V9" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
         <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
         <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
         <v>18.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -1696,7 +1696,7 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
         <v>80</v>
@@ -1705,16 +1705,16 @@
         <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO9" t="n">
         <v>85</v>
@@ -1750,19 +1750,19 @@
         <v>1.41</v>
       </c>
       <c r="G10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I10" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.26</v>
@@ -1774,43 +1774,43 @@
         <v>6.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
         <v>2.26</v>
       </c>
       <c r="V10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X10" t="n">
         <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>960</v>
       </c>
       <c r="Z10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA10" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
@@ -1819,10 +1819,10 @@
         <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AE10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="n">
         <v>10.5</v>
@@ -1834,22 +1834,22 @@
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="AJ10" t="n">
         <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1885,109 +1885,109 @@
         <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.06</v>
       </c>
       <c r="U11" t="n">
-        <v>2.32</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
         <v>1.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AJ11" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.68</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
@@ -2035,7 +2035,7 @@
         <v>3.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
@@ -2047,10 +2047,10 @@
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
@@ -2059,7 +2059,7 @@
         <v>5.1</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
         <v>1.92</v>
@@ -2068,13 +2068,13 @@
         <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z12" t="n">
         <v>19.5</v>
@@ -2083,7 +2083,7 @@
         <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC12" t="n">
         <v>6.6</v>
@@ -2119,10 +2119,10 @@
         <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13">
@@ -2158,31 +2158,31 @@
         <v>5.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="I13" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O13" t="n">
         <v>1.45</v>
       </c>
       <c r="P13" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q13" t="n">
         <v>2.38</v>
@@ -2194,10 +2194,10 @@
         <v>4.7</v>
       </c>
       <c r="T13" t="n">
-        <v>2.08</v>
+        <v>1.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.77</v>
+        <v>1.05</v>
       </c>
       <c r="V13" t="n">
         <v>2.16</v>
@@ -2206,22 +2206,22 @@
         <v>1.21</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.2</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
@@ -2236,7 +2236,7 @@
         <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
         <v>500</v>
@@ -2257,7 +2257,7 @@
         <v>600</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -2293,7 +2293,7 @@
         <v>2.18</v>
       </c>
       <c r="H14" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
         <v>4.2</v>
@@ -2314,37 +2314,37 @@
         <v>3.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
         <v>1.28</v>
       </c>
       <c r="S14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.91</v>
+        <v>1.06</v>
       </c>
       <c r="U14" t="n">
-        <v>2.06</v>
+        <v>1.05</v>
       </c>
       <c r="V14" t="n">
         <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>
@@ -2353,34 +2353,34 @@
         <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
         <v>370</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
         <v>500</v>
       </c>
       <c r="AJ14" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
         <v>200</v>
@@ -2389,7 +2389,7 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AO14" t="n">
         <v>600</v>
@@ -2428,7 +2428,7 @@
         <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I15" t="n">
         <v>1.98</v>
@@ -2464,10 +2464,10 @@
         <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="V15" t="n">
         <v>2.02</v>
@@ -2476,13 +2476,13 @@
         <v>1.27</v>
       </c>
       <c r="X15" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AA15" t="n">
         <v>900</v>
@@ -2491,13 +2491,13 @@
         <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD15" t="n">
         <v>40</v>
       </c>
       <c r="AE15" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
         <v>100</v>
@@ -2506,7 +2506,7 @@
         <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI15" t="n">
         <v>80</v>
@@ -2527,7 +2527,7 @@
         <v>600</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
         <v>3.25</v>
@@ -2584,13 +2584,13 @@
         <v>2.98</v>
       </c>
       <c r="O16" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P16" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R16" t="n">
         <v>1.24</v>
@@ -2599,49 +2599,49 @@
         <v>4.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="U16" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
         <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
         <v>500</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
         <v>500</v>
@@ -2650,7 +2650,7 @@
         <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
         <v>500</v>
@@ -2701,10 +2701,10 @@
         <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
         <v>3.4</v>
@@ -2716,7 +2716,7 @@
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
         <v>1.45</v>
@@ -2725,19 +2725,19 @@
         <v>1.67</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S17" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.95</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="V17" t="n">
         <v>1.4</v>
@@ -2746,46 +2746,46 @@
         <v>1.66</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC17" t="n">
         <v>11</v>
       </c>
-      <c r="Z17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>230</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
         <v>380</v>
       </c>
       <c r="AJ17" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AK17" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
         <v>290</v>
@@ -2794,10 +2794,10 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO17" t="n">
         <v>600</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>1.94</v>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>3.6</v>
@@ -2851,25 +2851,25 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O18" t="n">
         <v>1.12</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R18" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
         <v>1.96</v>
       </c>
       <c r="T18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="U18" t="n">
         <v>3.05</v>
@@ -2878,13 +2878,13 @@
         <v>1.36</v>
       </c>
       <c r="W18" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
         <v>85</v>
@@ -2893,13 +2893,13 @@
         <v>160</v>
       </c>
       <c r="AB18" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
         <v>95</v>
@@ -2908,10 +2908,10 @@
         <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
         <v>80</v>
@@ -2929,10 +2929,10 @@
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.6</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G19" t="n">
         <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I19" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K19" t="n">
         <v>4.6</v>
@@ -2986,88 +2986,88 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
         <v>2.84</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R19" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
         <v>2.28</v>
       </c>
       <c r="T19" t="n">
-        <v>1.51</v>
+        <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="V19" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="W19" t="n">
         <v>1.32</v>
       </c>
       <c r="X19" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
         <v>90</v>
       </c>
       <c r="AB19" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AF19" t="n">
         <v>100</v>
       </c>
       <c r="AG19" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AJ19" t="n">
         <v>500</v>
       </c>
       <c r="AK19" t="n">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="AL19" t="n">
         <v>130</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="G20" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R20" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
         <v>4.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>1.06</v>
       </c>
       <c r="U20" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="V20" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="X20" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
         <v>190</v>
@@ -3163,34 +3163,34 @@
         <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD20" t="n">
-        <v>150</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
         <v>500</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
         <v>500</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="n">
         <v>290</v>
@@ -3199,7 +3199,7 @@
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AO20" t="n">
         <v>600</v>
@@ -3238,13 +3238,13 @@
         <v>2.46</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
         <v>3.2</v>
@@ -3262,7 +3262,7 @@
         <v>1.54</v>
       </c>
       <c r="P21" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
         <v>2.66</v>
@@ -3274,7 +3274,7 @@
         <v>5.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U21" t="n">
         <v>1.81</v>
@@ -3283,7 +3283,7 @@
         <v>1.37</v>
       </c>
       <c r="W21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X21" t="n">
         <v>8.6</v>
@@ -3295,16 +3295,16 @@
         <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC21" t="n">
         <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>16.5</v>
+        <v>42</v>
       </c>
       <c r="AE21" t="n">
         <v>60</v>
@@ -3313,13 +3313,13 @@
         <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>85</v>
+        <v>460</v>
       </c>
       <c r="AJ21" t="n">
         <v>36</v>
@@ -3328,7 +3328,7 @@
         <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="AM21" t="n">
         <v>180</v>
@@ -3337,7 +3337,7 @@
         <v>36</v>
       </c>
       <c r="AO21" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
@@ -3370,13 +3370,13 @@
         <v>2.78</v>
       </c>
       <c r="G22" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H22" t="n">
         <v>2.86</v>
       </c>
       <c r="I22" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="J22" t="n">
         <v>3.3</v>
@@ -3385,7 +3385,7 @@
         <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
@@ -3409,70 +3409,70 @@
         <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.87</v>
+        <v>1.06</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="V22" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W22" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AA22" t="n">
         <v>350</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC22" t="n">
         <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
         <v>120</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AJ22" t="n">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="AK22" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AM22" t="n">
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO22" t="n">
-        <v>75</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
@@ -3508,106 +3508,106 @@
         <v>3.05</v>
       </c>
       <c r="H23" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I23" t="n">
         <v>2.94</v>
       </c>
-      <c r="I23" t="n">
-        <v>2.96</v>
-      </c>
       <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.05</v>
       </c>
-      <c r="K23" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="M23" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
       <c r="O23" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="P23" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="R23" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="T23" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="U23" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="V23" t="n">
         <v>1.51</v>
       </c>
       <c r="W23" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X23" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC23" t="n">
         <v>6.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AF23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>60</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>48</v>
-      </c>
       <c r="AK23" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AN23" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G24" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
@@ -3658,7 +3658,7 @@
         <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
         <v>6.2</v>
@@ -3670,7 +3670,7 @@
         <v>2.78</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R24" t="n">
         <v>1.72</v>
@@ -3682,7 +3682,7 @@
         <v>1.55</v>
       </c>
       <c r="U24" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="V24" t="n">
         <v>1.32</v>
@@ -3706,7 +3706,7 @@
         <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
         <v>17</v>
@@ -3733,13 +3733,13 @@
         <v>17</v>
       </c>
       <c r="AL24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM24" t="n">
         <v>50</v>
       </c>
       <c r="AN24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO24" t="n">
         <v>28</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G25" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I25" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.55</v>
       </c>
       <c r="J25" t="n">
         <v>3.4</v>
@@ -3790,58 +3790,58 @@
         <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="n">
         <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R25" t="n">
         <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U25" t="n">
         <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y25" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>12</v>
       </c>
       <c r="Z25" t="n">
         <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB25" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD25" t="n">
         <v>14.5</v>
@@ -3862,22 +3862,22 @@
         <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
         <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G26" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="H26" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="I26" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
         <v>1.41</v>
@@ -3931,43 +3931,43 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="R26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U26" t="n">
         <v>2.26</v>
       </c>
       <c r="V26" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W26" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X26" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
         <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
         <v>38</v>
@@ -3982,10 +3982,10 @@
         <v>11.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
         <v>12.5</v>
@@ -3994,10 +3994,10 @@
         <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK26" t="n">
         <v>32</v>
@@ -4009,10 +4009,10 @@
         <v>85</v>
       </c>
       <c r="AN26" t="n">
-        <v>27</v>
+        <v>600</v>
       </c>
       <c r="AO26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G27" t="n">
         <v>2.4</v>
@@ -4054,10 +4054,10 @@
         <v>3.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L27" t="n">
         <v>1.51</v>
@@ -4084,10 +4084,10 @@
         <v>4.7</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="U27" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="V27" t="n">
         <v>1.35</v>
@@ -4096,46 +4096,46 @@
         <v>1.71</v>
       </c>
       <c r="X27" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Y27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
         <v>500</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.4</v>
+        <v>42</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
         <v>250</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AI27" t="n">
         <v>380</v>
       </c>
       <c r="AJ27" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK27" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
         <v>290</v>
@@ -4147,7 +4147,7 @@
         <v>980</v>
       </c>
       <c r="AO27" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.32</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.22</v>
-      </c>
       <c r="P2" t="n">
-        <v>2.46</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="W2" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AD2" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>550</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>75</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>1.63</v>
@@ -826,70 +826,70 @@
         <v>1.15</v>
       </c>
       <c r="N3" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="O3" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="P3" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>2.28</v>
       </c>
       <c r="U3" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="V3" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>55</v>
+        <v>6.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH3" t="n">
         <v>40</v>
       </c>
-      <c r="AE3" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>970</v>
-      </c>
       <c r="AI3" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AJ3" t="n">
         <v>900</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="I4" t="n">
         <v>2.66</v>
@@ -952,7 +952,7 @@
         <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
@@ -964,13 +964,13 @@
         <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
         <v>1.51</v>
@@ -979,70 +979,70 @@
         <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.06</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W4" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF4" t="n">
         <v>42</v>
       </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>980</v>
-      </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="H5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I5" t="n">
         <v>7.4</v>
       </c>
-      <c r="I5" t="n">
-        <v>7.8</v>
-      </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.38</v>
@@ -1096,76 +1096,76 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
         <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="X5" t="n">
         <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
         <v>36</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -1210,19 +1210,19 @@
         <v>5.2</v>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
         <v>1.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>1.47</v>
@@ -1234,76 +1234,76 @@
         <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
         <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
         <v>1.22</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK6" t="n">
         <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
         <v>150</v>
@@ -1312,7 +1312,7 @@
         <v>110</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="7">
@@ -1345,16 +1345,16 @@
         <v>1.46</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
         <v>4.8</v>
@@ -1378,76 +1378,76 @@
         <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
         <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>2.28</v>
       </c>
       <c r="U7" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V7" t="n">
         <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AL7" t="n">
         <v>160</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN7" t="n">
-        <v>29</v>
+        <v>9.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G8" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
         <v>1.43</v>
@@ -1519,22 +1519,22 @@
         <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W8" t="n">
         <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="n">
         <v>190</v>
@@ -1543,34 +1543,34 @@
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AE8" t="n">
         <v>420</v>
       </c>
       <c r="AF8" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AI8" t="n">
         <v>330</v>
       </c>
       <c r="AJ8" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="n">
         <v>160</v>
@@ -1579,7 +1579,7 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
         <v>600</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.49</v>
@@ -1636,16 +1636,16 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R9" t="n">
         <v>1.29</v>
@@ -1654,40 +1654,40 @@
         <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
         <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
         <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
         <v>18.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -1696,7 +1696,7 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>80</v>
@@ -1705,10 +1705,10 @@
         <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
@@ -1753,16 +1753,16 @@
         <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.26</v>
@@ -1777,19 +1777,19 @@
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S10" t="n">
         <v>2.28</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
         <v>2.26</v>
@@ -1798,28 +1798,28 @@
         <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="X10" t="n">
         <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>960</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="n">
         <v>85</v>
       </c>
       <c r="AA10" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
         <v>110</v>
@@ -1828,7 +1828,7 @@
         <v>10.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
         <v>22</v>
@@ -1840,7 +1840,7 @@
         <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.55</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>3.8</v>
@@ -1903,7 +1903,7 @@
         <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
         <v>4.3</v>
@@ -1924,70 +1924,70 @@
         <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.06</v>
+        <v>1.76</v>
       </c>
       <c r="U11" t="n">
-        <v>1.05</v>
+        <v>2.22</v>
       </c>
       <c r="V11" t="n">
         <v>1.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>2.66</v>
       </c>
       <c r="G12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
@@ -2047,22 +2047,22 @@
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q12" t="n">
         <v>2.56</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
         <v>1.42</v>
@@ -2071,7 +2071,7 @@
         <v>1.59</v>
       </c>
       <c r="X12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y12" t="n">
         <v>9.800000000000001</v>
@@ -2092,7 +2092,7 @@
         <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF12" t="n">
         <v>15.5</v>
@@ -2110,7 +2110,7 @@
         <v>40</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
         <v>60</v>
@@ -2119,10 +2119,10 @@
         <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2155,91 +2155,91 @@
         <v>5.3</v>
       </c>
       <c r="G13" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H13" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I13" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J13" t="n">
         <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.06</v>
+        <v>2.08</v>
       </c>
       <c r="U13" t="n">
-        <v>1.05</v>
+        <v>1.82</v>
       </c>
       <c r="V13" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="W13" t="n">
         <v>1.21</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>7.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC13" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AI13" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AJ13" t="n">
         <v>900</v>
@@ -2257,7 +2257,7 @@
         <v>600</v>
       </c>
       <c r="AO13" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>3.35</v>
@@ -2311,88 +2311,88 @@
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.06</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
-        <v>1.05</v>
+        <v>1.94</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>900</v>
+        <v>290</v>
       </c>
       <c r="AB14" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2431,43 +2431,43 @@
         <v>1.88</v>
       </c>
       <c r="I15" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
         <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
         <v>2.02</v>
@@ -2476,37 +2476,37 @@
         <v>1.27</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>900</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AC15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE15" t="n">
         <v>42</v>
       </c>
-      <c r="AD15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>65</v>
-      </c>
       <c r="AF15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AH15" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
         <v>80</v>
@@ -2515,7 +2515,7 @@
         <v>900</v>
       </c>
       <c r="AK15" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AL15" t="n">
         <v>500</v>
@@ -2527,7 +2527,7 @@
         <v>600</v>
       </c>
       <c r="AO15" t="n">
-        <v>85</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="16">
@@ -2560,7 +2560,7 @@
         <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
         <v>3.7</v>
@@ -2572,22 +2572,22 @@
         <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>1.46</v>
       </c>
       <c r="P16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q16" t="n">
         <v>2.44</v>
@@ -2596,70 +2596,70 @@
         <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="U16" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AA16" t="n">
         <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC16" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE16" t="n">
         <v>500</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AI16" t="n">
         <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AL16" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AO16" t="n">
         <v>600</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.42</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.52</v>
@@ -2716,7 +2716,7 @@
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.45</v>
@@ -2725,79 +2725,79 @@
         <v>1.67</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
         <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.05</v>
+        <v>1.96</v>
       </c>
       <c r="U17" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="n">
         <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AI17" t="n">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="AJ17" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AL17" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AO17" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -2857,34 +2857,34 @@
         <v>1.12</v>
       </c>
       <c r="P18" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="S18" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="T18" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="U18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X18" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="n">
         <v>85</v>
@@ -2893,25 +2893,25 @@
         <v>160</v>
       </c>
       <c r="AB18" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE18" t="n">
         <v>95</v>
       </c>
       <c r="AF18" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI18" t="n">
         <v>80</v>
@@ -2920,19 +2920,19 @@
         <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>29</v>
+        <v>6.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19">
@@ -2968,10 +2968,10 @@
         <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="I19" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="J19" t="n">
         <v>4.3</v>
@@ -2992,22 +2992,22 @@
         <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T19" t="n">
-        <v>1.05</v>
+        <v>1.51</v>
       </c>
       <c r="U19" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="V19" t="n">
         <v>2.06</v>
@@ -3016,58 +3016,58 @@
         <v>1.32</v>
       </c>
       <c r="X19" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="n">
-        <v>42</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AF19" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AK19" t="n">
         <v>170</v>
       </c>
       <c r="AL19" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
         <v>600</v>
       </c>
       <c r="AO19" t="n">
-        <v>85</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
         <v>4.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
         <v>1.48</v>
@@ -3121,40 +3121,40 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.27</v>
       </c>
-      <c r="S20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Z20" t="n">
         <v>190</v>
@@ -3163,37 +3163,37 @@
         <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AE20" t="n">
         <v>500</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG20" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI20" t="n">
         <v>500</v>
       </c>
       <c r="AJ20" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AK20" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AL20" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="AM20" t="n">
         <v>580</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G21" t="n">
         <v>2.46</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
         <v>3.65</v>
       </c>
       <c r="J21" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
         <v>3.2</v>
@@ -3262,28 +3262,28 @@
         <v>1.54</v>
       </c>
       <c r="P21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="R21" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
         <v>5.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U21" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V21" t="n">
         <v>1.37</v>
       </c>
       <c r="W21" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X21" t="n">
         <v>8.6</v>
@@ -3295,16 +3295,16 @@
         <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC21" t="n">
         <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>60</v>
@@ -3313,13 +3313,13 @@
         <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
         <v>36</v>
@@ -3328,7 +3328,7 @@
         <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
         <v>180</v>
@@ -3337,7 +3337,7 @@
         <v>36</v>
       </c>
       <c r="AO21" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -3367,100 +3367,100 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="G22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.84</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L22" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R22" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.06</v>
+        <v>1.88</v>
       </c>
       <c r="U22" t="n">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W22" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X22" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AA22" t="n">
         <v>350</v>
       </c>
       <c r="AB22" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>120</v>
       </c>
       <c r="AF22" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
         <v>320</v>
       </c>
       <c r="AK22" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AL22" t="n">
         <v>200</v>
@@ -3469,10 +3469,10 @@
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="AO22" t="n">
-        <v>600</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -3508,10 +3508,10 @@
         <v>3.05</v>
       </c>
       <c r="H23" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I23" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -3520,34 +3520,34 @@
         <v>3.05</v>
       </c>
       <c r="L23" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="O23" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P23" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R23" t="n">
         <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U23" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
         <v>1.51</v>
@@ -3556,46 +3556,46 @@
         <v>1.48</v>
       </c>
       <c r="X23" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y23" t="n">
         <v>8.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA23" t="n">
         <v>48</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
         <v>44</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
         <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL23" t="n">
         <v>75</v>
@@ -3604,7 +3604,7 @@
         <v>190</v>
       </c>
       <c r="AN23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO23" t="n">
         <v>55</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G24" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
         <v>4.2</v>
@@ -3661,31 +3661,31 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R24" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U24" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="V24" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
         <v>2.08</v>
@@ -3706,16 +3706,16 @@
         <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG24" t="n">
         <v>10.5</v>
@@ -3733,16 +3733,16 @@
         <v>17</v>
       </c>
       <c r="AL24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN24" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -3778,49 +3778,49 @@
         <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.4</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P25" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S25" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="V25" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W25" t="n">
         <v>1.71</v>
@@ -3829,25 +3829,25 @@
         <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
         <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC25" t="n">
         <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF25" t="n">
         <v>13.5</v>
@@ -3856,7 +3856,7 @@
         <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>65</v>
@@ -3865,19 +3865,19 @@
         <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL25" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM25" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -3907,31 +3907,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H26" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I26" t="n">
         <v>2.56</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
         <v>1.3</v>
@@ -3940,25 +3940,25 @@
         <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
         <v>1.72</v>
       </c>
       <c r="U26" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V26" t="n">
         <v>1.64</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X26" t="n">
         <v>16</v>
@@ -3970,7 +3970,7 @@
         <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB26" t="n">
         <v>12.5</v>
@@ -3985,16 +3985,16 @@
         <v>26</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="n">
         <v>48</v>
@@ -4006,13 +4006,13 @@
         <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="n">
-        <v>600</v>
+        <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H27" t="n">
         <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J27" t="n">
         <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L27" t="n">
         <v>1.51</v>
@@ -4066,10 +4066,10 @@
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P27" t="n">
         <v>1.67</v>
@@ -4084,67 +4084,67 @@
         <v>4.7</v>
       </c>
       <c r="T27" t="n">
-        <v>1.05</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="V27" t="n">
         <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X27" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AA27" t="n">
         <v>500</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
         <v>250</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AI27" t="n">
         <v>380</v>
       </c>
       <c r="AJ27" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK27" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO27" t="n">
         <v>600</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>76 Igdir Belediyespor</t>
+          <t>US Monastirienne</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.48</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
         <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>2.96</v>
+        <v>1.25</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,52 +733,52 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>990</v>
+        <v>3.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>4.9</v>
       </c>
       <c r="AE2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF2" t="n">
         <v>1000</v>
       </c>
-      <c r="AF2" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AG2" t="n">
-        <v>990</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AI2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>1000</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL2" t="n">
-        <v>550</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>US Monastirienne</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.5</v>
+        <v>2.94</v>
       </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>3.05</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="I3" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>2.46</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.64</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>1.45</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
-        <v>1.16</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.28</v>
+        <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>1.65</v>
+        <v>2.52</v>
       </c>
       <c r="V3" t="n">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.2</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
         <v>38</v>
       </c>
-      <c r="AF3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>170</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>600</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.88</v>
+        <v>1.43</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
-        <v>2.56</v>
+        <v>9.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.66</v>
+        <v>9.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>2.46</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>85</v>
       </c>
       <c r="AA4" t="n">
+        <v>410</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL4" t="n">
         <v>38</v>
       </c>
-      <c r="AB4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>36</v>
-      </c>
       <c r="AM4" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>6.8</v>
       </c>
       <c r="AO4" t="n">
-        <v>17.5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.54</v>
+        <v>5.3</v>
       </c>
       <c r="G5" t="n">
-        <v>1.56</v>
+        <v>5.6</v>
       </c>
       <c r="H5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.2</v>
       </c>
-      <c r="I5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>230</v>
-      </c>
       <c r="AB5" t="n">
-        <v>8.199999999999999</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.6</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>150</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.4</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.2</v>
+        <v>1.45</v>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>9.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.84</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.22</v>
+        <v>3.05</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.6</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>540</v>
       </c>
       <c r="AB6" t="n">
-        <v>16.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>85</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>7.8</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="AJ6" t="n">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>790</v>
       </c>
       <c r="AN6" t="n">
-        <v>110</v>
+        <v>9.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>14.5</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Enosis Neon Paralimni</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="H7" t="n">
-        <v>9.4</v>
+        <v>5.1</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.28</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>2.22</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AA7" t="n">
-        <v>580</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE7" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.5</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
         <v>160</v>
       </c>
       <c r="AM7" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.4</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V8" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>420</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
         <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
         <v>44</v>
       </c>
-      <c r="AL8" t="n">
-        <v>160</v>
-      </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>1.42</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>1.43</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>8.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>8.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>6.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>1.77</v>
+        <v>2.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.24</v>
+        <v>1.52</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.76</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>2.28</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="V9" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>3.3</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>960</v>
       </c>
       <c r="AN9" t="n">
-        <v>18.5</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.41</v>
+        <v>2.32</v>
       </c>
       <c r="G10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.42</v>
       </c>
-      <c r="H10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W10" t="n">
-        <v>3.35</v>
+        <v>1.69</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="AA10" t="n">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
       </c>
       <c r="AC10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG10" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>30</v>
       </c>
-      <c r="AE10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
       <c r="AK10" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.7</v>
+        <v>16.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.28</v>
+        <v>2.66</v>
       </c>
       <c r="G11" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.15</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>2.44</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.76</v>
+        <v>1.97</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>1.97</v>
       </c>
       <c r="V11" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W11" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>9.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>12</v>
       </c>
-      <c r="AC11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK11" t="n">
         <v>32</v>
       </c>
-      <c r="AK11" t="n">
-        <v>25</v>
-      </c>
       <c r="AL11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN11" t="n">
         <v>36</v>
       </c>
-      <c r="AM11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.66</v>
+        <v>5.4</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>1.84</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>1.88</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
         <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
       <c r="W12" t="n">
-        <v>1.59</v>
+        <v>1.21</v>
       </c>
       <c r="X12" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z12" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA12" t="n">
-        <v>60</v>
-      </c>
       <c r="AB12" t="n">
-        <v>8.4</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AN12" t="n">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.3</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
-        <v>5.7</v>
+        <v>2.16</v>
       </c>
       <c r="H13" t="n">
-        <v>1.83</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.88</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="U13" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
-        <v>2.12</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.21</v>
+        <v>1.87</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.4</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF13" t="n">
         <v>13</v>
       </c>
-      <c r="AA13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>130</v>
-      </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AJ13" t="n">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="AK13" t="n">
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>600</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="G14" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="U14" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W14" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="X14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y14" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>13</v>
-      </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AA14" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AI14" t="n">
         <v>380</v>
       </c>
       <c r="AJ14" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G15" t="n">
         <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="I15" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2446,7 +2446,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.28</v>
@@ -2467,19 +2467,19 @@
         <v>1.79</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="W15" t="n">
         <v>1.27</v>
       </c>
       <c r="X15" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
         <v>20</v>
@@ -2488,7 +2488,7 @@
         <v>70</v>
       </c>
       <c r="AB15" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
         <v>13.5</v>
@@ -2497,7 +2497,7 @@
         <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF15" t="n">
         <v>95</v>
@@ -2506,7 +2506,7 @@
         <v>38</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
         <v>80</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
         <v>1.52</v>
@@ -2581,16 +2581,16 @@
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O16" t="n">
         <v>1.46</v>
       </c>
       <c r="P16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R16" t="n">
         <v>1.24</v>
@@ -2599,28 +2599,28 @@
         <v>4.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U16" t="n">
         <v>1.89</v>
       </c>
       <c r="V16" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="n">
         <v>8</v>
@@ -2629,46 +2629,46 @@
         <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="AJ16" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AL16" t="n">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.38</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="H17" t="n">
         <v>3.65</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>8.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>1.67</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.4</v>
+        <v>1.39</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
-        <v>4.7</v>
+        <v>2.04</v>
       </c>
       <c r="T17" t="n">
-        <v>1.96</v>
+        <v>1.47</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AF17" t="n">
         <v>18.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>40</v>
+        <v>14.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="AJ17" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="AK17" t="n">
-        <v>110</v>
+        <v>16.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
-        <v>70</v>
+        <v>6.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>110</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.89</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.65</v>
-      </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>1.94</v>
       </c>
       <c r="J18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.6</v>
       </c>
-      <c r="K18" t="n">
-        <v>5</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X18" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO18" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U18" t="n">
-        <v>3</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X18" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.85</v>
+        <v>1.96</v>
       </c>
       <c r="G19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S19" t="n">
         <v>4.1</v>
       </c>
-      <c r="H19" t="n">
+      <c r="T19" t="n">
         <v>1.89</v>
       </c>
-      <c r="I19" t="n">
+      <c r="U19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.94</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X19" t="n">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="AA19" t="n">
-        <v>42</v>
+        <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>38</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="AE19" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AF19" t="n">
-        <v>85</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AJ19" t="n">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="n">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="AL19" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO19" t="n">
         <v>600</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>7.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="G20" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>3.3</v>
+        <v>2.76</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="P20" t="n">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="Q20" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T20" t="n">
         <v>2.14</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.89</v>
-      </c>
       <c r="U20" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="V20" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="W20" t="n">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>900</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH20" t="n">
         <v>23</v>
       </c>
-      <c r="AG20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH20" t="n">
+      <c r="AI20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL20" t="n">
         <v>60</v>
       </c>
-      <c r="AI20" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>500</v>
-      </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="G21" t="n">
-        <v>2.46</v>
+        <v>2.84</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>2.84</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>2.92</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>2.78</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.54</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.68</v>
-      </c>
       <c r="X21" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AA21" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
         <v>36</v>
       </c>
       <c r="AO21" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="G22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.05</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="P22" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.28</v>
+        <v>2.78</v>
       </c>
       <c r="R22" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="S22" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="V22" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="W22" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF22" t="n">
         <v>18</v>
       </c>
-      <c r="AA22" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>21</v>
-      </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>55</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>320</v>
-      </c>
       <c r="AK22" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AL22" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AM22" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN22" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO22" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="G23" t="n">
-        <v>3.05</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
-        <v>2.94</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.96</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>2.68</v>
+        <v>6.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>1.53</v>
+        <v>2.78</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.82</v>
+        <v>1.55</v>
       </c>
       <c r="R23" t="n">
-        <v>1.19</v>
+        <v>1.72</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>2.36</v>
       </c>
       <c r="T23" t="n">
-        <v>2.18</v>
+        <v>1.56</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>2.76</v>
       </c>
       <c r="V23" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.4</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD23" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AE23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM23" t="n">
         <v>48</v>
       </c>
-      <c r="AB23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>190</v>
-      </c>
       <c r="AN23" t="n">
-        <v>60</v>
+        <v>7.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="G24" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="J24" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>6.4</v>
+        <v>3.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="P24" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.54</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.73</v>
+        <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>2.34</v>
+        <v>4.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.56</v>
+        <v>2.04</v>
       </c>
       <c r="U24" t="n">
-        <v>2.74</v>
+        <v>1.92</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="W24" t="n">
-        <v>2.08</v>
+        <v>1.71</v>
       </c>
       <c r="X24" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AA24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>7.8</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="I25" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.6</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="L25" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.4</v>
+        <v>1.87</v>
       </c>
       <c r="R25" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="U25" t="n">
-        <v>1.93</v>
+        <v>2.36</v>
       </c>
       <c r="V25" t="n">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="W25" t="n">
-        <v>1.71</v>
+        <v>1.48</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AE25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>48</v>
       </c>
-      <c r="AF25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ25" t="n">
+      <c r="AK25" t="n">
         <v>32</v>
       </c>
-      <c r="AK25" t="n">
-        <v>29</v>
-      </c>
       <c r="AL25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO25" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,261 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Estoril Praia</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2.34</v>
       </c>
       <c r="G26" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N26" t="n">
         <v>3.05</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.2</v>
-      </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="P26" t="n">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="T26" t="n">
-        <v>1.72</v>
+        <v>1.97</v>
       </c>
       <c r="U26" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="V26" t="n">
-        <v>1.64</v>
+        <v>1.35</v>
       </c>
       <c r="W26" t="n">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="X26" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="Y26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG26" t="n">
         <v>12</v>
       </c>
-      <c r="Z26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>13</v>
-      </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AI26" t="n">
-        <v>36</v>
+        <v>380</v>
       </c>
       <c r="AJ26" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="AM26" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AO26" t="n">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Cucuta Deportivo</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Once Caldas</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA27" t="n">
         <v>500</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>US Monastirienne</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,49 +736,49 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.94</v>
+        <v>5.9</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.44</v>
+        <v>1.76</v>
       </c>
       <c r="I3" t="n">
-        <v>2.52</v>
+        <v>1.77</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="P3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.32</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.66</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO3" t="n">
         <v>14</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
         <v>1.44</v>
       </c>
-      <c r="H4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.37</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W4" t="n">
         <v>3.1</v>
       </c>
-      <c r="T4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.3</v>
-      </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>410</v>
+        <v>550</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AE4" t="n">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="AF4" t="n">
         <v>7.8</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>180</v>
+        <v>790</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO4" t="n">
-        <v>240</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.3</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="n">
-        <v>5.6</v>
+        <v>1.77</v>
       </c>
       <c r="H5" t="n">
-        <v>1.79</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.83</v>
+        <v>5.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>1.21</v>
+        <v>2.26</v>
       </c>
       <c r="X5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN5" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AO5" t="n">
         <v>100</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Enosis Neon Paralimni</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
       <c r="H6" t="n">
-        <v>9.6</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>4.7</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>3.05</v>
+        <v>1.92</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>38</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>110</v>
       </c>
-      <c r="AA6" t="n">
-        <v>540</v>
-      </c>
       <c r="AB6" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>790</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.4</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
-        <v>440</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.77</v>
+        <v>1.41</v>
       </c>
       <c r="G7" t="n">
-        <v>1.81</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
-        <v>5.1</v>
+        <v>8.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>6.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.76</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>2.28</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.22</v>
+        <v>3.35</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Z7" t="n">
+        <v>990</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>480</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI7" t="n">
         <v>190</v>
       </c>
-      <c r="AA7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>420</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>330</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>980</v>
       </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>4.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>990</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.24</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.99</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="W8" t="n">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
         <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.42</v>
+        <v>2.66</v>
       </c>
       <c r="G9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.43</v>
       </c>
-      <c r="H9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="W9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC9" t="n">
         <v>6.6</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AD9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>34</v>
       </c>
-      <c r="Y9" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>260</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AK9" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>960</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AO9" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.32</v>
+        <v>6.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.44</v>
+        <v>6.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>1.76</v>
       </c>
       <c r="I10" t="n">
-        <v>3.35</v>
+        <v>1.78</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>2.86</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>2.22</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
-        <v>1.42</v>
+        <v>2.26</v>
       </c>
       <c r="W10" t="n">
-        <v>1.69</v>
+        <v>1.18</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>6.4</v>
       </c>
       <c r="Z10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>24</v>
       </c>
-      <c r="AA10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>38</v>
-      </c>
       <c r="AF10" t="n">
-        <v>16.5</v>
+        <v>130</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>500</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
-        <v>16.5</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="G11" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P11" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T11" t="n">
         <v>1.97</v>
       </c>
       <c r="U11" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="X11" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="AA11" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AO11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,46 +2008,46 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.4</v>
+        <v>2.08</v>
       </c>
       <c r="G12" t="n">
-        <v>5.8</v>
+        <v>2.14</v>
       </c>
       <c r="H12" t="n">
-        <v>1.84</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>1.88</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.55</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
         <v>2.28</v>
@@ -2056,79 +2056,79 @@
         <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="V12" t="n">
-        <v>2.14</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.21</v>
+        <v>1.87</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.800000000000001</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.5</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="AF12" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN12" t="n">
         <v>25</v>
       </c>
-      <c r="AI12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>260</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>140</v>
-      </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,88 +2143,88 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>NFC Volos</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="G13" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="P13" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.74</v>
       </c>
-      <c r="Q13" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.87</v>
-      </c>
       <c r="X13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y13" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>13</v>
-      </c>
       <c r="Z13" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>85</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE13" t="n">
         <v>60</v>
@@ -2236,34 +2236,34 @@
         <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="AJ13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN13" t="n">
         <v>27</v>
       </c>
-      <c r="AL13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>25</v>
-      </c>
       <c r="AO13" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.36</v>
+        <v>4.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2.42</v>
+        <v>4.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>1.87</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>1.92</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="S14" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.97</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.35</v>
+        <v>2.08</v>
       </c>
       <c r="W14" t="n">
-        <v>1.71</v>
+        <v>1.27</v>
       </c>
       <c r="X14" t="n">
-        <v>10.5</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="Z14" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="n">
-        <v>18.5</v>
+        <v>95</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>38</v>
       </c>
       <c r="AH14" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AL14" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO14" t="n">
-        <v>110</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.3</v>
+        <v>1.87</v>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>1.92</v>
       </c>
       <c r="H15" t="n">
-        <v>1.84</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>1.94</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>3.45</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.99</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>1.98</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.46</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W15" t="n">
         <v>2.06</v>
       </c>
-      <c r="W15" t="n">
-        <v>1.27</v>
-      </c>
       <c r="X15" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>36</v>
       </c>
       <c r="AF15" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="n">
-        <v>38</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>900</v>
+        <v>24</v>
       </c>
       <c r="AK15" t="n">
-        <v>200</v>
+        <v>16.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>44</v>
       </c>
       <c r="AN15" t="n">
-        <v>600</v>
+        <v>6.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NFC Volos</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>3.65</v>
       </c>
       <c r="G16" t="n">
-        <v>2.34</v>
+        <v>3.85</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>1.98</v>
       </c>
       <c r="I16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J16" t="n">
         <v>4</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K16" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.46</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>1.66</v>
+        <v>2.56</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.42</v>
+        <v>1.61</v>
       </c>
       <c r="R16" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="S16" t="n">
-        <v>4.7</v>
+        <v>2.52</v>
       </c>
       <c r="T16" t="n">
-        <v>1.99</v>
+        <v>1.56</v>
       </c>
       <c r="U16" t="n">
-        <v>1.89</v>
+        <v>2.56</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.98</v>
       </c>
       <c r="W16" t="n">
-        <v>1.74</v>
+        <v>1.35</v>
       </c>
       <c r="X16" t="n">
-        <v>9.6</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AB16" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>380</v>
+        <v>46</v>
       </c>
       <c r="AJ16" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AK16" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="AO16" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="G17" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.65</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>8.6</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.12</v>
+        <v>1.41</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>1.76</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.39</v>
+        <v>2.24</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>2.04</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.47</v>
+        <v>1.89</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>1.93</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="X17" t="n">
-        <v>42</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="Z17" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AA17" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>20</v>
+        <v>8.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AE17" t="n">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="AF17" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>14.5</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.6</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>18</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.9</v>
+        <v>2.44</v>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>2.46</v>
       </c>
       <c r="H18" t="n">
-        <v>1.89</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.94</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.27</v>
+        <v>1.61</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>2.76</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.54</v>
       </c>
       <c r="P18" t="n">
-        <v>2.84</v>
+        <v>1.59</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.52</v>
+        <v>2.64</v>
       </c>
       <c r="R18" t="n">
-        <v>1.72</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>2.32</v>
+        <v>5.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="U18" t="n">
-        <v>2.66</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>2.06</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.32</v>
+        <v>1.68</v>
       </c>
       <c r="X18" t="n">
-        <v>75</v>
+        <v>8.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
         <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="n">
-        <v>44</v>
+        <v>7.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="n">
-        <v>100</v>
+        <v>13.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="n">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="AK18" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="n">
-        <v>600</v>
+        <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.199999999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,48 +2948,48 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.96</v>
+        <v>2.8</v>
       </c>
       <c r="G19" t="n">
-        <v>2.06</v>
+        <v>2.84</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>2.88</v>
       </c>
       <c r="I19" t="n">
-        <v>4.9</v>
+        <v>2.92</v>
       </c>
       <c r="J19" t="n">
         <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.48</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P19" t="n">
         <v>1.8</v>
@@ -2998,82 +2998,82 @@
         <v>2.18</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S19" t="n">
         <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="W19" t="n">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="X19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD19" t="n">
         <v>13</v>
       </c>
-      <c r="Y19" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>46</v>
-      </c>
       <c r="AE19" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG19" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG19" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH19" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AJ19" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AO19" t="n">
-        <v>600</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,60 +3083,60 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>2.46</v>
+        <v>3.15</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>2.94</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="L20" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N20" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O20" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P20" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="R20" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S20" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="T20" t="n">
         <v>2.14</v>
@@ -3145,70 +3145,70 @@
         <v>1.84</v>
       </c>
       <c r="V20" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="W20" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="X20" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="Z20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH20" t="n">
         <v>22</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AI20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL20" t="n">
         <v>75</v>
       </c>
-      <c r="AB20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>60</v>
-      </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>1.94</v>
       </c>
       <c r="G21" t="n">
-        <v>2.84</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.92</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>1.82</v>
+        <v>2.74</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.16</v>
+        <v>1.56</v>
       </c>
       <c r="R21" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.32</v>
       </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.52</v>
-      </c>
       <c r="W21" t="n">
-        <v>1.54</v>
+        <v>2.04</v>
       </c>
       <c r="X21" t="n">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AJ21" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>60</v>
+        <v>16.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AN21" t="n">
-        <v>36</v>
+        <v>8.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="I22" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="L22" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="M22" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="P22" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.78</v>
+        <v>2.46</v>
       </c>
       <c r="R22" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="T22" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="U22" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="V22" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="W22" t="n">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AB22" t="n">
         <v>8.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AF22" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL22" t="n">
         <v>55</v>
       </c>
-      <c r="AK22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>75</v>
-      </c>
       <c r="AM22" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>3.05</v>
       </c>
       <c r="H23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N23" t="n">
         <v>4.2</v>
       </c>
-      <c r="I23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6.4</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>2.78</v>
+        <v>2.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="R23" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="S23" t="n">
-        <v>2.36</v>
+        <v>3.25</v>
       </c>
       <c r="T23" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="U23" t="n">
-        <v>2.76</v>
+        <v>2.34</v>
       </c>
       <c r="V23" t="n">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="W23" t="n">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="X23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE23" t="n">
         <v>25</v>
       </c>
-      <c r="Y23" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>42</v>
-      </c>
       <c r="AF23" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
         <v>36</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AK23" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="n">
-        <v>7.8</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,30 +3623,30 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="G24" t="n">
         <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="J24" t="n">
         <v>3.3</v>
@@ -3658,360 +3658,90 @@
         <v>1.52</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P24" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T24" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U24" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V24" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AA24" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AE24" t="n">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AI24" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AJ24" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AO24" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Club Football Estrela</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Estoril Praia</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X25" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Cucuta Deportivo</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Once Caldas</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO26" t="n">
         <v>500</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,78 +653,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>32</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,34 +733,34 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Bodrum Belediyesi Bodrumspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.9</v>
+        <v>2.38</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.76</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.77</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>2.58</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>2.62</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.84</v>
+        <v>4.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>1.29</v>
       </c>
       <c r="R3" t="n">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>2.22</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.32</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>1.71</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.800000000000001</v>
+        <v>770</v>
       </c>
       <c r="AE3" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>460</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>85</v>
+        <v>14.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Enosis Neon Paralimni</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.45</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.47</v>
-      </c>
       <c r="H4" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.5</v>
       </c>
-      <c r="K4" t="n">
-        <v>5</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="U4" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="V4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
         <v>80</v>
       </c>
-      <c r="Z4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>550</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>130</v>
-      </c>
       <c r="AM4" t="n">
-        <v>790</v>
+        <v>390</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>440</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="G5" t="n">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="H5" t="n">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.44</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.26</v>
+        <v>2.64</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AA5" t="n">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="n">
-        <v>85</v>
+        <v>440</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,87 +1193,87 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="G6" t="n">
-        <v>2.06</v>
+        <v>2.58</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.03</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="S6" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.95</v>
+        <v>1.34</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="W6" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AC6" t="n">
         <v>7.2</v>
@@ -1282,43 +1282,43 @@
         <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO6" t="n">
         <v>120</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.41</v>
+        <v>2.94</v>
       </c>
       <c r="G7" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.42</v>
       </c>
-      <c r="H7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W7" t="n">
-        <v>3.35</v>
+        <v>1.52</v>
       </c>
       <c r="X7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
         <v>34</v>
       </c>
-      <c r="Y7" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>990</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>480</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>22</v>
-      </c>
       <c r="AI7" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>980</v>
+        <v>490</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.8</v>
+        <v>90</v>
       </c>
       <c r="AO7" t="n">
-        <v>990</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.48</v>
+        <v>2.06</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="V8" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
         <v>24</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AI8" t="n">
         <v>90</v>
       </c>
-      <c r="AB8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>42</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.25</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>1.67</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.1</v>
       </c>
       <c r="P9" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>1.05</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="W9" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="X9" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,118 +1747,118 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="G10" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.76</v>
+        <v>1.97</v>
       </c>
       <c r="I10" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="O10" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="S10" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="V10" t="n">
-        <v>2.26</v>
+        <v>1.95</v>
       </c>
       <c r="W10" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AB10" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AK10" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AL10" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>NFC Volos</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.52</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="T11" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W11" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="X11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>260</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AF11" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AO11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.08</v>
+        <v>4.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14</v>
+        <v>4.8</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>1.89</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>1.99</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>1.74</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.28</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.27</v>
       </c>
-      <c r="S12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.87</v>
-      </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA12" t="n">
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="AL12" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NFC Volos</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.28</v>
+        <v>1.84</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>1.86</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>4.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>1.21</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U13" t="n">
         <v>3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.87</v>
       </c>
       <c r="V13" t="n">
         <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.74</v>
+        <v>2.16</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="AA13" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.8</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AG13" t="n">
         <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>380</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AO13" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.3</v>
       </c>
-      <c r="G14" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.52</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="V14" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="W14" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="X14" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>18</v>
       </c>
-      <c r="Z14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>36</v>
-      </c>
       <c r="AF14" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AG14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="n">
         <v>38</v>
       </c>
-      <c r="AH14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>200</v>
-      </c>
       <c r="AL14" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>600</v>
+        <v>27</v>
       </c>
       <c r="AO14" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.87</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2.06</v>
-      </c>
       <c r="X15" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AA15" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>8.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AE15" t="n">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>14.5</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AJ15" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AM15" t="n">
-        <v>44</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.4</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.65</v>
       </c>
-      <c r="G16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.98</v>
-      </c>
       <c r="I16" t="n">
-        <v>2.02</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>2.78</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="P16" t="n">
-        <v>2.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.61</v>
+        <v>2.66</v>
       </c>
       <c r="R16" t="n">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="S16" t="n">
-        <v>2.52</v>
+        <v>5.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.56</v>
+        <v>2.14</v>
       </c>
       <c r="U16" t="n">
-        <v>2.56</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="X16" t="n">
-        <v>25</v>
+        <v>8.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="n">
-        <v>28</v>
+        <v>7.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AK16" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN16" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.04</v>
+        <v>2.8</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>2.82</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>2.92</v>
       </c>
       <c r="J17" t="n">
         <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.48</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S17" t="n">
         <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="W17" t="n">
-        <v>1.86</v>
+        <v>1.54</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>46</v>
       </c>
-      <c r="AE17" t="n">
-        <v>290</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>44</v>
-      </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>600</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.44</v>
+        <v>3.15</v>
       </c>
       <c r="G18" t="n">
-        <v>2.46</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>2.86</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="K18" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="L18" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="M18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N18" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O18" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P18" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="R18" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S18" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="T18" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U18" t="n">
         <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="W18" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="X18" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM18" t="n">
         <v>180</v>
       </c>
       <c r="AN18" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AO18" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.8</v>
+        <v>1.98</v>
       </c>
       <c r="G19" t="n">
-        <v>2.84</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.92</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>1.8</v>
+        <v>2.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.18</v>
+        <v>1.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="S19" t="n">
-        <v>4.1</v>
+        <v>2.42</v>
       </c>
       <c r="T19" t="n">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="U19" t="n">
-        <v>2.04</v>
+        <v>2.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="W19" t="n">
-        <v>1.54</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AE19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI19" t="n">
         <v>34</v>
       </c>
-      <c r="AF19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>90</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AN19" t="n">
-        <v>32</v>
+        <v>8.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="G20" t="n">
-        <v>3.15</v>
+        <v>2.54</v>
       </c>
       <c r="H20" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.94</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="M20" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="P20" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.8</v>
+        <v>2.46</v>
       </c>
       <c r="R20" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="T20" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="V20" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="W20" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="X20" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE20" t="n">
         <v>46</v>
       </c>
-      <c r="AB20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>40</v>
-      </c>
       <c r="AF20" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL20" t="n">
         <v>55</v>
       </c>
-      <c r="AK20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>75</v>
-      </c>
       <c r="AM20" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO20" t="n">
         <v>55</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.94</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>3.05</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>2.54</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>2.56</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.29</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.18</v>
-      </c>
       <c r="P21" t="n">
-        <v>2.74</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="R21" t="n">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
       <c r="S21" t="n">
-        <v>2.42</v>
+        <v>3.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="U21" t="n">
-        <v>2.74</v>
+        <v>2.36</v>
       </c>
       <c r="V21" t="n">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="W21" t="n">
-        <v>2.04</v>
+        <v>1.48</v>
       </c>
       <c r="X21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE21" t="n">
         <v>25</v>
       </c>
-      <c r="Y21" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>42</v>
-      </c>
       <c r="AF21" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>36</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AK21" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AL21" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.4</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,36 +3353,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.35</v>
       </c>
       <c r="L22" t="n">
         <v>1.53</v>
@@ -3391,16 +3391,16 @@
         <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P22" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R22" t="n">
         <v>1.25</v>
@@ -3409,339 +3409,69 @@
         <v>4.8</v>
       </c>
       <c r="T22" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="U22" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="AA22" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AE22" t="n">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="AF22" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AI22" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Club Football Estrela</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Estoril Praia</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Cucuta Deportivo</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Once Caldas</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO24" t="n">
         <v>500</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,17 +653,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -850,70 +850,70 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -985,70 +985,70 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,66 +1058,66 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>38</v>
+        <v>1.01</v>
       </c>
       <c r="J5" t="n">
-        <v>2.58</v>
+        <v>1000</v>
       </c>
       <c r="K5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.01</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.39</v>
       </c>
       <c r="V5" t="n">
         <v>1.01</v>
@@ -1141,10 +1141,10 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,10 +1153,10 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1177,13 +1177,13 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,936 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.54</v>
+        <v>1.56</v>
       </c>
       <c r="G6" t="n">
-        <v>2.58</v>
+        <v>1.58</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>2.62</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.66</v>
       </c>
-      <c r="L6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5.8</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="S6" t="n">
-        <v>16.5</v>
+        <v>6.4</v>
       </c>
       <c r="T6" t="n">
-        <v>3.45</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>1.37</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.31</v>
+        <v>1.02</v>
       </c>
       <c r="W6" t="n">
-        <v>1.58</v>
+        <v>2.4</v>
       </c>
       <c r="X6" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.5</v>
+        <v>6.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>19.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AN6" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>French Ligue 2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Nancy</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Guingamp</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S7" t="n">
-        <v>9</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Lazio</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Como</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Brighton</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Bournemouth</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Elche</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S10" t="n">
-        <v>6</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Club Football Estrela</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Estoril Praia</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Cucuta Deportivo</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Once Caldas</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
